--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C037227C-8745-415C-B871-611B5EDD7F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868AC5C3-C76A-4789-AF85-AC39CB3E79C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
+    <sheet name="Конденсаторы" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -137,9 +138,6 @@
     <t xml:space="preserve"> ±5 %</t>
   </si>
   <si>
-    <t>Рабочее напряжение</t>
-  </si>
-  <si>
     <t>50 В</t>
   </si>
   <si>
@@ -186,6 +184,87 @@
   </si>
   <si>
     <t>pcb\r0603.PcbLib</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL05C101FB5NNN.do</t>
+  </si>
+  <si>
+    <t>c0001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0402 100 пФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 %</t>
+    </r>
+  </si>
+  <si>
+    <t>CL05C101FB5NNNC</t>
+  </si>
+  <si>
+    <t>Samsung electro-mechanics</t>
+  </si>
+  <si>
+    <t>100 пФ</t>
+  </si>
+  <si>
+    <t>Номинальное напряжение</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>pcb\c0402.PcbLib</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от -55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>С до +125 °С</t>
+    </r>
+  </si>
+  <si>
+    <t>C-50.0V</t>
+  </si>
+  <si>
+    <t>sch\capacitor_50.0v.SchLib</t>
   </si>
 </sst>
 </file>
@@ -546,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +667,13 @@
         <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -641,32 +720,32 @@
         <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,32 +771,32 @@
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -729,4 +808,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ABC392-3691-424B-96F2-DBAD6513806F}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{073A37D6-75E6-4B92-9D50-69A83567D906}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868AC5C3-C76A-4789-AF85-AC39CB3E79C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A5F95-3AE5-4D81-BDC4-CC363BBC517B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
     <sheet name="Конденсаторы" sheetId="2" r:id="rId2"/>
+    <sheet name="Светодиоды" sheetId="4" r:id="rId3"/>
+    <sheet name="Диоды" sheetId="6" r:id="rId4"/>
+    <sheet name="Диодные сборки" sheetId="5" r:id="rId5"/>
+    <sheet name="Ферритовая бусина" sheetId="7" r:id="rId6"/>
+    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId7"/>
+    <sheet name="Разъемы" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="238">
   <si>
     <t>ID</t>
   </si>
@@ -69,9 +75,6 @@
     <t>Library Ref</t>
   </si>
   <si>
-    <t>R-0.063W</t>
-  </si>
-  <si>
     <t>Footprint Path</t>
   </si>
   <si>
@@ -87,33 +90,6 @@
     <t>HelpURL</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Резистор чип 0603 1 Ом 0,1 Вт </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 %</t>
-    </r>
-  </si>
-  <si>
-    <t>Резистор чип 0603 1 Ом 0,1 Вт ±5 %</t>
-  </si>
-  <si>
     <t>RC0603FR-071RL</t>
   </si>
   <si>
@@ -144,43 +120,10 @@
     <t>Рабочие температуры</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">от -50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>С до +150 °С</t>
-    </r>
-  </si>
-  <si>
-    <t>от -50 °С до +150 °С</t>
-  </si>
-  <si>
     <t>Номинальный ток</t>
   </si>
   <si>
     <t>1 А</t>
-  </si>
-  <si>
-    <t>http://www.yageo.ru/pdf/RC0603.pdf</t>
-  </si>
-  <si>
-    <t>sch\resistor_0.063w.SchLib</t>
   </si>
   <si>
     <t>pcb\r0603.PcbLib</t>
@@ -222,9 +165,6 @@
     <t>Samsung electro-mechanics</t>
   </si>
   <si>
-    <t>100 пФ</t>
-  </si>
-  <si>
     <t>Номинальное напряжение</t>
   </si>
   <si>
@@ -261,22 +201,767 @@
     </r>
   </si>
   <si>
-    <t>C-50.0V</t>
-  </si>
-  <si>
-    <t>sch\capacitor_50.0v.SchLib</t>
+    <t>Преобразователь USB-UART</t>
+  </si>
+  <si>
+    <t>Многоканальный драйвер RS-232</t>
+  </si>
+  <si>
+    <t>ST202BTR</t>
+  </si>
+  <si>
+    <t>CP2104</t>
+  </si>
+  <si>
+    <t>Silicon Laboratories Inc.</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>TSSOP16</t>
+  </si>
+  <si>
+    <t>QFN-24</t>
+  </si>
+  <si>
+    <t>https://www.silabs.com/interface/usb-bridges/classic/device.cp2104</t>
+  </si>
+  <si>
+    <t>https://www.st.com/content/st_com/en/products/interfaces-and-transceivers/rs-232/st202b.html</t>
+  </si>
+  <si>
+    <t>sch\cp2104.SchLib</t>
+  </si>
+  <si>
+    <t>sch\st202b.SchLib</t>
+  </si>
+  <si>
+    <t>ST202B</t>
+  </si>
+  <si>
+    <t>TSSOP-16</t>
+  </si>
+  <si>
+    <t>pcb\qfn_24.PcbLib</t>
+  </si>
+  <si>
+    <t>pcb\tssop_16.PcbLib</t>
+  </si>
+  <si>
+    <t>sch\capacitor_nonpolar.SchLib</t>
+  </si>
+  <si>
+    <t>sch\resistor_common.SchLib</t>
+  </si>
+  <si>
+    <t>R-COMMON</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/leds/list/product-83172/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от -40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>С до +100 °С</t>
+    </r>
+  </si>
+  <si>
+    <t>hl0001</t>
+  </si>
+  <si>
+    <t>Vishay Intertechnology, Inc.</t>
+  </si>
+  <si>
+    <t>TLMS1000-GS08</t>
+  </si>
+  <si>
+    <t>Цвет</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Номинальная длина волны</t>
+  </si>
+  <si>
+    <t>Номинальная сила света</t>
+  </si>
+  <si>
+    <t>Номинальное падение напряжение</t>
+  </si>
+  <si>
+    <t>1,8 В</t>
+  </si>
+  <si>
+    <t>628 нм</t>
+  </si>
+  <si>
+    <t>Номинальный прямой ток</t>
+  </si>
+  <si>
+    <t>15 мА</t>
+  </si>
+  <si>
+    <t>Рассеиваемая мощность</t>
+  </si>
+  <si>
+    <t>40 мВт</t>
+  </si>
+  <si>
+    <t>hl0002</t>
+  </si>
+  <si>
+    <t>TLMO1000-GS08</t>
+  </si>
+  <si>
+    <t>Soft orange</t>
+  </si>
+  <si>
+    <t>hl0003</t>
+  </si>
+  <si>
+    <t>TLMY1000-GS08</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 мкд</t>
+  </si>
+  <si>
+    <t>7,5 мкд</t>
+  </si>
+  <si>
+    <t>605 нм</t>
+  </si>
+  <si>
+    <t>588 нм</t>
+  </si>
+  <si>
+    <t>sch\hl_common.SchLib</t>
+  </si>
+  <si>
+    <t>HL-COMMON</t>
+  </si>
+  <si>
+    <t>pcb\hl0603.PcbLib</t>
+  </si>
+  <si>
+    <t>HL0603</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/leds/list/product-83173/</t>
+  </si>
+  <si>
+    <t>hl0004</t>
+  </si>
+  <si>
+    <t>hl0005</t>
+  </si>
+  <si>
+    <t>TLMO1100-GS08</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>TLMG1100-GS08</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>hl0006</t>
+  </si>
+  <si>
+    <t>TLMB1100-GS08</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>90 мВт</t>
+  </si>
+  <si>
+    <t>30 мА</t>
+  </si>
+  <si>
+    <t>Not for new design</t>
+  </si>
+  <si>
+    <t>2,1 В</t>
+  </si>
+  <si>
+    <t>3,9 В</t>
+  </si>
+  <si>
+    <t>80 мкд</t>
+  </si>
+  <si>
+    <t>35 мкд</t>
+  </si>
+  <si>
+    <t>5 мкд</t>
+  </si>
+  <si>
+    <t>466 нм</t>
+  </si>
+  <si>
+    <t>570 нм</t>
+  </si>
+  <si>
+    <t>606 нм</t>
+  </si>
+  <si>
+    <t>Светодиод чип 0603 красный</t>
+  </si>
+  <si>
+    <t>Светодиод чип 0603 светло-оранжевый</t>
+  </si>
+  <si>
+    <t>Светодиод чип 0603 желтый</t>
+  </si>
+  <si>
+    <t>Светодиод чип 0603 оранжевый</t>
+  </si>
+  <si>
+    <t>Светодиод чип 0603 зеленый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Светодиод чип 0603 синий </t>
+  </si>
+  <si>
+    <t>c0002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 1206 1 мкФ 25 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> полярный</t>
+    </r>
+  </si>
+  <si>
+    <t>293D105X9025A2TE3</t>
+  </si>
+  <si>
+    <t>±10 %</t>
+  </si>
+  <si>
+    <t>25 В</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/capacitors/list/product-40002/</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>C1206POLAR</t>
+  </si>
+  <si>
+    <t>pcb\c1206polar.PcbLib</t>
+  </si>
+  <si>
+    <t>C-POLAR</t>
+  </si>
+  <si>
+    <t>sch\capacitor_polar.SchLib</t>
+  </si>
+  <si>
+    <t>dd0001</t>
+  </si>
+  <si>
+    <t>dd0002</t>
+  </si>
+  <si>
+    <t>vd0001</t>
+  </si>
+  <si>
+    <t>SP0503BAHTG</t>
+  </si>
+  <si>
+    <t>Littelfuse, Inc.</t>
+  </si>
+  <si>
+    <t>SOT143-4</t>
+  </si>
+  <si>
+    <t>pcb\sot143_4.PcbLib</t>
+  </si>
+  <si>
+    <t>C-NONPOLAR</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/products/tvs-diode-arrays/general-purpose-esd-protection/sp050xba-lead-free-green.aspx</t>
+  </si>
+  <si>
+    <t>vd0002</t>
+  </si>
+  <si>
+    <t>SD12C-01FTG</t>
+  </si>
+  <si>
+    <t>Диодная сборка для подавления помех, 5 В</t>
+  </si>
+  <si>
+    <t>Двунаправленная диодная сборка для подавления помех, 12 В</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/products/tvs-diode-arrays/general-purpose-esd-protection/sdc/sd12c_01ftg.aspx</t>
+  </si>
+  <si>
+    <t>SOD323</t>
+  </si>
+  <si>
+    <t>pcb\sod323.PcbLib</t>
+  </si>
+  <si>
+    <t>vd0003</t>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+  </si>
+  <si>
+    <t>SOT23-6L</t>
+  </si>
+  <si>
+    <t>https://www.st.com/content/st_com/en/products/protection-devices/esd-protection/usb-port-protection/usblc6-2.html</t>
+  </si>
+  <si>
+    <t>pcb\sot23_6l.PcbLib</t>
+  </si>
+  <si>
+    <t>Диодная сборка для подавления помех, от 6 В</t>
+  </si>
+  <si>
+    <t>vd0004</t>
+  </si>
+  <si>
+    <t>USB6B1</t>
+  </si>
+  <si>
+    <t>https://www.st.com/content/st_com/en/products/protection-devices/esd-protection/usb-port-protection/usb6b1.html</t>
+  </si>
+  <si>
+    <t>SO-8</t>
+  </si>
+  <si>
+    <t>sch\usb6b1.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\so_8.PcbLib</t>
+  </si>
+  <si>
+    <t>c0003</t>
+  </si>
+  <si>
+    <t>293D104X9050A2TE3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 1206 0,1 мкФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> полярный</t>
+    </r>
+  </si>
+  <si>
+    <t>SL13-E3/5AT</t>
+  </si>
+  <si>
+    <t>DO-214AC</t>
+  </si>
+  <si>
+    <t>Диод Шоттки 30 В 1,5 А</t>
+  </si>
+  <si>
+    <t>Макс. допустимый средний прямой ток</t>
+  </si>
+  <si>
+    <t>1,5 А</t>
+  </si>
+  <si>
+    <t>Импульсное обратное напряжение</t>
+  </si>
+  <si>
+    <t>30 В</t>
+  </si>
+  <si>
+    <t>Пиковое прямое напряжение</t>
+  </si>
+  <si>
+    <t>0,445 В</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/product?docid=88740</t>
+  </si>
+  <si>
+    <t>sch\diode_schottky.SchLib</t>
+  </si>
+  <si>
+    <t>DIODE-SCHOTTKY</t>
+  </si>
+  <si>
+    <t>pcb\do_214ac.PcbLib</t>
+  </si>
+  <si>
+    <t>l0001</t>
+  </si>
+  <si>
+    <t>BLM18KG221SH1D</t>
+  </si>
+  <si>
+    <t>Ферритовая бусина 220 Ом ±25 %</t>
+  </si>
+  <si>
+    <t>Murata Manufacturing Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Сопротивление, 100 МГц</t>
+  </si>
+  <si>
+    <t>220 Ом</t>
+  </si>
+  <si>
+    <t>Отклонение, 100 Мгц</t>
+  </si>
+  <si>
+    <t>±25 %</t>
+  </si>
+  <si>
+    <t>Сопротивление при постоянном токе</t>
+  </si>
+  <si>
+    <t>0,05 Ом</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/en-global/products/productdetail.aspx?partno=BLM18KG221SH1%23</t>
+  </si>
+  <si>
+    <t>sch\ferrite_bead.SchLib</t>
+  </si>
+  <si>
+    <t>FERRITE-BEAD</t>
+  </si>
+  <si>
+    <t>pcb\ferrite_bead.PcbLib</t>
+  </si>
+  <si>
+    <t>c0004</t>
+  </si>
+  <si>
+    <t>c0005</t>
+  </si>
+  <si>
+    <t>c0006</t>
+  </si>
+  <si>
+    <t>r0003</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K7L</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от -55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>С до +155 °С</t>
+    </r>
+  </si>
+  <si>
+    <t>r0004</t>
+  </si>
+  <si>
+    <t>RC0603FR-07330RL</t>
+  </si>
+  <si>
+    <t>r0005</t>
+  </si>
+  <si>
+    <t>r0006</t>
+  </si>
+  <si>
+    <t>4,7 к</t>
+  </si>
+  <si>
+    <t>RC0603FR-07220RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0722R</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_11.pdf</t>
+  </si>
+  <si>
+    <t>75 В</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор чип 0603 1 Ом </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 % 0,1 Вт</t>
+    </r>
+  </si>
+  <si>
+    <t>Резистор чип 0603 22 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 220 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 330 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 4,7 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резистор чип 0603 1 Ом ±5 % 0,1 Вт </t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>pcb\c0603.PcbLib</t>
+  </si>
+  <si>
+    <t>±5 %</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB105</t>
+  </si>
+  <si>
+    <t>CC0603KRX5R8BB475</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB104</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/products/datasheet/mlcc/UPY-GPHC_X7R_6.3V-to-50V_20.pdf</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-GPHC_X5R_4V-to-50V_26.pdf</t>
+  </si>
+  <si>
+    <t>sch\sp0503bahtg.SchLib</t>
+  </si>
+  <si>
+    <t>sch\sd12c_01ftg.SchLib</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 1 мкФ 25 В ±10 %</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0603 0,1 мкФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 4,7 мкФ 25 В ±10 %</t>
+  </si>
+  <si>
+    <t>sch\usblc6_2sc6.SchLib</t>
+  </si>
+  <si>
+    <t>x0001</t>
+  </si>
+  <si>
+    <t>x0002</t>
+  </si>
+  <si>
+    <t>2108877-1</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>USB 2.0 Micro USB Type B IP68 гнездо прямой угол</t>
+  </si>
+  <si>
+    <t>1-1740194-2</t>
+  </si>
+  <si>
+    <t>D-Sub 9 pin Board-to-Board</t>
+  </si>
+  <si>
+    <t>https://www.te.com/global-en/product-1-1740194-2.html</t>
+  </si>
+  <si>
+    <t>https://www.te.com/global-en/product-2108877-1.html</t>
+  </si>
+  <si>
+    <t>sch\header_9_tp1_sct.SchLib</t>
+  </si>
+  <si>
+    <t>HEADER-9-TP1-SCT</t>
+  </si>
+  <si>
+    <t>HEADER-5-TP1-SCT</t>
+  </si>
+  <si>
+    <t>sch\header_5_tp1_sct.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\1_1740194_2.PcbLib</t>
+  </si>
+  <si>
+    <t>pcb\2108877_1.PcbLib</t>
+  </si>
+  <si>
+    <t>100 п</t>
+  </si>
+  <si>
+    <t>0,1 мк</t>
+  </si>
+  <si>
+    <t>1 мк</t>
+  </si>
+  <si>
+    <t>4,7 мк</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,6 +991,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,9 +1041,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,8 +1054,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,10 +1380,10 @@
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="30.7109375" customWidth="1"/>
     <col min="14" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="40.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,22 +1397,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -688,16 +1427,16 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -705,50 +1444,50 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -756,66 +1495,643 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>33</v>
+      <c r="M4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>220</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>330</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
+    <hyperlink ref="Q7" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
+    <hyperlink ref="Q6" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
+    <hyperlink ref="Q5" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{BD25E15B-326E-4DB3-B206-A53BBBA29F60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ABC392-3691-424B-96F2-DBAD6513806F}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{073A37D6-75E6-4B92-9D50-69A83567D906}"/>
+    <hyperlink ref="P7" r:id="rId2" xr:uid="{8BA6022E-D201-4782-9DFC-BE97EC1796F5}"/>
+    <hyperlink ref="P6" r:id="rId3" xr:uid="{E4805A96-51DF-4E60-8EF9-6445A45C688B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DDA5E3-EA42-4E04-BB83-0B98927B5C26}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,12 +2141,450 @@
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{70BCDEAE-B456-492D-88B7-17107356D063}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{EF36A799-7EEE-47BA-B90A-A6DF24FD7E89}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{B34B2599-C0F9-454D-BB0E-477C6B8E558B}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{F3C9E8EA-596A-47F7-86E7-025C68880EC3}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{40F15725-7E9A-4FBB-B10D-B12FC8B42E9C}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{40750E55-C9D5-44FC-84C8-FFBB04EC103B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA27FA4-91C0-4174-BAC0-C2DF96E3C663}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
     <col min="10" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="60.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -847,19 +2601,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -874,67 +2628,672 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>167</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>36</v>
+        <v>169</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{073A37D6-75E6-4B92-9D50-69A83567D906}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{2A0991D2-C6BC-42B4-9712-1AD0D47AAB04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{DA098F72-D0F9-49A7-B3B8-A55C31CEABDC}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{B2192E2B-EDA8-4905-AD15-E3AF0BE0AB45}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{85DCAEC2-CFAA-41D8-80CB-A27529CB7B68}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{96F9E2EE-8FDC-4C92-8EA7-45F2F2188B0A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E0FC9-9830-4699-947B-3F4AFF7DA467}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{4B004AEF-4B14-4635-900B-D5BC92A5D513}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{DF2E561A-AEFC-40E9-82DE-7A5BBB46892D}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{C38E3611-1B0E-4DBE-8222-3FEBF62A9241}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{ED28BC9B-C51C-4175-8652-C36CE3082E6D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Документы и прочее\Политех\4\4.1\Схемотехника\library\Altium_BEng\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A5F95-3AE5-4D81-BDC4-CC363BBC517B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD87C0E-4831-4AC0-B097-ED72958809DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="289">
   <si>
     <t>ID</t>
   </si>
@@ -943,12 +943,209 @@
   <si>
     <t>4,7 мк</t>
   </si>
+  <si>
+    <t>Super red</t>
+  </si>
+  <si>
+    <t>2 В</t>
+  </si>
+  <si>
+    <t>sch\diode_VLMx1501.SchLib</t>
+  </si>
+  <si>
+    <t>D-VLMx1501</t>
+  </si>
+  <si>
+    <t>pcb\VLMx1501.PcbLib</t>
+  </si>
+  <si>
+    <t>VLMx150</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/82554/vlmo1500.pdf</t>
+  </si>
+  <si>
+    <t>2.8 В</t>
+  </si>
+  <si>
+    <t>Ляпцев</t>
+  </si>
+  <si>
+    <t>Ultrabright 0402 ChipLED</t>
+  </si>
+  <si>
+    <t>VLMS1501-GS08</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>VLMB1501-GS08</t>
+  </si>
+  <si>
+    <t>hl0007</t>
+  </si>
+  <si>
+    <t>hl0008</t>
+  </si>
+  <si>
+    <t>Резистор чип 0100 33 Ом 0,31 Вт ±0.5 %</t>
+  </si>
+  <si>
+    <t>RC0100FR-07330RL</t>
+  </si>
+  <si>
+    <t>±0.5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 В </t>
+  </si>
+  <si>
+    <t>от -55 °С до +125 °С</t>
+  </si>
+  <si>
+    <t>0.5 А</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>sch\resistor_RC0100.SchLib</t>
+  </si>
+  <si>
+    <t>R-RC0100</t>
+  </si>
+  <si>
+    <t>pcb\RC0100.pcbLib</t>
+  </si>
+  <si>
+    <t>RC0100</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/products/datasheet/rchip/PYu-RC_Group_51_RoHS_L_11.pdf</t>
+  </si>
+  <si>
+    <t>RC0100FR-0733RL</t>
+  </si>
+  <si>
+    <t>r0007</t>
+  </si>
+  <si>
+    <t>r0008</t>
+  </si>
+  <si>
+    <t>Микросхема HT42B533</t>
+  </si>
+  <si>
+    <t>HT42B533</t>
+  </si>
+  <si>
+    <t>Holtec</t>
+  </si>
+  <si>
+    <t>sch\u_HT42B533.SchLib</t>
+  </si>
+  <si>
+    <t>U-HT42B533</t>
+  </si>
+  <si>
+    <t>pcb\HT42B5-33.PcbLib</t>
+  </si>
+  <si>
+    <t>HT42B5-33</t>
+  </si>
+  <si>
+    <t>https://www.holtek.com/documents/10179/116711/HT42B533-xv120.pdf</t>
+  </si>
+  <si>
+    <t>dd0003</t>
+  </si>
+  <si>
+    <t>с0007</t>
+  </si>
+  <si>
+    <t>Козлов</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 47 пФ  25 В ±5%</t>
+  </si>
+  <si>
+    <t>CL03C470JA3NNNC</t>
+  </si>
+  <si>
+    <t>47 п</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от -55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>С до +125 °С</t>
+    </r>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL03C470JA3NNN.do</t>
+  </si>
+  <si>
+    <t>c0008</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 1206 10 мкФ 16 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 % полярный</t>
+    </r>
+  </si>
+  <si>
+    <t>293D106X9016A2TE3</t>
+  </si>
+  <si>
+    <t>10 мк</t>
+  </si>
+  <si>
+    <t>16 В</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,6 +1218,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1043,7 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,6 +1291,19 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1362,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,6 +1962,106 @@
         <v>197</v>
       </c>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>330</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N9" t="s">
+        <v>261</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P9" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1755,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ABC392-3691-424B-96F2-DBAD6513806F}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,24 +2438,122 @@
         <v>120</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="14">
+        <v>603</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1206</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{073A37D6-75E6-4B92-9D50-69A83567D906}"/>
     <hyperlink ref="P7" r:id="rId2" xr:uid="{8BA6022E-D201-4782-9DFC-BE97EC1796F5}"/>
     <hyperlink ref="P6" r:id="rId3" xr:uid="{E4805A96-51DF-4E60-8EF9-6445A45C688B}"/>
+    <hyperlink ref="P8" r:id="rId4" xr:uid="{D1B5D93F-4BD9-40A0-862C-20946860DB12}"/>
+    <hyperlink ref="P9" r:id="rId5" xr:uid="{644F5855-DC8F-463D-BA8B-5B1BB3391456}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DDA5E3-EA42-4E04-BB83-0B98927B5C26}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,6 +2970,102 @@
       <c r="S7" s="5" t="s">
         <v>88</v>
       </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="1">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="M8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="1">
+        <v>28</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="M9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3033,10 +3551,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,6 +3675,42 @@
       </c>
       <c r="L3" s="5" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L4" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Документы и прочее\Политех\4\4.1\Схемотехника\library\Altium_BEng\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD87C0E-4831-4AC0-B097-ED72958809DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A5F95-3AE5-4D81-BDC4-CC363BBC517B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="238">
   <si>
     <t>ID</t>
   </si>
@@ -943,209 +943,12 @@
   <si>
     <t>4,7 мк</t>
   </si>
-  <si>
-    <t>Super red</t>
-  </si>
-  <si>
-    <t>2 В</t>
-  </si>
-  <si>
-    <t>sch\diode_VLMx1501.SchLib</t>
-  </si>
-  <si>
-    <t>D-VLMx1501</t>
-  </si>
-  <si>
-    <t>pcb\VLMx1501.PcbLib</t>
-  </si>
-  <si>
-    <t>VLMx150</t>
-  </si>
-  <si>
-    <t>https://www.vishay.com/docs/82554/vlmo1500.pdf</t>
-  </si>
-  <si>
-    <t>2.8 В</t>
-  </si>
-  <si>
-    <t>Ляпцев</t>
-  </si>
-  <si>
-    <t>Ultrabright 0402 ChipLED</t>
-  </si>
-  <si>
-    <t>VLMS1501-GS08</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>VLMB1501-GS08</t>
-  </si>
-  <si>
-    <t>hl0007</t>
-  </si>
-  <si>
-    <t>hl0008</t>
-  </si>
-  <si>
-    <t>Резистор чип 0100 33 Ом 0,31 Вт ±0.5 %</t>
-  </si>
-  <si>
-    <t>RC0100FR-07330RL</t>
-  </si>
-  <si>
-    <t>±0.5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 В </t>
-  </si>
-  <si>
-    <t>от -55 °С до +125 °С</t>
-  </si>
-  <si>
-    <t>0.5 А</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>sch\resistor_RC0100.SchLib</t>
-  </si>
-  <si>
-    <t>R-RC0100</t>
-  </si>
-  <si>
-    <t>pcb\RC0100.pcbLib</t>
-  </si>
-  <si>
-    <t>RC0100</t>
-  </si>
-  <si>
-    <t>https://www.yageo.com/upload/media/product/products/datasheet/rchip/PYu-RC_Group_51_RoHS_L_11.pdf</t>
-  </si>
-  <si>
-    <t>RC0100FR-0733RL</t>
-  </si>
-  <si>
-    <t>r0007</t>
-  </si>
-  <si>
-    <t>r0008</t>
-  </si>
-  <si>
-    <t>Микросхема HT42B533</t>
-  </si>
-  <si>
-    <t>HT42B533</t>
-  </si>
-  <si>
-    <t>Holtec</t>
-  </si>
-  <si>
-    <t>sch\u_HT42B533.SchLib</t>
-  </si>
-  <si>
-    <t>U-HT42B533</t>
-  </si>
-  <si>
-    <t>pcb\HT42B5-33.PcbLib</t>
-  </si>
-  <si>
-    <t>HT42B5-33</t>
-  </si>
-  <si>
-    <t>https://www.holtek.com/documents/10179/116711/HT42B533-xv120.pdf</t>
-  </si>
-  <si>
-    <t>dd0003</t>
-  </si>
-  <si>
-    <t>с0007</t>
-  </si>
-  <si>
-    <t>Козлов</t>
-  </si>
-  <si>
-    <t>Конденсатор чип 0603 47 пФ  25 В ±5%</t>
-  </si>
-  <si>
-    <t>CL03C470JA3NNNC</t>
-  </si>
-  <si>
-    <t>47 п</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">от -55 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>С до +125 °С</t>
-    </r>
-  </si>
-  <si>
-    <t>http://product.samsungsem.com/mlcc/CL03C470JA3NNN.do</t>
-  </si>
-  <si>
-    <t>c0008</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Конденсатор чип 1206 10 мкФ 16 В </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10 % полярный</t>
-    </r>
-  </si>
-  <si>
-    <t>293D106X9016A2TE3</t>
-  </si>
-  <si>
-    <t>10 мк</t>
-  </si>
-  <si>
-    <t>16 В</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,20 +1021,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1254,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1291,19 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1586,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,106 +1738,6 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="N8" t="s">
-        <v>261</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="P8" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2">
-        <v>330</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H9" t="s">
-        <v>256</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="N9" t="s">
-        <v>261</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="P9" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>264</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2079,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ABC392-3691-424B-96F2-DBAD6513806F}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,122 +2114,24 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="J8" s="14">
-        <v>603</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="J9" s="14">
-        <v>1206</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{073A37D6-75E6-4B92-9D50-69A83567D906}"/>
     <hyperlink ref="P7" r:id="rId2" xr:uid="{8BA6022E-D201-4782-9DFC-BE97EC1796F5}"/>
     <hyperlink ref="P6" r:id="rId3" xr:uid="{E4805A96-51DF-4E60-8EF9-6445A45C688B}"/>
-    <hyperlink ref="P8" r:id="rId4" xr:uid="{D1B5D93F-4BD9-40A0-862C-20946860DB12}"/>
-    <hyperlink ref="P9" r:id="rId5" xr:uid="{644F5855-DC8F-463D-BA8B-5B1BB3391456}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DDA5E3-EA42-4E04-BB83-0B98927B5C26}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,102 +2548,6 @@
       <c r="S7" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="1">
-        <v>54</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="M8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="1">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="M9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3551,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,42 +3157,6 @@
       </c>
       <c r="L3" s="5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K4" t="s">
-        <v>274</v>
-      </c>
-      <c r="L4" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A5F95-3AE5-4D81-BDC4-CC363BBC517B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677A851-5787-4A8B-A15E-BCBF8295602C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="261">
   <si>
     <t>ID</t>
   </si>
@@ -942,6 +942,75 @@
   </si>
   <si>
     <t>4,7 мк</t>
+  </si>
+  <si>
+    <t>dd0003</t>
+  </si>
+  <si>
+    <t>Самарин</t>
+  </si>
+  <si>
+    <t>MCP2200</t>
+  </si>
+  <si>
+    <t>Microchip Technology Inc.</t>
+  </si>
+  <si>
+    <t>SOIC-20</t>
+  </si>
+  <si>
+    <t>sch\mcp2200.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\soic_20.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.microchip.com/wwwproducts/en/en546923</t>
+  </si>
+  <si>
+    <t>dd0004</t>
+  </si>
+  <si>
+    <t>Передатчик RS-485/RS-422</t>
+  </si>
+  <si>
+    <t>ADM3485</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analog Devices, Inc.</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>sch\adm3485.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\soic_8.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/ru/products/adm3485.html#product-samplebuy</t>
+  </si>
+  <si>
+    <t>vd0005</t>
+  </si>
+  <si>
+    <t>Диодная сборка для подавления помех, -7/12 В</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/products/tvs-diode-arrays/general-purpose-esd-protection/sm712.aspx</t>
+  </si>
+  <si>
+    <t>SM712-02HTG</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t>sch\sm712_02htg.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\sot23_3.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ABC392-3691-424B-96F2-DBAD6513806F}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2694,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,34 +2894,34 @@
         <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>257</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2866,27 +2935,62 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2894,12 +2998,13 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{DA098F72-D0F9-49A7-B3B8-A55C31CEABDC}"/>
-    <hyperlink ref="L4" r:id="rId2" xr:uid="{B2192E2B-EDA8-4905-AD15-E3AF0BE0AB45}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{B2192E2B-EDA8-4905-AD15-E3AF0BE0AB45}"/>
     <hyperlink ref="L3" r:id="rId3" xr:uid="{85DCAEC2-CFAA-41D8-80CB-A27529CB7B68}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{96F9E2EE-8FDC-4C92-8EA7-45F2F2188B0A}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{96F9E2EE-8FDC-4C92-8EA7-45F2F2188B0A}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{E0613673-7DAA-4963-99C9-A8BBDC1652E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3033,10 +3138,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,10 +3264,82 @@
         <v>48</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{DF2E561A-AEFC-40E9-82DE-7A5BBB46892D}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{C38E3611-1B0E-4DBE-8222-3FEBF62A9241}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{A800EF23-64AF-420F-9A5D-C502992665D4}"/>
+    <hyperlink ref="L5" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677A851-5787-4A8B-A15E-BCBF8295602C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAA04CD-B6DC-4DD2-A185-0200EDD3A5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="282">
   <si>
     <t>ID</t>
   </si>
@@ -1012,12 +1012,96 @@
   <si>
     <t>pcb\sot23_3.PcbLib</t>
   </si>
+  <si>
+    <t>RC0603FR‍‐07100RL</t>
+  </si>
+  <si>
+    <t>r0007</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 100 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>r0008</t>
+  </si>
+  <si>
+    <t>10 к</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB224</t>
+  </si>
+  <si>
+    <t>c0007</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0603 0,22 мкФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+  </si>
+  <si>
+    <t>0,22 мк</t>
+  </si>
+  <si>
+    <t>CC0603KRX5R9BB225</t>
+  </si>
+  <si>
+    <t>c0008</t>
+  </si>
+  <si>
+    <t>2,2 мк</t>
+  </si>
+  <si>
+    <t>x0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLS 3x2 pin 2,54 мм прямой </t>
+  </si>
+  <si>
+    <t>DS1021-2*3SF11</t>
+  </si>
+  <si>
+    <t>Connfly Electronic Co. LTD</t>
+  </si>
+  <si>
+    <t>http://www.connfly.com/userfiles/image/UpLoadFile/File/2015/1/29/DS1021.pdf</t>
+  </si>
+  <si>
+    <t>l0002</t>
+  </si>
+  <si>
+    <t>BLM18PG221SN1D</t>
+  </si>
+  <si>
+    <t>0,1 Ом</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,6 +1174,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1112,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,10 +1235,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1431,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,19 +1754,19 @@
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -1715,16 +1807,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
@@ -1765,16 +1857,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>194</v>
+      <c r="F7" s="2">
+        <v>330</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
@@ -1806,28 +1898,136 @@
       <c r="Q7" s="4" t="s">
         <v>197</v>
       </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
-    <hyperlink ref="Q7" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
-    <hyperlink ref="Q6" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
-    <hyperlink ref="Q5" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
+    <hyperlink ref="Q8" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
+    <hyperlink ref="Q7" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
+    <hyperlink ref="Q6" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
     <hyperlink ref="Q4" r:id="rId6" xr:uid="{BD25E15B-326E-4DB3-B206-A53BBBA29F60}"/>
+    <hyperlink ref="Q5" r:id="rId7" xr:uid="{4B37EE84-E192-4597-92E3-61AF62354749}"/>
+    <hyperlink ref="Q9" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ABC392-3691-424B-96F2-DBAD6513806F}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,7 +2155,7 @@
       <c r="C3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1998,25 +2198,25 @@
         <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>208</v>
+        <v>269</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>38</v>
@@ -2049,16 +2249,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>118</v>
@@ -2086,7 +2286,7 @@
         <v>205</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2094,19 +2294,19 @@
         <v>185</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>118</v>
@@ -2117,23 +2317,24 @@
       <c r="I6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>120</v>
+        <v>205</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2144,54 +2345,156 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>119</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>120</v>
       </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{073A37D6-75E6-4B92-9D50-69A83567D906}"/>
-    <hyperlink ref="P7" r:id="rId2" xr:uid="{8BA6022E-D201-4782-9DFC-BE97EC1796F5}"/>
-    <hyperlink ref="P6" r:id="rId3" xr:uid="{E4805A96-51DF-4E60-8EF9-6445A45C688B}"/>
+    <hyperlink ref="P9" r:id="rId2" xr:uid="{8BA6022E-D201-4782-9DFC-BE97EC1796F5}"/>
+    <hyperlink ref="P8" r:id="rId3" xr:uid="{E4805A96-51DF-4E60-8EF9-6445A45C688B}"/>
+    <hyperlink ref="P7" r:id="rId4" xr:uid="{B50126D0-933D-4886-90BF-7D017265A54B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2765,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3010,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E0FC9-9830-4699-947B-3F4AFF7DA467}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,9 +3431,57 @@
         <v>180</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{4B004AEF-4B14-4635-900B-D5BC92A5D513}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{78E7F7BB-AAF7-4438-8AF0-7E4339F7BB27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3347,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,7 +3794,7 @@
       <c r="C3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>224</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3463,14 +3814,47 @@
       </c>
       <c r="K3" s="5" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{ED28BC9B-C51C-4175-8652-C36CE3082E6D}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{E7E06F9E-C994-49F0-A92C-E6A3FA954BB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAA04CD-B6DC-4DD2-A185-0200EDD3A5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754B7C66-177A-415A-AA9E-64B16DABE7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Ферритовая бусина" sheetId="7" r:id="rId6"/>
     <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId7"/>
     <sheet name="Разъемы" sheetId="9" r:id="rId8"/>
+    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="293">
   <si>
     <t>ID</t>
   </si>
@@ -1095,6 +1096,39 @@
   </si>
   <si>
     <t>0,1 Ом</t>
+  </si>
+  <si>
+    <t>q0001</t>
+  </si>
+  <si>
+    <t>Кварцевый резонатор</t>
+  </si>
+  <si>
+    <t>CSTCE12MOG52Q-R0</t>
+  </si>
+  <si>
+    <t>3,2x1,3x0,7</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
+  <si>
+    <t>12 Мгц</t>
+  </si>
+  <si>
+    <t>sch\cstce12mog52a_r0.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\cstce_3_320x130x40.PcbLib</t>
+  </si>
+  <si>
+    <t>CSTCE-3-320X130X40</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/en-us/api/pdfdownloadapi?cate=&amp;partno=CSTCE12M0G52A-R0</t>
+  </si>
+  <si>
+    <t>CSTCE12MOG52A-R0</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3068,7 +3102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3316,7 +3350,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3857,4 +3891,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{F9D1BD3B-4C0F-4D1D-86F0-78BAA9A15A93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754B7C66-177A-415A-AA9E-64B16DABE7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C452D9B-3D74-4A88-A470-7F168D8D5011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
-    <sheet name="Конденсаторы" sheetId="2" r:id="rId2"/>
+    <sheet name="Конденсаторы" sheetId="12" r:id="rId2"/>
     <sheet name="Светодиоды" sheetId="4" r:id="rId3"/>
     <sheet name="Диоды" sheetId="6" r:id="rId4"/>
     <sheet name="Диодные сборки" sheetId="5" r:id="rId5"/>
-    <sheet name="Ферритовая бусина" sheetId="7" r:id="rId6"/>
-    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId7"/>
-    <sheet name="Разъемы" sheetId="9" r:id="rId8"/>
-    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId9"/>
+    <sheet name="Ферритовая бусина" sheetId="11" r:id="rId6"/>
+    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId7"/>
+    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId8"/>
+    <sheet name="Разъемы" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="301">
   <si>
     <t>ID</t>
   </si>
@@ -717,9 +717,6 @@
     <t>FERRITE-BEAD</t>
   </si>
   <si>
-    <t>pcb\ferrite_bead.PcbLib</t>
-  </si>
-  <si>
     <t>c0004</t>
   </si>
   <si>
@@ -858,6 +855,258 @@
     <t>Конденсатор чип 0603 1 мкФ 25 В ±10 %</t>
   </si>
   <si>
+    <t>Конденсатор чип 0603 4,7 мкФ 25 В ±10 %</t>
+  </si>
+  <si>
+    <t>sch\usblc6_2sc6.SchLib</t>
+  </si>
+  <si>
+    <t>x0001</t>
+  </si>
+  <si>
+    <t>x0002</t>
+  </si>
+  <si>
+    <t>2108877-1</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>USB 2.0 Micro USB Type B IP68 гнездо прямой угол</t>
+  </si>
+  <si>
+    <t>1-1740194-2</t>
+  </si>
+  <si>
+    <t>D-Sub 9 pin Board-to-Board</t>
+  </si>
+  <si>
+    <t>https://www.te.com/global-en/product-1-1740194-2.html</t>
+  </si>
+  <si>
+    <t>https://www.te.com/global-en/product-2108877-1.html</t>
+  </si>
+  <si>
+    <t>sch\header_9_tp1_sct.SchLib</t>
+  </si>
+  <si>
+    <t>HEADER-9-TP1-SCT</t>
+  </si>
+  <si>
+    <t>HEADER-5-TP1-SCT</t>
+  </si>
+  <si>
+    <t>sch\header_5_tp1_sct.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\1_1740194_2.PcbLib</t>
+  </si>
+  <si>
+    <t>pcb\2108877_1.PcbLib</t>
+  </si>
+  <si>
+    <t>100 п</t>
+  </si>
+  <si>
+    <t>0,1 мк</t>
+  </si>
+  <si>
+    <t>1 мк</t>
+  </si>
+  <si>
+    <t>4,7 мк</t>
+  </si>
+  <si>
+    <t>dd0003</t>
+  </si>
+  <si>
+    <t>Самарин</t>
+  </si>
+  <si>
+    <t>MCP2200</t>
+  </si>
+  <si>
+    <t>Microchip Technology Inc.</t>
+  </si>
+  <si>
+    <t>SOIC-20</t>
+  </si>
+  <si>
+    <t>sch\mcp2200.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\soic_20.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.microchip.com/wwwproducts/en/en546923</t>
+  </si>
+  <si>
+    <t>dd0004</t>
+  </si>
+  <si>
+    <t>Передатчик RS-485/RS-422</t>
+  </si>
+  <si>
+    <t>ADM3485</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analog Devices, Inc.</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>sch\adm3485.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\soic_8.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/ru/products/adm3485.html#product-samplebuy</t>
+  </si>
+  <si>
+    <t>vd0005</t>
+  </si>
+  <si>
+    <t>Диодная сборка для подавления помех, -7/12 В</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/products/tvs-diode-arrays/general-purpose-esd-protection/sm712.aspx</t>
+  </si>
+  <si>
+    <t>SM712-02HTG</t>
+  </si>
+  <si>
+    <t>SOT23-3</t>
+  </si>
+  <si>
+    <t>sch\sm712_02htg.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\sot23_3.PcbLib</t>
+  </si>
+  <si>
+    <t>RC0603FR‍‐07100RL</t>
+  </si>
+  <si>
+    <t>r0007</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 100 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>r0008</t>
+  </si>
+  <si>
+    <t>10 к</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB224</t>
+  </si>
+  <si>
+    <t>c0007</t>
+  </si>
+  <si>
+    <t>0,22 мк</t>
+  </si>
+  <si>
+    <t>CC0603KRX5R9BB225</t>
+  </si>
+  <si>
+    <t>c0008</t>
+  </si>
+  <si>
+    <t>2,2 мк</t>
+  </si>
+  <si>
+    <t>x0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLS 3x2 pin 2,54 мм прямой </t>
+  </si>
+  <si>
+    <t>DS1021-2*3SF11</t>
+  </si>
+  <si>
+    <t>Connfly Electronic Co. LTD</t>
+  </si>
+  <si>
+    <t>l0002</t>
+  </si>
+  <si>
+    <t>BLM18PG221SN1D</t>
+  </si>
+  <si>
+    <t>0,1 Ом</t>
+  </si>
+  <si>
+    <t>q0001</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
+  <si>
+    <t>pcb\cstce_3_320x130x40.PcbLib</t>
+  </si>
+  <si>
+    <t>CSTCE-3-320X130X40</t>
+  </si>
+  <si>
+    <t>12 МГц</t>
+  </si>
+  <si>
+    <t>pcb\ds1021_2x3sf11.PcbLib</t>
+  </si>
+  <si>
+    <t>DS1021-2X3SF11</t>
+  </si>
+  <si>
+    <t>http://www.connfly.com/productshow.aspx?id=118</t>
+  </si>
+  <si>
+    <t>HEADER-6-PLG</t>
+  </si>
+  <si>
+    <t>sch\header_6_plg.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\blm_2_0603.PcbLib</t>
+  </si>
+  <si>
+    <t>BLM-2-0603</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/en-global/products/productdetail?partno=BLM18PG221SN1%23</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от -55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>С до +85 °С</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Конденсатор чип 0603 0,1 мкФ 50 В </t>
     </r>
@@ -877,165 +1126,20 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>10 %</t>
+      <t>5</t>
     </r>
-  </si>
-  <si>
-    <t>Конденсатор чип 0603 4,7 мкФ 25 В ±10 %</t>
-  </si>
-  <si>
-    <t>sch\usblc6_2sc6.SchLib</t>
-  </si>
-  <si>
-    <t>x0001</t>
-  </si>
-  <si>
-    <t>x0002</t>
-  </si>
-  <si>
-    <t>2108877-1</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>USB 2.0 Micro USB Type B IP68 гнездо прямой угол</t>
-  </si>
-  <si>
-    <t>1-1740194-2</t>
-  </si>
-  <si>
-    <t>D-Sub 9 pin Board-to-Board</t>
-  </si>
-  <si>
-    <t>https://www.te.com/global-en/product-1-1740194-2.html</t>
-  </si>
-  <si>
-    <t>https://www.te.com/global-en/product-2108877-1.html</t>
-  </si>
-  <si>
-    <t>sch\header_9_tp1_sct.SchLib</t>
-  </si>
-  <si>
-    <t>HEADER-9-TP1-SCT</t>
-  </si>
-  <si>
-    <t>HEADER-5-TP1-SCT</t>
-  </si>
-  <si>
-    <t>sch\header_5_tp1_sct.SchLib</t>
-  </si>
-  <si>
-    <t>pcb\1_1740194_2.PcbLib</t>
-  </si>
-  <si>
-    <t>pcb\2108877_1.PcbLib</t>
-  </si>
-  <si>
-    <t>100 п</t>
-  </si>
-  <si>
-    <t>0,1 мк</t>
-  </si>
-  <si>
-    <t>1 мк</t>
-  </si>
-  <si>
-    <t>4,7 мк</t>
-  </si>
-  <si>
-    <t>dd0003</t>
-  </si>
-  <si>
-    <t>Самарин</t>
-  </si>
-  <si>
-    <t>MCP2200</t>
-  </si>
-  <si>
-    <t>Microchip Technology Inc.</t>
-  </si>
-  <si>
-    <t>SOIC-20</t>
-  </si>
-  <si>
-    <t>sch\mcp2200.SchLib</t>
-  </si>
-  <si>
-    <t>pcb\soic_20.PcbLib</t>
-  </si>
-  <si>
-    <t>https://www.microchip.com/wwwproducts/en/en546923</t>
-  </si>
-  <si>
-    <t>dd0004</t>
-  </si>
-  <si>
-    <t>Передатчик RS-485/RS-422</t>
-  </si>
-  <si>
-    <t>ADM3485</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Analog Devices, Inc.</t>
-  </si>
-  <si>
-    <t>SOIC-8</t>
-  </si>
-  <si>
-    <t>sch\adm3485.SchLib</t>
-  </si>
-  <si>
-    <t>pcb\soic_8.PcbLib</t>
-  </si>
-  <si>
-    <t>https://www.analog.com/ru/products/adm3485.html#product-samplebuy</t>
-  </si>
-  <si>
-    <t>vd0005</t>
-  </si>
-  <si>
-    <t>Диодная сборка для подавления помех, -7/12 В</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/products/tvs-diode-arrays/general-purpose-esd-protection/sm712.aspx</t>
-  </si>
-  <si>
-    <t>SM712-02HTG</t>
-  </si>
-  <si>
-    <t>SOT23-3</t>
-  </si>
-  <si>
-    <t>sch\sm712_02htg.SchLib</t>
-  </si>
-  <si>
-    <t>pcb\sot23_3.PcbLib</t>
-  </si>
-  <si>
-    <t>RC0603FR‍‐07100RL</t>
-  </si>
-  <si>
-    <t>r0007</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 100 Ом ±1 % 0,1 Вт</t>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t>r0008</t>
-  </si>
-  <si>
-    <t>10 к</t>
-  </si>
-  <si>
-    <t>CC0603JRX7R9BB224</t>
-  </si>
-  <si>
-    <t>c0007</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1057,78 +1161,41 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>10 %</t>
+      <t>5</t>
     </r>
-  </si>
-  <si>
-    <t>0,22 мк</t>
-  </si>
-  <si>
-    <t>CC0603KRX5R9BB225</t>
-  </si>
-  <si>
-    <t>c0008</t>
-  </si>
-  <si>
-    <t>2,2 мк</t>
-  </si>
-  <si>
-    <t>x0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLS 3x2 pin 2,54 мм прямой </t>
-  </si>
-  <si>
-    <t>DS1021-2*3SF11</t>
-  </si>
-  <si>
-    <t>Connfly Electronic Co. LTD</t>
-  </si>
-  <si>
-    <t>http://www.connfly.com/userfiles/image/UpLoadFile/File/2015/1/29/DS1021.pdf</t>
-  </si>
-  <si>
-    <t>l0002</t>
-  </si>
-  <si>
-    <t>BLM18PG221SN1D</t>
-  </si>
-  <si>
-    <t>0,1 Ом</t>
-  </si>
-  <si>
-    <t>q0001</t>
-  </si>
-  <si>
-    <t>Кварцевый резонатор</t>
-  </si>
-  <si>
-    <t>CSTCE12MOG52Q-R0</t>
-  </si>
-  <si>
-    <t>3,2x1,3x0,7</t>
-  </si>
-  <si>
-    <t>Частота</t>
-  </si>
-  <si>
-    <t>12 Мгц</t>
-  </si>
-  <si>
-    <t>sch\cstce12mog52a_r0.SchLib</t>
-  </si>
-  <si>
-    <t>pcb\cstce_3_320x130x40.PcbLib</t>
-  </si>
-  <si>
-    <t>CSTCE-3-320X130X40</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/en-us/api/pdfdownloadapi?cate=&amp;partno=CSTCE12M0G52A-R0</t>
-  </si>
-  <si>
-    <t>CSTCE12MOG52A-R0</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %</t>
+    </r>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 2,2 мкФ 50 В ±10 %</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 10 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>Кварцевый резонатор 12 МГц</t>
+  </si>
+  <si>
+    <t>3,2x1,3x0,4</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/en-us/products/productdetail?partno=CSTCE12M0G52A-R0</t>
+  </si>
+  <si>
+    <t>CSTCE12M0G52A-R0</t>
+  </si>
+  <si>
+    <t>sch\cstce12m0g52a_r0.SchLib</t>
   </si>
 </sst>
 </file>
@@ -1141,6 +1208,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1200,21 +1283,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1235,9 +1303,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1248,32 +1316,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1557,11 +1624,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1639,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -1654,10 +1719,10 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -1679,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1690,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1705,10 +1770,10 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -1730,21 +1795,21 @@
         <v>13</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1756,10 +1821,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -1780,21 +1845,21 @@
         <v>13</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1806,10 +1871,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
@@ -1830,21 +1895,21 @@
         <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1856,10 +1921,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>27</v>
@@ -1880,21 +1945,21 @@
         <v>13</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1906,10 +1971,10 @@
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
@@ -1930,36 +1995,36 @@
         <v>13</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>27</v>
@@ -1980,36 +2045,36 @@
         <v>13</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>27</v>
@@ -2030,17 +2095,75 @@
         <v>13</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>197</v>
-      </c>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="12"/>
+      <c r="A13"/>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
@@ -2057,12 +2180,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ABC392-3691-424B-96F2-DBAD6513806F}">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2148,7 +2269,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
@@ -2187,19 +2308,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>210</v>
+        <v>292</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
@@ -2218,13 +2339,13 @@
         <v>133</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2232,22 +2353,22 @@
         <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>267</v>
+        <v>293</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>24</v>
@@ -2266,33 +2387,33 @@
         <v>133</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>118</v>
@@ -2314,33 +2435,33 @@
         <v>133</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>271</v>
+        <v>294</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>118</v>
@@ -2349,7 +2470,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -2362,10 +2483,10 @@
         <v>133</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>211</v>
@@ -2373,22 +2494,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>209</v>
+        <v>215</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>118</v>
@@ -2397,7 +2518,7 @@
         <v>119</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -2410,18 +2531,18 @@
         <v>133</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2436,7 +2557,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>118</v>
@@ -2468,7 +2589,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -2483,7 +2604,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>118</v>
@@ -2513,22 +2634,94 @@
         <v>120</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10"/>
+      <c r="D10" s="1"/>
+      <c r="H10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11"/>
+      <c r="D11" s="1"/>
+      <c r="H11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12"/>
+      <c r="D12" s="1"/>
+      <c r="H12"/>
+      <c r="J12"/>
+    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
+      <c r="B13" s="1"/>
+      <c r="C13"/>
+      <c r="D13" s="1"/>
+      <c r="H13"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="12"/>
+      <c r="B14" s="1"/>
+      <c r="C14"/>
+      <c r="D14" s="1"/>
+      <c r="H14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15"/>
+      <c r="D15" s="1"/>
+      <c r="H15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16"/>
+      <c r="D16" s="1"/>
+      <c r="H16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17"/>
+      <c r="D17" s="1"/>
+      <c r="H17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18"/>
+      <c r="D18" s="1"/>
+      <c r="H18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19"/>
+      <c r="D19" s="1"/>
+      <c r="H19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20"/>
+      <c r="D20" s="1"/>
+      <c r="H20"/>
+      <c r="J20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{073A37D6-75E6-4B92-9D50-69A83567D906}"/>
-    <hyperlink ref="P9" r:id="rId2" xr:uid="{8BA6022E-D201-4782-9DFC-BE97EC1796F5}"/>
-    <hyperlink ref="P8" r:id="rId3" xr:uid="{E4805A96-51DF-4E60-8EF9-6445A45C688B}"/>
-    <hyperlink ref="P7" r:id="rId4" xr:uid="{B50126D0-933D-4886-90BF-7D017265A54B}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{6424A0A0-2B33-4804-A187-0A0D12DBBE83}"/>
+    <hyperlink ref="P9" r:id="rId2" xr:uid="{F253E5C5-E99D-4C1F-855D-4713A6868696}"/>
+    <hyperlink ref="P8" r:id="rId3" xr:uid="{AFCC2B1D-E974-40DD-AC88-624E39891C4F}"/>
+    <hyperlink ref="P6" r:id="rId4" xr:uid="{744209AB-2D79-43DF-A2BA-8B8E29F6EA68}"/>
+    <hyperlink ref="P7" r:id="rId5" xr:uid="{CBBF5DF8-0BF1-423D-9AF0-108754F8C32B}"/>
+    <hyperlink ref="P5" r:id="rId6" xr:uid="{0F45D710-8F8D-4D0A-AF25-B9211ECCCE9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2536,9 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DDA5E3-EA42-4E04-BB83-0B98927B5C26}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2956,7 +3147,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{70BCDEAE-B456-492D-88B7-17107356D063}"/>
     <hyperlink ref="S3" r:id="rId2" xr:uid="{EF36A799-7EEE-47BA-B90A-A6DF24FD7E89}"/>
@@ -2974,9 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA27FA4-91C0-4174-BAC0-C2DF96E3C663}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3102,9 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3176,7 +3363,7 @@
         <v>131</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>129</v>
@@ -3211,7 +3398,7 @@
         <v>140</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
@@ -3231,34 +3418,34 @@
         <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3281,7 +3468,7 @@
         <v>144</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>143</v>
@@ -3298,7 +3485,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -3332,7 +3519,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{DA098F72-D0F9-49A7-B3B8-A55C31CEABDC}"/>
     <hyperlink ref="L5" r:id="rId2" xr:uid="{B2192E2B-EDA8-4905-AD15-E3AF0BE0AB45}"/>
@@ -3346,12 +3533,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E0FC9-9830-4699-947B-3F4AFF7DA467}">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B0A158-01F9-4E3E-85B1-9FFC38783142}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3456,10 +3641,10 @@
         <v>182</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>180</v>
@@ -3467,16 +3652,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>173</v>
@@ -3488,7 +3673,7 @@
         <v>177</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
@@ -3503,31 +3688,236 @@
         <v>182</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{4B004AEF-4B14-4635-900B-D5BC92A5D513}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{78E7F7BB-AAF7-4438-8AF0-7E4339F7BB27}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{833A7B6D-4BDE-4EEB-8016-6CC90C797914}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{182A36E0-CE21-4682-B08D-378C7F91005B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="5"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="5"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{F9D1BD3B-4C0F-4D1D-86F0-78BAA9A15A93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3651,73 +4041,128 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>253</v>
-      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3730,13 +4175,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3788,102 +4231,102 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{ED28BC9B-C51C-4175-8652-C36CE3082E6D}"/>
     <hyperlink ref="K4" r:id="rId2" xr:uid="{E7E06F9E-C994-49F0-A92C-E6A3FA954BB8}"/>
@@ -3891,123 +4334,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="5"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{F9D1BD3B-4C0F-4D1D-86F0-78BAA9A15A93}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C452D9B-3D74-4A88-A470-7F168D8D5011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54B1DD-9F91-49B3-8292-E4E382CF6C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="301">
   <si>
     <t>ID</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Номинальная сила света</t>
-  </si>
-  <si>
-    <t>Номинальное падение напряжение</t>
   </si>
   <si>
     <t>1,8 В</t>
@@ -1196,6 +1193,9 @@
   </si>
   <si>
     <t>sch\cstce12m0g52a_r0.SchLib</t>
+  </si>
+  <si>
+    <t>Номинальное падение напряжения</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1704,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -1719,10 +1719,10 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -1744,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1770,10 +1770,10 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -1795,21 +1795,21 @@
         <v>13</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1821,10 +1821,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -1845,21 +1845,21 @@
         <v>13</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1871,10 +1871,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
@@ -1895,21 +1895,21 @@
         <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1921,10 +1921,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>27</v>
@@ -1945,21 +1945,21 @@
         <v>13</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -1971,10 +1971,10 @@
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
@@ -1995,36 +1995,36 @@
         <v>13</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>27</v>
@@ -2045,36 +2045,36 @@
         <v>13</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>27</v>
@@ -2095,7 +2095,7 @@
         <v>13</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2269,7 +2269,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
@@ -2288,7 +2288,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>36</v>
@@ -2302,25 +2302,25 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
@@ -2336,39 +2336,39 @@
         <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>24</v>
@@ -2384,42 +2384,42 @@
         <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>38</v>
@@ -2432,45 +2432,45 @@
         <v>55</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -2480,45 +2480,45 @@
         <v>55</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -2528,39 +2528,39 @@
         <v>55</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>24</v>
@@ -2569,69 +2569,69 @@
         <v>38</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="P8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="P9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2729,7 +2729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DDA5E3-EA42-4E04-BB83-0B98927B5C26}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2774,13 +2776,13 @@
         <v>65</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>25</v>
@@ -2815,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>62</v>
@@ -2827,19 +2829,19 @@
         <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>59</v>
@@ -2848,16 +2850,16 @@
         <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>58</v>
@@ -2865,37 +2867,37 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>59</v>
@@ -2904,16 +2906,16 @@
         <v>14</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>58</v>
@@ -2921,37 +2923,37 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>59</v>
@@ -2960,16 +2962,16 @@
         <v>14</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>58</v>
@@ -2977,37 +2979,37 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>59</v>
@@ -3016,54 +3018,54 @@
         <v>14</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>59</v>
@@ -3072,54 +3074,54 @@
         <v>14</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>59</v>
@@ -3128,22 +3130,22 @@
         <v>14</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA27FA4-91C0-4174-BAC0-C2DF96E3C663}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3199,13 +3201,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -3234,49 +3236,49 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3345,177 +3347,177 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3536,13 +3538,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B0A158-01F9-4E3E-85B1-9FFC38783142}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
@@ -3570,13 +3574,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -3605,28 +3609,28 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
@@ -3635,45 +3639,45 @@
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
@@ -3682,19 +3686,19 @@
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3711,9 +3715,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3722,15 +3728,15 @@
     <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3747,167 +3753,170 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="I3"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="5"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="5"/>
-      <c r="I4"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="5"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="5"/>
-      <c r="I5"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I6"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I7"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I8"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I9"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I10"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I11"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I12"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I13"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I14"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I15"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I16"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
+      <c r="M17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{F9D1BD3B-4C0F-4D1D-86F0-78BAA9A15A93}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{F9D1BD3B-4C0F-4D1D-86F0-78BAA9A15A93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3917,7 +3926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3971,7 +3982,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -4006,7 +4017,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -4041,72 +4052,72 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4179,7 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4231,98 +4242,98 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54B1DD-9F91-49B3-8292-E4E382CF6C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57363573-1870-495A-8407-E3D279CBFFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -1196,6 +1196,33 @@
   </si>
   <si>
     <t>Номинальное падение напряжения</t>
+  </si>
+  <si>
+    <t>dd0005</t>
+  </si>
+  <si>
+    <t>Козлов</t>
+  </si>
+  <si>
+    <t>Преобразователь USB-SPI</t>
+  </si>
+  <si>
+    <t>Holtek Semiconductor Inc.</t>
+  </si>
+  <si>
+    <t>HT42B533</t>
+  </si>
+  <si>
+    <t>SOP-16</t>
+  </si>
+  <si>
+    <t>pcb\sop_16.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.holtek.com/documents/10179/116711/HT42B533-xv120.pdf</t>
+  </si>
+  <si>
+    <t>sch\ht42b533.SchLib</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3926,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,9 +4148,39 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="A6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J7"/>
@@ -4181,6 +4238,7 @@
     <hyperlink ref="L3" r:id="rId2" xr:uid="{C38E3611-1B0E-4DBE-8222-3FEBF62A9241}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{A800EF23-64AF-420F-9A5D-C502992665D4}"/>
     <hyperlink ref="L5" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{97DD2066-14F4-42DF-95A1-B7DB55A5E8C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57363573-1870-495A-8407-E3D279CBFFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090EE3AA-68DE-436C-8757-42BC80A934B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -1223,6 +1223,54 @@
   </si>
   <si>
     <t>sch\ht42b533.SchLib</t>
+  </si>
+  <si>
+    <t>dd0006</t>
+  </si>
+  <si>
+    <t>Паньков</t>
+  </si>
+  <si>
+    <t>Преобразователь USB-I2C/UART</t>
+  </si>
+  <si>
+    <t>MCP2221A</t>
+  </si>
+  <si>
+    <t>QFN-16</t>
+  </si>
+  <si>
+    <t>sch\mcp2221a.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\qfn_16.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.microchip.com/wwwproducts/en/MCP2221A</t>
+  </si>
+  <si>
+    <t>dd0007</t>
+  </si>
+  <si>
+    <t>MAX232</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>SOIC-16</t>
+  </si>
+  <si>
+    <t>sch\max232.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\soic_16.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/MAX232?dcmp=dsproject&amp;hqs=pf</t>
+  </si>
+  <si>
+    <t>Приёмопередатчик RS-232</t>
   </si>
 </sst>
 </file>
@@ -1655,22 +1703,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1774,7 +1822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1873,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
@@ -1875,7 +1923,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -1925,7 +1973,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>190</v>
       </c>
@@ -1975,7 +2023,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
@@ -2025,7 +2073,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>259</v>
       </c>
@@ -2075,7 +2123,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>262</v>
       </c>
@@ -2125,67 +2173,67 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
     </row>
@@ -2210,26 +2258,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2327,7 +2375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -2375,7 +2423,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -2423,7 +2471,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2471,7 +2519,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -2519,7 +2567,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -2567,7 +2615,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>265</v>
       </c>
@@ -2614,7 +2662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
@@ -2661,77 +2709,77 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10"/>
       <c r="D10" s="1"/>
       <c r="H10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="1"/>
       <c r="H11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="1"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
@@ -2760,24 +2808,24 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2892,7 +2940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2948,7 +2996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3004,7 +3052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -3060,7 +3108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -3116,7 +3164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -3196,22 +3244,22 @@
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3261,7 +3309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3320,21 +3368,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +3420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3407,7 +3455,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -3442,7 +3490,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3477,7 +3525,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -3512,7 +3560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>251</v>
       </c>
@@ -3565,26 +3613,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B0A158-01F9-4E3E-85B1-9FFC38783142}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3634,7 +3682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -3681,7 +3729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>274</v>
       </c>
@@ -3728,7 +3776,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -3748,22 +3796,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3804,7 +3852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>277</v>
       </c>
@@ -3842,7 +3890,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -3851,7 +3899,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -3860,7 +3908,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -3869,73 +3917,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -3954,22 +4002,22 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -4042,7 +4090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -4077,7 +4125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -4112,7 +4160,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>243</v>
       </c>
@@ -4147,7 +4195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>301</v>
       </c>
@@ -4182,52 +4230,112 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -4239,6 +4347,7 @@
     <hyperlink ref="L4" r:id="rId3" xr:uid="{A800EF23-64AF-420F-9A5D-C502992665D4}"/>
     <hyperlink ref="L5" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
     <hyperlink ref="L6" r:id="rId5" xr:uid="{97DD2066-14F4-42DF-95A1-B7DB55A5E8C1}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{A25616FB-AC74-4D42-AF98-A5AA998AC1FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4250,20 +4359,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4298,7 +4407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -4330,7 +4439,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
@@ -4362,7 +4471,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>270</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090EE3AA-68DE-436C-8757-42BC80A934B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA5164F-37FA-4FAA-9190-F38CCCA74696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="327">
   <si>
     <t>ID</t>
   </si>
@@ -921,18 +921,12 @@
     <t>Самарин</t>
   </si>
   <si>
-    <t>MCP2200</t>
-  </si>
-  <si>
     <t>Microchip Technology Inc.</t>
   </si>
   <si>
     <t>SOIC-20</t>
   </si>
   <si>
-    <t>sch\mcp2200.SchLib</t>
-  </si>
-  <si>
     <t>pcb\soic_20.PcbLib</t>
   </si>
   <si>
@@ -945,16 +939,10 @@
     <t>Передатчик RS-485/RS-422</t>
   </si>
   <si>
-    <t>ADM3485</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Analog Devices, Inc.</t>
   </si>
   <si>
     <t>SOIC-8</t>
-  </si>
-  <si>
-    <t>sch\adm3485.SchLib</t>
   </si>
   <si>
     <t>pcb\soic_8.PcbLib</t>
@@ -1271,6 +1259,21 @@
   </si>
   <si>
     <t>Приёмопередатчик RS-232</t>
+  </si>
+  <si>
+    <t>MCP2200T-l/SO</t>
+  </si>
+  <si>
+    <t>sch\mcp2200_l_so.SchLib</t>
+  </si>
+  <si>
+    <t>ADM3485ARZ</t>
+  </si>
+  <si>
+    <t>sch\adm3485arz.SchLib</t>
+  </si>
+  <si>
+    <t>MCP2200-l/SO</t>
   </si>
 </sst>
 </file>
@@ -1703,22 +1706,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -1931,10 +1934,10 @@
         <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1973,7 +1976,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>190</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
@@ -2073,9 +2076,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2123,24 +2126,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
@@ -2173,67 +2176,67 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
@@ -2260,24 +2263,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>208</v>
@@ -2423,7 +2426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -2431,16 +2434,16 @@
         <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>205</v>
@@ -2471,7 +2474,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -2527,16 +2530,16 @@
         <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>117</v>
@@ -2545,7 +2548,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -2567,7 +2570,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>118</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -2615,9 +2618,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2662,9 +2665,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -2709,77 +2712,77 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10"/>
       <c r="D10" s="1"/>
       <c r="H10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="1"/>
       <c r="H11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="1"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
@@ -2808,24 +2811,24 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>69</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>71</v>
@@ -2884,7 +2887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -3244,22 +3247,22 @@
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3370,19 +3373,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3498,34 +3501,34 @@
         <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -3560,9 +3563,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -3617,22 +3620,22 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -3720,18 +3723,18 @@
         <v>181</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>236</v>
@@ -3740,7 +3743,7 @@
         <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>172</v>
@@ -3752,7 +3755,7 @@
         <v>176</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
@@ -3767,16 +3770,16 @@
         <v>181</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -3796,22 +3799,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -3852,45 +3855,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -3899,7 +3902,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -3908,7 +3911,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -3917,73 +3920,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -4001,23 +4004,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -4136,206 +4139,206 @@
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -4359,20 +4362,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4407,7 +4410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
@@ -4471,36 +4474,36 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090EE3AA-68DE-436C-8757-42BC80A934B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17147D13-7DA3-4404-A055-7D8C42FD98A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -1234,15 +1234,9 @@
     <t>Преобразователь USB-I2C/UART</t>
   </si>
   <si>
-    <t>MCP2221A</t>
-  </si>
-  <si>
     <t>QFN-16</t>
   </si>
   <si>
-    <t>sch\mcp2221a.SchLib</t>
-  </si>
-  <si>
     <t>pcb\qfn_16.PcbLib</t>
   </si>
   <si>
@@ -1252,9 +1246,6 @@
     <t>dd0007</t>
   </si>
   <si>
-    <t>MAX232</t>
-  </si>
-  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
@@ -1271,6 +1262,15 @@
   </si>
   <si>
     <t>Приёмопередатчик RS-232</t>
+  </si>
+  <si>
+    <t>MCP2221A-I/ML</t>
+  </si>
+  <si>
+    <t>sch\mcp2221a_ml.SchLib</t>
+  </si>
+  <si>
+    <t>MAX232DR</t>
   </si>
 </sst>
 </file>
@@ -4002,7 +4002,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4241,63 +4241,63 @@
         <v>312</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>238</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -4348,6 +4348,7 @@
     <hyperlink ref="L5" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
     <hyperlink ref="L6" r:id="rId5" xr:uid="{97DD2066-14F4-42DF-95A1-B7DB55A5E8C1}"/>
     <hyperlink ref="L7" r:id="rId6" xr:uid="{A25616FB-AC74-4D42-AF98-A5AA998AC1FD}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{19FAE807-A876-4B7E-9A06-48FEDB5F7BD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4357,7 +4358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BFC7BB-0E14-40D3-BEB4-9CBA18E9F174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF0679-704D-446D-A20C-7FEDD6623F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10080" yWindow="2208" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="329">
   <si>
     <t>ID</t>
   </si>
@@ -1274,6 +1274,12 @@
   </si>
   <si>
     <t>MAX232DR</t>
+  </si>
+  <si>
+    <t>RC0603FR‍‐07120RL</t>
+  </si>
+  <si>
+    <t>r0009</t>
   </si>
 </sst>
 </file>
@@ -1702,26 +1708,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
@@ -1926,7 +1934,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -1976,24 +1984,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
@@ -2026,7 +2034,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
@@ -2034,16 +2042,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
@@ -2076,7 +2084,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>255</v>
       </c>
@@ -2084,16 +2092,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>192</v>
+      <c r="F8" s="2">
+        <v>330</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
@@ -2126,24 +2134,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
@@ -2176,84 +2184,135 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
-    <hyperlink ref="Q8" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
-    <hyperlink ref="Q7" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
-    <hyperlink ref="Q6" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
+    <hyperlink ref="Q9" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
+    <hyperlink ref="Q8" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
+    <hyperlink ref="Q7" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
     <hyperlink ref="Q4" r:id="rId6" xr:uid="{BD25E15B-326E-4DB3-B206-A53BBBA29F60}"/>
     <hyperlink ref="Q5" r:id="rId7" xr:uid="{4B37EE84-E192-4597-92E3-61AF62354749}"/>
-    <hyperlink ref="Q9" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
+    <hyperlink ref="Q10" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
+    <hyperlink ref="Q6" r:id="rId9" xr:uid="{83EA0B58-DCA0-4BE3-9AB6-EEE51F1534EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2263,24 +2322,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2378,7 +2437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -2426,7 +2485,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -2474,7 +2533,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2522,7 +2581,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -2570,7 +2629,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -2618,7 +2677,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2665,7 +2724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>264</v>
       </c>
@@ -2712,77 +2771,77 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10"/>
       <c r="D10" s="1"/>
       <c r="H10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="1"/>
       <c r="H11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="1"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
@@ -2811,24 +2870,24 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2887,7 +2946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2943,7 +3002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2999,7 +3058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3055,7 +3114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -3111,7 +3170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -3167,7 +3226,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -3247,22 +3306,22 @@
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3373,19 +3432,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3458,7 +3517,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -3493,7 +3552,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3528,7 +3587,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -3563,7 +3622,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>247</v>
       </c>
@@ -3620,22 +3679,22 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +3744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -3732,7 +3791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>270</v>
       </c>
@@ -3779,7 +3838,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -3799,22 +3858,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3855,7 +3914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
@@ -3893,7 +3952,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -3902,7 +3961,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -3911,7 +3970,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -3920,73 +3979,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -4004,23 +4063,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -4093,7 +4152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -4128,7 +4187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -4163,7 +4222,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
@@ -4198,7 +4257,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>297</v>
       </c>
@@ -4233,7 +4292,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>306</v>
       </c>
@@ -4268,7 +4327,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
@@ -4303,27 +4362,27 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -4348,20 +4407,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4396,7 +4455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -4428,7 +4487,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
@@ -4460,7 +4519,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>266</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEF0679-704D-446D-A20C-7FEDD6623F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191DA84-FB8A-4FB6-8E91-EECAA16B00B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="334">
   <si>
     <t>ID</t>
   </si>
@@ -1207,9 +1207,6 @@
     <t>pcb\sop_16.PcbLib</t>
   </si>
   <si>
-    <t>https://www.holtek.com/documents/10179/116711/HT42B533-xv120.pdf</t>
-  </si>
-  <si>
     <t>sch\ht42b533.SchLib</t>
   </si>
   <si>
@@ -1280,6 +1277,56 @@
   </si>
   <si>
     <t>r0009</t>
+  </si>
+  <si>
+    <t>https://www.holtek.com/productdetail/-/vg/42B533-x</t>
+  </si>
+  <si>
+    <t>c0009</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0603 47 пФ 25 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %</t>
+    </r>
+  </si>
+  <si>
+    <t>CL03C470JA3NNNC</t>
+  </si>
+  <si>
+    <t>47 п</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL03C470JA3NNN.do</t>
   </si>
 </sst>
 </file>
@@ -1710,26 +1757,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1833,7 +1880,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1884,7 +1931,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
@@ -1934,7 +1981,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -1984,7 +2031,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>190</v>
       </c>
@@ -1995,7 +2042,7 @@
         <v>256</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2034,7 +2081,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
@@ -2084,7 +2131,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>255</v>
       </c>
@@ -2134,7 +2181,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>258</v>
       </c>
@@ -2184,9 +2231,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>236</v>
@@ -2234,67 +2281,67 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
     </row>
@@ -2318,28 +2365,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2389,36 +2438,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>330</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
@@ -2428,16 +2477,16 @@
         <v>132</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -2445,19 +2494,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>208</v>
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
@@ -2466,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
@@ -2476,33 +2525,33 @@
         <v>132</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>205</v>
@@ -2533,30 +2582,30 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>38</v>
@@ -2581,33 +2630,33 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -2626,33 +2675,33 @@
         <v>203</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>286</v>
@@ -2677,7 +2726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2685,46 +2734,47 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>264</v>
       </c>
@@ -2732,22 +2782,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>118</v>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>38</v>
@@ -2771,94 +2821,143 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10"/>
-      <c r="D10" s="1"/>
-      <c r="H10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="1"/>
       <c r="H11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="1"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21"/>
+      <c r="D21" s="1"/>
+      <c r="H21"/>
+      <c r="J21"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{6424A0A0-2B33-4804-A187-0A0D12DBBE83}"/>
-    <hyperlink ref="P9" r:id="rId2" xr:uid="{F253E5C5-E99D-4C1F-855D-4713A6868696}"/>
-    <hyperlink ref="P8" r:id="rId3" xr:uid="{AFCC2B1D-E974-40DD-AC88-624E39891C4F}"/>
-    <hyperlink ref="P6" r:id="rId4" xr:uid="{744209AB-2D79-43DF-A2BA-8B8E29F6EA68}"/>
-    <hyperlink ref="P7" r:id="rId5" xr:uid="{CBBF5DF8-0BF1-423D-9AF0-108754F8C32B}"/>
-    <hyperlink ref="P5" r:id="rId6" xr:uid="{0F45D710-8F8D-4D0A-AF25-B9211ECCCE9B}"/>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{6424A0A0-2B33-4804-A187-0A0D12DBBE83}"/>
+    <hyperlink ref="P10" r:id="rId2" xr:uid="{F253E5C5-E99D-4C1F-855D-4713A6868696}"/>
+    <hyperlink ref="P9" r:id="rId3" xr:uid="{AFCC2B1D-E974-40DD-AC88-624E39891C4F}"/>
+    <hyperlink ref="P7" r:id="rId4" xr:uid="{744209AB-2D79-43DF-A2BA-8B8E29F6EA68}"/>
+    <hyperlink ref="P8" r:id="rId5" xr:uid="{CBBF5DF8-0BF1-423D-9AF0-108754F8C32B}"/>
+    <hyperlink ref="P6" r:id="rId6" xr:uid="{0F45D710-8F8D-4D0A-AF25-B9211ECCCE9B}"/>
+    <hyperlink ref="P2" r:id="rId7" xr:uid="{051AE1BC-4CBF-4323-B5CA-FA082C93C420}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2870,24 +2969,24 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +3045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3002,7 +3101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -3058,7 +3157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3114,7 +3213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -3170,7 +3269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -3226,7 +3325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -3306,22 +3405,22 @@
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3432,19 +3531,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3517,7 +3616,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -3552,7 +3651,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3587,7 +3686,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -3622,7 +3721,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>247</v>
       </c>
@@ -3679,22 +3778,22 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3744,7 +3843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -3791,7 +3890,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>270</v>
       </c>
@@ -3838,7 +3937,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -3858,22 +3957,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
@@ -3952,7 +4051,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -3961,7 +4060,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -3970,7 +4069,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -3979,73 +4078,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -4064,22 +4163,22 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -4152,7 +4251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -4187,7 +4286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -4198,7 +4297,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>237</v>
@@ -4207,10 +4306,10 @@
         <v>238</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>239</v>
@@ -4222,42 +4321,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>297</v>
       </c>
@@ -4268,7 +4367,7 @@
         <v>242</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>243</v>
@@ -4277,10 +4376,10 @@
         <v>244</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>245</v>
@@ -4292,9 +4391,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>298</v>
@@ -4312,7 +4411,7 @@
         <v>302</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>301</v>
@@ -4324,65 +4423,65 @@
         <v>302</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -4393,9 +4492,8 @@
     <hyperlink ref="L3" r:id="rId2" xr:uid="{C38E3611-1B0E-4DBE-8222-3FEBF62A9241}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{A800EF23-64AF-420F-9A5D-C502992665D4}"/>
     <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
-    <hyperlink ref="L7" r:id="rId5" xr:uid="{97DD2066-14F4-42DF-95A1-B7DB55A5E8C1}"/>
-    <hyperlink ref="L5" r:id="rId6" xr:uid="{0A5E9A92-9B2D-46DF-A0B2-1E2B2015485A}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{CE9E72BA-DA37-438C-AA6F-63ABED45EC4E}"/>
+    <hyperlink ref="L5" r:id="rId5" xr:uid="{0A5E9A92-9B2D-46DF-A0B2-1E2B2015485A}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{CE9E72BA-DA37-438C-AA6F-63ABED45EC4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4407,20 +4505,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4455,7 +4553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -4487,7 +4585,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
@@ -4519,7 +4617,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>266</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191DA84-FB8A-4FB6-8E91-EECAA16B00B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A7DC6-7143-4CC4-B783-D519BEF6F0C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="335">
   <si>
     <t>ID</t>
   </si>
@@ -1327,6 +1327,9 @@
   </si>
   <si>
     <t>http://product.samsungsem.com/mlcc/CL03C470JA3NNN.do</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 120 Ом ±1 % 0,1 Вт</t>
   </si>
 </sst>
 </file>
@@ -1757,26 +1760,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>190</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>326</v>
@@ -2081,7 +2084,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>255</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>258</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>327</v>
       </c>
@@ -2281,67 +2284,67 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
@@ -2367,28 +2370,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>264</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>329</v>
       </c>
@@ -2868,77 +2871,77 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="1"/>
       <c r="H11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="1"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21"/>
       <c r="D21" s="1"/>
@@ -2969,24 +2972,24 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -3405,22 +3408,22 @@
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3531,19 +3534,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>247</v>
       </c>
@@ -3778,22 +3781,22 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>270</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -3957,22 +3960,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
@@ -4051,7 +4054,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -4060,7 +4063,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -4069,7 +4072,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -4078,73 +4081,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -4166,19 +4169,19 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>297</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>305</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>311</v>
       </c>
@@ -4461,27 +4464,27 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -4505,20 +4508,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4553,7 +4556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>266</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A7DC6-7143-4CC4-B783-D519BEF6F0C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E8D8D-809C-498C-ADE0-8066657863DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="339">
   <si>
     <t>ID</t>
   </si>
@@ -1331,12 +1331,24 @@
   <si>
     <t>Резистор чип 0603 120 Ом ±1 % 0,1 Вт</t>
   </si>
+  <si>
+    <t>r0010</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 33 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>AA0201FR-0733RL</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-AA_51_RoHS_L_3.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,6 +1429,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1439,7 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,6 +1494,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1758,28 +1780,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1905,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1956,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
@@ -1984,24 +2006,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>254</v>
+        <v>336</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -2031,10 +2053,10 @@
         <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>190</v>
       </c>
@@ -2042,16 +2064,16 @@
         <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
@@ -2084,24 +2106,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>334</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
@@ -2134,7 +2156,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>255</v>
       </c>
@@ -2142,16 +2164,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
@@ -2184,7 +2206,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>258</v>
       </c>
@@ -2192,16 +2214,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>192</v>
+      <c r="F9" s="2">
+        <v>330</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
@@ -2234,24 +2256,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
@@ -2284,85 +2306,136 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
-    <hyperlink ref="Q9" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
-    <hyperlink ref="Q8" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
-    <hyperlink ref="Q7" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
+    <hyperlink ref="Q10" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
+    <hyperlink ref="Q9" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
+    <hyperlink ref="Q8" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
     <hyperlink ref="Q4" r:id="rId6" xr:uid="{BD25E15B-326E-4DB3-B206-A53BBBA29F60}"/>
-    <hyperlink ref="Q5" r:id="rId7" xr:uid="{4B37EE84-E192-4597-92E3-61AF62354749}"/>
-    <hyperlink ref="Q10" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
-    <hyperlink ref="Q6" r:id="rId9" xr:uid="{83EA0B58-DCA0-4BE3-9AB6-EEE51F1534EB}"/>
+    <hyperlink ref="Q6" r:id="rId7" xr:uid="{4B37EE84-E192-4597-92E3-61AF62354749}"/>
+    <hyperlink ref="Q11" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
+    <hyperlink ref="Q7" r:id="rId9" xr:uid="{83EA0B58-DCA0-4BE3-9AB6-EEE51F1534EB}"/>
+    <hyperlink ref="Q5" r:id="rId10" xr:uid="{E8589298-F5BB-4DAC-B536-04BEFDE1F44B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2374,24 +2447,24 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +2514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2489,7 +2562,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -2537,7 +2610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -2585,7 +2658,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2633,7 +2706,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -2681,7 +2754,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -2729,7 +2802,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>261</v>
       </c>
@@ -2777,7 +2850,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>264</v>
       </c>
@@ -2824,7 +2897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>329</v>
       </c>
@@ -2871,77 +2944,77 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="1"/>
       <c r="H11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="1"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21"/>
       <c r="D21" s="1"/>
@@ -2972,24 +3045,24 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -3104,7 +3177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -3160,7 +3233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3216,7 +3289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -3272,7 +3345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
@@ -3328,7 +3401,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -3408,22 +3481,22 @@
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3534,19 +3607,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3584,7 +3657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -3619,7 +3692,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -3654,7 +3727,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3689,7 +3762,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -3724,7 +3797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>247</v>
       </c>
@@ -3781,22 +3854,22 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3846,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
@@ -3893,7 +3966,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>270</v>
       </c>
@@ -3940,7 +4013,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -3960,22 +4033,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4016,7 +4089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
@@ -4054,7 +4127,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -4063,7 +4136,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -4072,7 +4145,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -4081,73 +4154,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -4169,19 +4242,19 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4219,7 +4292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -4254,7 +4327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -4289,7 +4362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>235</v>
       </c>
@@ -4324,7 +4397,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
@@ -4359,7 +4432,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>297</v>
       </c>
@@ -4394,7 +4467,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>305</v>
       </c>
@@ -4429,7 +4502,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>311</v>
       </c>
@@ -4464,27 +4537,27 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -4508,20 +4581,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4556,7 +4629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>216</v>
       </c>
@@ -4588,7 +4661,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
@@ -4620,7 +4693,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>266</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E8D8D-809C-498C-ADE0-8066657863DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E3C9A9-D8D7-4CB6-8353-0E801BA42095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="340">
   <si>
     <t>ID</t>
   </si>
@@ -205,15 +205,9 @@
     <t>Преобразователь USB-UART</t>
   </si>
   <si>
-    <t>Многоканальный драйвер RS-232</t>
-  </si>
-  <si>
     <t>ST202BTR</t>
   </si>
   <si>
-    <t>CP2104</t>
-  </si>
-  <si>
     <t>Silicon Laboratories Inc.</t>
   </si>
   <si>
@@ -230,15 +224,6 @@
   </si>
   <si>
     <t>https://www.st.com/content/st_com/en/products/interfaces-and-transceivers/rs-232/st202b.html</t>
-  </si>
-  <si>
-    <t>sch\cp2104.SchLib</t>
-  </si>
-  <si>
-    <t>sch\st202b.SchLib</t>
-  </si>
-  <si>
-    <t>ST202B</t>
   </si>
   <si>
     <t>TSSOP-16</t>
@@ -769,9 +754,6 @@
   </si>
   <si>
     <t>RC0603FR-07220RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-0722R</t>
   </si>
   <si>
     <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_11.pdf</t>
@@ -1237,24 +1219,15 @@
     <t>SOIC-16</t>
   </si>
   <si>
-    <t>sch\max232.SchLib</t>
-  </si>
-  <si>
     <t>pcb\soic_16.PcbLib</t>
   </si>
   <si>
     <t>https://www.ti.com/product/MAX232?dcmp=dsproject&amp;hqs=pf</t>
   </si>
   <si>
-    <t>Приёмопередатчик RS-232</t>
-  </si>
-  <si>
     <t>MCP2200T-l/SO</t>
   </si>
   <si>
-    <t>sch\mcp2200_l_so.SchLib</t>
-  </si>
-  <si>
     <t>ADM3485ARZ</t>
   </si>
   <si>
@@ -1267,9 +1240,6 @@
     <t>MCP2221A-I/ML</t>
   </si>
   <si>
-    <t>sch\mcp2221a_ml.SchLib</t>
-  </si>
-  <si>
     <t>MAX232DR</t>
   </si>
   <si>
@@ -1285,8 +1255,65 @@
     <t>c0009</t>
   </si>
   <si>
+    <t>CL03C470JA3NNNC</t>
+  </si>
+  <si>
+    <t>47 п</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL03C470JA3NNN.do</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 120 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>r0010</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 33 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-AA_51_RoHS_L_3.pdf</t>
+  </si>
+  <si>
+    <t>CP2104-F03-GM</t>
+  </si>
+  <si>
+    <t>sch\cp2104_f03_gm.SchLib</t>
+  </si>
+  <si>
+    <t>sch\max232dr.SchLib</t>
+  </si>
+  <si>
+    <t>sch\mcp2221a_i_ml.SchLib</t>
+  </si>
+  <si>
+    <t>sch\mcp2200_i_so.SchLib</t>
+  </si>
+  <si>
+    <t>sch\st202btr.SchLib</t>
+  </si>
+  <si>
+    <t>Приемопередатчик RS-232</t>
+  </si>
+  <si>
+    <t>RC0603FR-0722RL</t>
+  </si>
+  <si>
+    <t>AA0603FR-0733RL</t>
+  </si>
+  <si>
+    <t>C0201</t>
+  </si>
+  <si>
+    <t>pcb\c0201.PcbLib</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Конденсатор чип 0603 47 пФ 25 В </t>
+      <t xml:space="preserve">Конденсатор чип 0201 47 пФ 25 В </t>
     </r>
     <r>
       <rPr>
@@ -1318,30 +1345,6 @@
       </rPr>
       <t xml:space="preserve"> %</t>
     </r>
-  </si>
-  <si>
-    <t>CL03C470JA3NNNC</t>
-  </si>
-  <si>
-    <t>47 п</t>
-  </si>
-  <si>
-    <t>http://product.samsungsem.com/mlcc/CL03C470JA3NNN.do</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 120 Ом ±1 % 0,1 Вт</t>
-  </si>
-  <si>
-    <t>r0010</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 33 Ом ±1 % 0,1 Вт</t>
-  </si>
-  <si>
-    <t>AA0201FR-0733RL</t>
-  </si>
-  <si>
-    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-AA_51_RoHS_L_3.pdf</t>
   </si>
 </sst>
 </file>
@@ -1782,26 +1785,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -1877,10 +1880,10 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -1890,10 +1893,10 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>28</v>
@@ -1902,10 +1905,10 @@
         <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -1928,10 +1931,10 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -1941,10 +1944,10 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>28</v>
@@ -1953,21 +1956,21 @@
         <v>13</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1979,10 +1982,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -1991,10 +1994,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>28</v>
@@ -2003,21 +2006,21 @@
         <v>13</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -2029,10 +2032,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
@@ -2041,10 +2044,10 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>28</v>
@@ -2053,21 +2056,21 @@
         <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2079,10 +2082,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>27</v>
@@ -2091,10 +2094,10 @@
         <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>28</v>
@@ -2103,21 +2106,21 @@
         <v>13</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2129,10 +2132,10 @@
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
@@ -2141,10 +2144,10 @@
         <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>28</v>
@@ -2153,21 +2156,21 @@
         <v>13</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -2179,10 +2182,10 @@
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>27</v>
@@ -2191,10 +2194,10 @@
         <v>14</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>28</v>
@@ -2203,21 +2206,21 @@
         <v>13</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -2229,10 +2232,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>27</v>
@@ -2241,10 +2244,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>28</v>
@@ -2253,36 +2256,36 @@
         <v>13</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
@@ -2291,10 +2294,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>28</v>
@@ -2303,36 +2306,36 @@
         <v>13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>27</v>
@@ -2341,10 +2344,10 @@
         <v>14</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>28</v>
@@ -2353,70 +2356,70 @@
         <v>13</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
@@ -2443,28 +2446,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2514,57 +2517,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>204</v>
+        <v>337</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -2579,7 +2582,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
@@ -2595,10 +2598,10 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>36</v>
@@ -2610,27 +2613,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>24</v>
@@ -2643,42 +2646,42 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -2691,45 +2694,45 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>38</v>
@@ -2739,138 +2742,138 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>24</v>
@@ -2879,142 +2882,142 @@
         <v>38</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="1"/>
       <c r="H11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="1"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21"/>
       <c r="D21" s="1"/>
@@ -3042,27 +3045,27 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3079,22 +3082,22 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>25</v>
@@ -3121,343 +3124,343 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3479,24 +3482,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA27FA4-91C0-4174-BAC0-C2DF96E3C663}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3513,13 +3518,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -3546,51 +3551,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3605,21 +3610,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3657,179 +3664,179 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3854,22 +3861,22 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3886,13 +3893,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -3919,30 +3926,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
@@ -3951,45 +3958,45 @@
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
@@ -3998,22 +4005,22 @@
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -4029,26 +4036,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4065,7 +4072,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -4089,45 +4096,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -4136,7 +4143,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -4145,7 +4152,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -4154,73 +4161,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -4239,22 +4246,22 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4292,9 +4299,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -4303,261 +4310,261 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>332</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -4570,6 +4577,7 @@
     <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
     <hyperlink ref="L5" r:id="rId5" xr:uid="{0A5E9A92-9B2D-46DF-A0B2-1E2B2015485A}"/>
     <hyperlink ref="L8" r:id="rId6" xr:uid="{CE9E72BA-DA37-438C-AA6F-63ABED45EC4E}"/>
+    <hyperlink ref="L7" r:id="rId7" xr:uid="{EE844647-EF4A-4335-BDED-9B92F11D7B6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4579,22 +4587,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4629,100 +4639,100 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E3C9A9-D8D7-4CB6-8353-0E801BA42095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B718B2-9CD1-42E7-9542-D90355808D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="348">
   <si>
     <t>ID</t>
   </si>
@@ -1345,6 +1345,30 @@
       </rPr>
       <t xml:space="preserve"> %</t>
     </r>
+  </si>
+  <si>
+    <t>x0004</t>
+  </si>
+  <si>
+    <t>USB 2.0 Type B гнездо прямой угол</t>
+  </si>
+  <si>
+    <t>DS1099-WN0</t>
+  </si>
+  <si>
+    <t>USB-TYPE-B-DS1099</t>
+  </si>
+  <si>
+    <t>pcb\usb_type_b_ds1099.PcbLib</t>
+  </si>
+  <si>
+    <t>HEADER-4-TP1-SCT</t>
+  </si>
+  <si>
+    <t>sch\header_4_tp1_sct.SchLib</t>
+  </si>
+  <si>
+    <t>http://www.connfly.com/productshow.aspx?id=407</t>
   </si>
 </sst>
 </file>
@@ -2446,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -4585,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4600,7 +4624,9 @@
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
     <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4735,13 +4761,46 @@
         <v>274</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{ED28BC9B-C51C-4175-8652-C36CE3082E6D}"/>
     <hyperlink ref="K4" r:id="rId2" xr:uid="{E7E06F9E-C994-49F0-A92C-E6A3FA954BB8}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{A3592871-B6CC-484A-88B5-3D2B9A52A1ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githyb\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B718B2-9CD1-42E7-9542-D90355808D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ABF641-B828-4324-B1B6-DAFA6636E7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="354">
   <si>
     <t>ID</t>
   </si>
@@ -852,15 +852,9 @@
     <t>TE Connectivity</t>
   </si>
   <si>
-    <t>USB 2.0 Micro USB Type B IP68 гнездо прямой угол</t>
-  </si>
-  <si>
     <t>1-1740194-2</t>
   </si>
   <si>
-    <t>D-Sub 9 pin Board-to-Board</t>
-  </si>
-  <si>
     <t>https://www.te.com/global-en/product-1-1740194-2.html</t>
   </si>
   <si>
@@ -991,9 +985,6 @@
   </si>
   <si>
     <t>x0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLS 3x2 pin 2,54 мм прямой </t>
   </si>
   <si>
     <t>DS1021-2*3SF11</t>
@@ -1350,25 +1341,52 @@
     <t>x0004</t>
   </si>
   <si>
-    <t>USB 2.0 Type B гнездо прямой угол</t>
+    <t>Micro USB Type B IP68 гнездо</t>
+  </si>
+  <si>
+    <t>PLS 3x2 pin 2,54 мм вилка прямой</t>
+  </si>
+  <si>
+    <t>CWF 2 pin Type B 2,5 мм вилка угловой</t>
+  </si>
+  <si>
+    <t>http://www.connfly.com/productshow.aspx?id=352</t>
+  </si>
+  <si>
+    <t>HEADER-2-PLG</t>
+  </si>
+  <si>
+    <t>sch\header_2_plg.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\ds1029_2_mrw6xb.PcbLib</t>
+  </si>
+  <si>
+    <t>DS1029-2-MRW6XB</t>
+  </si>
+  <si>
+    <t>D-Sub 9 pin 2,74 мм гнездо</t>
   </si>
   <si>
     <t>DS1099-WN0</t>
   </si>
   <si>
-    <t>USB-TYPE-B-DS1099</t>
-  </si>
-  <si>
-    <t>pcb\usb_type_b_ds1099.PcbLib</t>
+    <t>sch\header_4_tp1_sct.SchLib</t>
   </si>
   <si>
     <t>HEADER-4-TP1-SCT</t>
   </si>
   <si>
-    <t>sch\header_4_tp1_sct.SchLib</t>
-  </si>
-  <si>
     <t>http://www.connfly.com/productshow.aspx?id=407</t>
+  </si>
+  <si>
+    <t>x0005</t>
+  </si>
+  <si>
+    <t>USB Type B гнездо</t>
+  </si>
+  <si>
+    <t>pcb\ds1099_wn0.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2012,7 @@
         <v>192</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -2038,13 +2056,13 @@
         <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -2080,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2088,13 +2106,13 @@
         <v>185</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2138,13 +2156,13 @@
         <v>186</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2185,7 +2203,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2235,7 +2253,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -2285,7 +2303,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -2335,22 +2353,22 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
@@ -2546,19 +2564,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>199</v>
@@ -2570,7 +2588,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
@@ -2580,13 +2598,13 @@
         <v>127</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2606,7 +2624,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
@@ -2645,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>202</v>
@@ -2654,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>199</v>
@@ -2690,19 +2708,19 @@
         <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>199</v>
@@ -2750,7 +2768,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>112</v>
@@ -2786,19 +2804,19 @@
         <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>112</v>
@@ -2807,7 +2825,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -2831,7 +2849,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -2846,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>112</v>
@@ -2855,7 +2873,7 @@
         <v>113</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -2879,7 +2897,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -2894,7 +2912,7 @@
         <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>112</v>
@@ -2926,7 +2944,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -2941,7 +2959,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>112</v>
@@ -3118,7 +3136,7 @@
         <v>64</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>66</v>
@@ -3763,34 +3781,34 @@
         <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3830,7 +3848,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -3988,10 +4006,10 @@
         <v>176</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>174</v>
@@ -3999,16 +4017,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>167</v>
@@ -4020,7 +4038,7 @@
         <v>171</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
@@ -4035,13 +4053,13 @@
         <v>176</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4096,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -4122,40 +4140,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4334,7 +4352,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>41</v>
@@ -4343,10 +4361,10 @@
         <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>48</v>
@@ -4366,7 +4384,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>40</v>
@@ -4378,7 +4396,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>40</v>
@@ -4395,177 +4413,177 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4609,10 +4627,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,7 +4643,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
     <col min="10" max="10" width="25.7109375" customWidth="1"/>
     <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
@@ -4673,7 +4691,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>212</v>
@@ -4682,19 +4700,19 @@
         <v>213</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>212</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4705,92 +4723,124 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>346</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>213</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>344</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K5" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>347</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4798,9 +4848,11 @@
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{ED28BC9B-C51C-4175-8652-C36CE3082E6D}"/>
     <hyperlink ref="K4" r:id="rId2" xr:uid="{E7E06F9E-C994-49F0-A92C-E6A3FA954BB8}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{A3592871-B6CC-484A-88B5-3D2B9A52A1ED}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{785EDD9F-12E1-412D-8325-BCF98E7757C3}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{7E772B5B-3C46-4151-8363-ED4F451FD8AF}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{F773DC10-13E2-4A91-890A-E50BD818773E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BFC7BB-0E14-40D3-BEB4-9CBA18E9F174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F575B8E-B815-4DB4-A849-04377BDCC453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10080" yWindow="2208" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="333">
   <si>
     <t>ID</t>
   </si>
@@ -1274,6 +1274,24 @@
   </si>
   <si>
     <t>MAX232DR</t>
+  </si>
+  <si>
+    <t>vd0006</t>
+  </si>
+  <si>
+    <t>TPD2E001DRYR</t>
+  </si>
+  <si>
+    <t>USON-6</t>
+  </si>
+  <si>
+    <t>sch\tpd2e001_dry.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\uson_6.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/TPD2E001</t>
   </si>
 </sst>
 </file>
@@ -3369,9 +3387,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3598,6 +3618,41 @@
         <v>149</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -3606,9 +3661,10 @@
     <hyperlink ref="L3" r:id="rId3" xr:uid="{85DCAEC2-CFAA-41D8-80CB-A27529CB7B68}"/>
     <hyperlink ref="L6" r:id="rId4" xr:uid="{96F9E2EE-8FDC-4C92-8EA7-45F2F2188B0A}"/>
     <hyperlink ref="L4" r:id="rId5" xr:uid="{E0613673-7DAA-4963-99C9-A8BBDC1652E3}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{3140E2B0-43B1-4643-AC92-31447FB8CB67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4004,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F8FB6-071D-4245-BB96-37A10415815C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088FCB3F-AE02-4316-903A-EB913526F2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-552" yWindow="1968" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -1398,13 +1398,13 @@
     <t>USON-6</t>
   </si>
   <si>
-    <t>sch\tpd2e001_dry.SchLib</t>
-  </si>
-  <si>
     <t>pcb\uson_6.PcbLib</t>
   </si>
   <si>
     <t>https://www.ti.com/product/TPD2E001</t>
+  </si>
+  <si>
+    <t>sch\tpd2e001dryr.SchLib</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1562,6 +1562,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1846,7 +1850,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1860,8 @@
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="10" width="25.6640625" customWidth="1"/>
     <col min="11" max="12" width="20.6640625" customWidth="1"/>
     <col min="13" max="13" width="30.6640625" customWidth="1"/>
@@ -1880,7 +1885,7 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1933,7 +1938,7 @@
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="14">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1984,7 +1989,7 @@
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2035,7 +2040,7 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="14">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2085,7 +2090,7 @@
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="14">
         <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2135,7 +2140,7 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="14">
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2185,7 +2190,7 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="14">
         <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2235,7 +2240,7 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="14">
         <v>220</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2285,7 +2290,7 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="14">
         <v>330</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2335,7 +2340,7 @@
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="14" t="s">
         <v>187</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2385,7 +2390,7 @@
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="14" t="s">
         <v>251</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -3670,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3919,19 +3924,19 @@
         <v>356</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>355</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>356</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088FCB3F-AE02-4316-903A-EB913526F2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2440BCB1-BD8C-4992-A8BC-0059F5170FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Диодные сборки" sheetId="5" r:id="rId5"/>
     <sheet name="Ферритовая бусина" sheetId="11" r:id="rId6"/>
     <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId7"/>
-    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId8"/>
-    <sheet name="Разъемы" sheetId="9" r:id="rId9"/>
+    <sheet name="Переключатели" sheetId="13" r:id="rId8"/>
+    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId9"/>
+    <sheet name="Разъемы" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="377">
   <si>
     <t>ID</t>
   </si>
@@ -1405,6 +1406,78 @@
   </si>
   <si>
     <t>sch\tpd2e001dryr.SchLib</t>
+  </si>
+  <si>
+    <t>sw0001</t>
+  </si>
+  <si>
+    <t>SDA02H1SBD</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>sch\switch_02.SchLib</t>
+  </si>
+  <si>
+    <t>SWITCH02</t>
+  </si>
+  <si>
+    <t>https://www.ckswitches.com/products/switches/product-details/DIP/SDA/SDA02H1SBD/</t>
+  </si>
+  <si>
+    <t>Сопротивление контакта</t>
+  </si>
+  <si>
+    <t>Ток нагрузки</t>
+  </si>
+  <si>
+    <t>50 мОм</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от -40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>С до +85 °С</t>
+    </r>
+  </si>
+  <si>
+    <t>100 мА @ 5 В</t>
+  </si>
+  <si>
+    <t>2-х позиционный движковый переключатель</t>
+  </si>
+  <si>
+    <t>7,06х9,30х4,45</t>
+  </si>
+  <si>
+    <t>pcb\switch_sda02h1sbd.PcbLib</t>
+  </si>
+  <si>
+    <t>Промывка</t>
+  </si>
+  <si>
+    <t>Разрешена</t>
+  </si>
+  <si>
+    <t>Количество контактов</t>
   </si>
 </sst>
 </file>
@@ -1853,23 +1926,23 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1973,7 +2046,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2097,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>180</v>
       </c>
@@ -2074,7 +2147,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>183</v>
       </c>
@@ -2124,7 +2197,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>185</v>
       </c>
@@ -2174,7 +2247,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>186</v>
       </c>
@@ -2224,7 +2297,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>247</v>
       </c>
@@ -2274,7 +2347,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>250</v>
       </c>
@@ -2324,7 +2397,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>314</v>
       </c>
@@ -2374,7 +2447,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>321</v>
       </c>
@@ -2424,67 +2497,67 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
@@ -2507,32 +2580,264 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{ED28BC9B-C51C-4175-8652-C36CE3082E6D}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{E7E06F9E-C994-49F0-A92C-E6A3FA954BB8}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{785EDD9F-12E1-412D-8325-BCF98E7757C3}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{7E772B5B-3C46-4151-8363-ED4F451FD8AF}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{F773DC10-13E2-4A91-890A-E50BD818773E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2630,7 +2935,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -2678,7 +2983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -2726,7 +3031,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>177</v>
       </c>
@@ -2774,7 +3079,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>178</v>
       </c>
@@ -2822,7 +3127,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>179</v>
       </c>
@@ -2870,7 +3175,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>253</v>
       </c>
@@ -2918,7 +3223,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>256</v>
       </c>
@@ -2965,7 +3270,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>316</v>
       </c>
@@ -3012,77 +3317,77 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="1"/>
       <c r="H11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="1"/>
       <c r="H12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21"/>
       <c r="D21" s="1"/>
@@ -3113,24 +3418,24 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3189,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -3245,7 +3550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -3301,7 +3606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -3357,7 +3662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -3413,7 +3718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -3469,7 +3774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -3547,26 +3852,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA27FA4-91C0-4174-BAC0-C2DF96E3C663}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -3675,23 +3980,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +4034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -3764,7 +4069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -3799,7 +4104,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
@@ -3834,7 +4139,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -3869,7 +4174,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>239</v>
       </c>
@@ -3904,7 +4209,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>354</v>
       </c>
@@ -3959,25 +4264,25 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4027,7 +4332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
@@ -4074,7 +4379,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>261</v>
       </c>
@@ -4121,7 +4426,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -4141,22 +4446,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +4502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>264</v>
       </c>
@@ -4235,7 +4540,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -4244,7 +4549,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -4253,7 +4558,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -4262,73 +4567,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -4343,26 +4648,164 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A6BB4-1247-4FE3-87EE-5F75C5E59BA4}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="83.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{1E457930-7424-4241-A0D2-3E66BB616F2B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4400,7 +4843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -4435,7 +4878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -4470,7 +4913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
@@ -4505,7 +4948,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>233</v>
       </c>
@@ -4540,7 +4983,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>288</v>
       </c>
@@ -4575,7 +5018,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>296</v>
       </c>
@@ -4610,7 +5053,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -4645,27 +5088,27 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -4682,236 +5125,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{ED28BC9B-C51C-4175-8652-C36CE3082E6D}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{E7E06F9E-C994-49F0-A92C-E6A3FA954BB8}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{785EDD9F-12E1-412D-8325-BCF98E7757C3}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{7E772B5B-3C46-4151-8363-ED4F451FD8AF}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{F773DC10-13E2-4A91-890A-E50BD818773E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
-</worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2440BCB1-BD8C-4992-A8BC-0059F5170FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3431C-97DF-498C-B7B6-B335B35D17C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="378">
   <si>
     <t>ID</t>
   </si>
@@ -1420,9 +1420,6 @@
     <t>sch\switch_02.SchLib</t>
   </si>
   <si>
-    <t>SWITCH02</t>
-  </si>
-  <si>
     <t>https://www.ckswitches.com/products/switches/product-details/DIP/SDA/SDA02H1SBD/</t>
   </si>
   <si>
@@ -1468,9 +1465,6 @@
     <t>7,06х9,30х4,45</t>
   </si>
   <si>
-    <t>pcb\switch_sda02h1sbd.PcbLib</t>
-  </si>
-  <si>
     <t>Промывка</t>
   </si>
   <si>
@@ -1478,6 +1472,15 @@
   </si>
   <si>
     <t>Количество контактов</t>
+  </si>
+  <si>
+    <t>SWITCH-02</t>
+  </si>
+  <si>
+    <t>pcb\dip_switch_02_706x930x445.PcbLib</t>
+  </si>
+  <si>
+    <t>DIP-SWITCH-706x930x445</t>
   </si>
 </sst>
 </file>
@@ -4442,7 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -4651,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A6BB4-1247-4FE3-87EE-5F75C5E59BA4}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,8 +4671,8 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="28.140625" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="36.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" customWidth="1"/>
     <col min="17" max="17" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4690,19 +4693,19 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -4734,7 +4737,7 @@
         <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>361</v>
@@ -4743,38 +4746,38 @@
         <v>362</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="2" t="s">
         <v>363</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3431C-97DF-498C-B7B6-B335B35D17C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD05F654-8462-4342-88CA-0D7FDA51D196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
     <t>pcb\dip_switch_02_706x930x445.PcbLib</t>
   </si>
   <si>
-    <t>DIP-SWITCH-706x930x445</t>
+    <t>DIP-SWITCH-02-706x930x445</t>
   </si>
 </sst>
 </file>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denik\Desktop\Учёба\Печатные платы\Библиотека\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD05F654-8462-4342-88CA-0D7FDA51D196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E80069B-18DD-440A-8F6B-1BEA9E5CFFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -631,9 +631,6 @@
     <t>Диод Шоттки 30 В 1,5 А</t>
   </si>
   <si>
-    <t>Макс. допустимый средний прямой ток</t>
-  </si>
-  <si>
     <t>1,5 А</t>
   </si>
   <si>
@@ -1007,12 +1004,6 @@
   </si>
   <si>
     <t>Частота</t>
-  </si>
-  <si>
-    <t>pcb\cstce_3_320x130x40.PcbLib</t>
-  </si>
-  <si>
-    <t>CSTCE-3-320X130X40</t>
   </si>
   <si>
     <t>12 МГц</t>
@@ -1145,9 +1136,6 @@
     <t>Кварцевый резонатор 12 МГц</t>
   </si>
   <si>
-    <t>3,2x1,3x0,4</t>
-  </si>
-  <si>
     <t>https://www.murata.com/en-us/products/productdetail?partno=CSTCE12M0G52A-R0</t>
   </si>
   <si>
@@ -1462,9 +1450,6 @@
     <t>2-х позиционный движковый переключатель</t>
   </si>
   <si>
-    <t>7,06х9,30х4,45</t>
-  </si>
-  <si>
     <t>Промывка</t>
   </si>
   <si>
@@ -1477,10 +1462,25 @@
     <t>SWITCH-02</t>
   </si>
   <si>
-    <t>pcb\dip_switch_02_706x930x445.PcbLib</t>
-  </si>
-  <si>
-    <t>DIP-SWITCH-02-706x930x445</t>
+    <t>Макс допустимый средний прямой ток</t>
+  </si>
+  <si>
+    <t>7,06х9,30х5,45</t>
+  </si>
+  <si>
+    <t>pcb\dip_switch_02_706x930x545.PcbLib</t>
+  </si>
+  <si>
+    <t>DIP-SWITCH-02-706X930X545</t>
+  </si>
+  <si>
+    <t>3,2x1,3x0,7</t>
+  </si>
+  <si>
+    <t>pcb\cstce_3_320x130x70.PcbLib</t>
+  </si>
+  <si>
+    <t>CSTCE-3-320X130X70</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1642,6 +1642,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1925,9 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2006,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
@@ -2021,10 +2022,10 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -2046,7 +2047,7 @@
         <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2072,10 +2073,10 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -2097,21 +2098,21 @@
         <v>13</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -2123,10 +2124,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -2147,21 +2148,21 @@
         <v>13</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -2173,10 +2174,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
@@ -2197,21 +2198,21 @@
         <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2223,10 +2224,10 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>27</v>
@@ -2247,21 +2248,21 @@
         <v>13</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2273,10 +2274,10 @@
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
@@ -2297,21 +2298,21 @@
         <v>13</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -2323,10 +2324,10 @@
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>27</v>
@@ -2347,21 +2348,21 @@
         <v>13</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -2373,10 +2374,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>27</v>
@@ -2397,36 +2398,36 @@
         <v>13</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
@@ -2447,36 +2448,36 @@
         <v>13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>27</v>
@@ -2497,7 +2498,7 @@
         <v>13</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2587,9 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2643,162 +2642,162 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2819,9 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2830,7 +2827,8 @@
     <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
@@ -2856,7 +2854,7 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2895,22 +2893,22 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>318</v>
+      <c r="F2" s="14" t="s">
+        <v>314</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>113</v>
@@ -2919,7 +2917,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
@@ -2929,13 +2927,13 @@
         <v>127</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2954,8 +2952,8 @@
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>223</v>
+      <c r="F3" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
@@ -2994,19 +2992,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>224</v>
+      <c r="F4" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>24</v>
@@ -3025,36 +3023,36 @@
         <v>127</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>254</v>
+      <c r="F5" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -3073,33 +3071,33 @@
         <v>127</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>225</v>
+      <c r="F6" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>112</v>
@@ -3121,33 +3119,33 @@
         <v>127</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>257</v>
+      <c r="F7" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>112</v>
@@ -3156,7 +3154,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -3169,33 +3167,33 @@
         <v>127</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>226</v>
+      <c r="F8" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>112</v>
@@ -3204,7 +3202,7 @@
         <v>113</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -3217,18 +3215,18 @@
         <v>127</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -3242,8 +3240,8 @@
       <c r="E9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>224</v>
+      <c r="F9" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>112</v>
@@ -3275,7 +3273,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -3289,8 +3287,8 @@
       <c r="E10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>225</v>
+      <c r="F10" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>112</v>
@@ -3417,9 +3415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DDA5E3-EA42-4E04-BB83-0B98927B5C26}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3467,7 +3463,7 @@
         <v>64</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>66</v>
@@ -3855,9 +3851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA27FA4-91C0-4174-BAC0-C2DF96E3C663}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3891,13 +3885,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>154</v>
+        <v>371</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -3941,13 +3935,13 @@
         <v>56</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
@@ -3956,19 +3950,19 @@
         <v>152</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>152</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3983,9 +3977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4057,7 +4049,7 @@
         <v>125</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>123</v>
@@ -4092,7 +4084,7 @@
         <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>130</v>
@@ -4112,34 +4104,34 @@
         <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4162,7 +4154,7 @@
         <v>138</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>137</v>
@@ -4179,7 +4171,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -4214,37 +4206,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4266,9 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B0A158-01F9-4E3E-85B1-9FFC38783142}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4302,13 +4292,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -4337,28 +4327,28 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
@@ -4367,45 +4357,45 @@
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
@@ -4414,19 +4404,19 @@
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4445,9 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4481,7 +4469,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -4507,40 +4495,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>376</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4654,26 +4642,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A6BB4-1247-4FE3-87EE-5F75C5E59BA4}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="7" width="29.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1"/>
-    <col min="15" max="15" width="36.85546875" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" customWidth="1"/>
-    <col min="17" max="17" width="83.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4693,19 +4674,19 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -4731,53 +4712,53 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4792,9 +4773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4857,7 +4836,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>41</v>
@@ -4866,10 +4845,10 @@
         <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>48</v>
@@ -4889,7 +4868,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>40</v>
@@ -4901,7 +4880,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>40</v>
@@ -4918,177 +4897,177 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E80069B-18DD-440A-8F6B-1BEA9E5CFFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48265AB-BCEE-4B41-942B-5AF618301D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="382">
   <si>
     <t>ID</t>
   </si>
@@ -1481,6 +1481,18 @@
   </si>
   <si>
     <t>CSTCE-3-320X130X70</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>r0011</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 1 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>1 к</t>
   </si>
 </sst>
 </file>
@@ -1926,9 +1938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2409,16 +2423,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>180</v>
+        <v>380</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
@@ -2456,19 +2470,19 @@
         <v>317</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
@@ -2502,8 +2516,54 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13"/>
@@ -2564,23 +2624,28 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
     <hyperlink ref="Q3" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
-    <hyperlink ref="Q10" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
+    <hyperlink ref="Q11" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
     <hyperlink ref="Q9" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
     <hyperlink ref="Q8" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
     <hyperlink ref="Q4" r:id="rId6" xr:uid="{BD25E15B-326E-4DB3-B206-A53BBBA29F60}"/>
     <hyperlink ref="Q6" r:id="rId7" xr:uid="{4B37EE84-E192-4597-92E3-61AF62354749}"/>
-    <hyperlink ref="Q11" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
+    <hyperlink ref="Q12" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
     <hyperlink ref="Q7" r:id="rId9" xr:uid="{83EA0B58-DCA0-4BE3-9AB6-EEE51F1534EB}"/>
     <hyperlink ref="Q5" r:id="rId10" xr:uid="{E8589298-F5BB-4DAC-B536-04BEFDE1F44B}"/>
+    <hyperlink ref="Q10" r:id="rId11" xr:uid="{DB5A902A-DA4A-44DF-AE52-BAEDC1A7E1D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -2588,7 +2653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4 course\altium\library\sources\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48265AB-BCEE-4B41-942B-5AF618301D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA0F7D-DE45-442B-B659-DCBE1740108C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Переключатели" sheetId="13" r:id="rId8"/>
     <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId9"/>
     <sheet name="Разъемы" sheetId="9" r:id="rId10"/>
+    <sheet name="EEPROM" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="414">
   <si>
     <t>ID</t>
   </si>
@@ -1493,6 +1494,144 @@
   </si>
   <si>
     <t>1 к</t>
+  </si>
+  <si>
+    <t>Соколов</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 0 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-070RL</t>
+  </si>
+  <si>
+    <t>r0012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0402 10 нФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 %</t>
+    </r>
+  </si>
+  <si>
+    <t>CL05B103KB5NNNC</t>
+  </si>
+  <si>
+    <t>10 нФ</t>
+  </si>
+  <si>
+    <t>https://datasheet.octopart.com/CL05B103KB5NNNC-Samsung-datasheet-26589021.pdf</t>
+  </si>
+  <si>
+    <t>c0010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0402 47 пФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 %</t>
+    </r>
+  </si>
+  <si>
+    <t>CL05C270JB5NNNC</t>
+  </si>
+  <si>
+    <t>27 пФ</t>
+  </si>
+  <si>
+    <t>50В</t>
+  </si>
+  <si>
+    <t>https://datasheet.octopart.com/CL05C270JB5NNNC-Samsung-Electro-Mechanics-datasheet-110326803.pdf</t>
+  </si>
+  <si>
+    <t>c0011</t>
+  </si>
+  <si>
+    <t>Микросхема USB 2.0 to I2C</t>
+  </si>
+  <si>
+    <t>FT232H</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>QFN-48</t>
+  </si>
+  <si>
+    <t>sch\ds_ft232h.SchLib</t>
+  </si>
+  <si>
+    <t>DS-FT232H</t>
+  </si>
+  <si>
+    <t>pcb\ft232hq.PcbLib</t>
+  </si>
+  <si>
+    <t>FT232HQ</t>
+  </si>
+  <si>
+    <t>https://www.ftdichip.com/Support/Documents/DataSheets/ICs/DS_FT232H.pdf</t>
+  </si>
+  <si>
+    <t>dd0008</t>
+  </si>
+  <si>
+    <t>ee0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEPROM 2 kbit </t>
+  </si>
+  <si>
+    <t>93LC56BT-I/OT</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>sch\eeprom_93LC56BT-IOT.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\eeprom-sot-23-6.PcbLib</t>
+  </si>
+  <si>
+    <t>EEPROM-SOT23-6</t>
   </si>
 </sst>
 </file>
@@ -1940,27 +2079,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2203,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2115,7 +2254,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>179</v>
       </c>
@@ -2165,7 +2304,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2215,7 +2354,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
@@ -2265,7 +2404,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>185</v>
       </c>
@@ -2315,7 +2454,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>246</v>
       </c>
@@ -2365,7 +2504,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>249</v>
       </c>
@@ -2415,7 +2554,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
@@ -2465,7 +2604,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>317</v>
       </c>
@@ -2515,7 +2654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>379</v>
       </c>
@@ -2565,67 +2704,113 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
     </row>
@@ -2643,9 +2828,10 @@
     <hyperlink ref="Q7" r:id="rId9" xr:uid="{83EA0B58-DCA0-4BE3-9AB6-EEE51F1534EB}"/>
     <hyperlink ref="Q5" r:id="rId10" xr:uid="{E8589298-F5BB-4DAC-B536-04BEFDE1F44B}"/>
     <hyperlink ref="Q10" r:id="rId11" xr:uid="{DB5A902A-DA4A-44DF-AE52-BAEDC1A7E1D1}"/>
+    <hyperlink ref="Q13" r:id="rId12" xr:uid="{340B604C-8403-46AA-8968-4FA7F2AD2A22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2655,25 +2841,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2705,7 +2888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
@@ -2737,7 +2920,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>210</v>
       </c>
@@ -2769,7 +2952,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>257</v>
       </c>
@@ -2801,7 +2984,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>333</v>
       </c>
@@ -2833,7 +3016,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>347</v>
       </c>
@@ -2879,31 +3062,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB9044E-3621-47EE-9805-1ADB6C9BB8C9}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +3226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -3001,7 +3274,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -3049,7 +3322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -3097,7 +3370,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
@@ -3145,7 +3418,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -3193,7 +3466,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>178</v>
       </c>
@@ -3241,7 +3514,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
@@ -3289,7 +3562,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -3336,7 +3609,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>312</v>
       </c>
@@ -3383,77 +3656,157 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11"/>
-      <c r="D11" s="1"/>
-      <c r="H11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12"/>
-      <c r="D12" s="1"/>
-      <c r="H12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="1"/>
       <c r="H13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
       <c r="H14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21"/>
       <c r="D21" s="1"/>
@@ -3470,9 +3823,11 @@
     <hyperlink ref="P8" r:id="rId5" xr:uid="{CBBF5DF8-0BF1-423D-9AF0-108754F8C32B}"/>
     <hyperlink ref="P6" r:id="rId6" xr:uid="{0F45D710-8F8D-4D0A-AF25-B9211ECCCE9B}"/>
     <hyperlink ref="P2" r:id="rId7" xr:uid="{051AE1BC-4CBF-4323-B5CA-FA082C93C420}"/>
+    <hyperlink ref="P11" r:id="rId8" xr:uid="{28AA227C-E214-4197-B9E7-633778C441C2}"/>
+    <hyperlink ref="P12" r:id="rId9" xr:uid="{ECF39DEF-3822-4D81-AE18-892351B3F6AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -3482,24 +3837,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -3614,7 +3969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -3670,7 +4025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -3726,7 +4081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -3782,7 +4137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -3838,7 +4193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -3918,22 +4273,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +4338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4044,19 +4399,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4094,7 +4449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4129,7 +4484,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -4164,7 +4519,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
@@ -4199,7 +4554,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -4234,7 +4589,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
@@ -4269,7 +4624,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>350</v>
       </c>
@@ -4325,22 +4680,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4390,7 +4745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>163</v>
       </c>
@@ -4437,7 +4792,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>260</v>
       </c>
@@ -4484,7 +4839,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -4502,22 +4857,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4558,7 +4913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>263</v>
       </c>
@@ -4596,7 +4951,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -4605,7 +4960,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -4614,7 +4969,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -4623,73 +4978,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -4709,20 +5064,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="17" width="80.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +5130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>356</v>
       </c>
@@ -4838,21 +5193,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4890,7 +5247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -4925,7 +5282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -4960,7 +5317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>226</v>
       </c>
@@ -4995,7 +5352,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>232</v>
       </c>
@@ -5030,7 +5387,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>284</v>
       </c>
@@ -5065,7 +5422,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>292</v>
       </c>
@@ -5100,7 +5457,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
@@ -5135,27 +5492,62 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -5169,6 +5561,7 @@
     <hyperlink ref="L5" r:id="rId5" xr:uid="{0A5E9A92-9B2D-46DF-A0B2-1E2B2015485A}"/>
     <hyperlink ref="L8" r:id="rId6" xr:uid="{CE9E72BA-DA37-438C-AA6F-63ABED45EC4E}"/>
     <hyperlink ref="L7" r:id="rId7" xr:uid="{EE844647-EF4A-4335-BDED-9B92F11D7B6B}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{F886F85F-7ADF-4D05-9F1F-C8681DE09AF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4 course\altium\library\sources\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA0F7D-DE45-442B-B659-DCBE1740108C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D06FC-D6EA-49BD-AD5C-E358E03C7B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="421">
   <si>
     <t>ID</t>
   </si>
@@ -1632,6 +1632,27 @@
   </si>
   <si>
     <t>EEPROM-SOT23-6</t>
+  </si>
+  <si>
+    <t>r0013</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 2 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RS73G1JTTD2001F</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>2 к</t>
+  </si>
+  <si>
+    <t>100 В</t>
+  </si>
+  <si>
+    <t>https://ru.mouser.com/datasheet/2/219/RS73-1759534.pdf</t>
   </si>
 </sst>
 </file>
@@ -2079,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2754,9 +2775,55 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15"/>
@@ -2829,9 +2896,10 @@
     <hyperlink ref="Q5" r:id="rId10" xr:uid="{E8589298-F5BB-4DAC-B536-04BEFDE1F44B}"/>
     <hyperlink ref="Q10" r:id="rId11" xr:uid="{DB5A902A-DA4A-44DF-AE52-BAEDC1A7E1D1}"/>
     <hyperlink ref="Q13" r:id="rId12" xr:uid="{340B604C-8403-46AA-8968-4FA7F2AD2A22}"/>
+    <hyperlink ref="Q14" r:id="rId13" xr:uid="{432389F1-A4AD-4D70-B6D3-C62580557F37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3066,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB9044E-3621-47EE-9805-1ADB6C9BB8C9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4 course\altium\library\sources\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D06FC-D6EA-49BD-AD5C-E358E03C7B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735DE965-419E-4D01-A5CE-AA6C079E1FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="426">
   <si>
     <t>ID</t>
   </si>
@@ -1653,6 +1653,21 @@
   </si>
   <si>
     <t>https://ru.mouser.com/datasheet/2/219/RS73-1759534.pdf</t>
+  </si>
+  <si>
+    <t>r0014</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 12 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>AC0603FR-1012KL</t>
+  </si>
+  <si>
+    <t>12 К</t>
+  </si>
+  <si>
+    <t>https://ru.mouser.com/datasheet/2/447/PYu-AC_51_RoHS_L_7-1714230.pdf</t>
   </si>
 </sst>
 </file>
@@ -2100,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2826,8 +2841,55 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="A15" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16"/>
@@ -2897,9 +2959,10 @@
     <hyperlink ref="Q10" r:id="rId11" xr:uid="{DB5A902A-DA4A-44DF-AE52-BAEDC1A7E1D1}"/>
     <hyperlink ref="Q13" r:id="rId12" xr:uid="{340B604C-8403-46AA-8968-4FA7F2AD2A22}"/>
     <hyperlink ref="Q14" r:id="rId13" xr:uid="{432389F1-A4AD-4D70-B6D3-C62580557F37}"/>
+    <hyperlink ref="Q15" r:id="rId14" xr:uid="{BD997370-3D0D-458D-966B-81E4FCB643DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -5261,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4 course\altium\library\sources\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735DE965-419E-4D01-A5CE-AA6C079E1FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0951C-B6A4-4F14-B3C8-3E17C32B93BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <sheet name="Диоды" sheetId="6" r:id="rId4"/>
     <sheet name="Диодные сборки" sheetId="5" r:id="rId5"/>
     <sheet name="Ферритовая бусина" sheetId="11" r:id="rId6"/>
-    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId7"/>
-    <sheet name="Переключатели" sheetId="13" r:id="rId8"/>
+    <sheet name="Переключатели" sheetId="13" r:id="rId7"/>
+    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId8"/>
     <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId9"/>
     <sheet name="Разъемы" sheetId="9" r:id="rId10"/>
     <sheet name="EEPROM" sheetId="14" r:id="rId11"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="422">
   <si>
     <t>ID</t>
   </si>
@@ -1535,17 +1535,95 @@
     <t>CL05B103KB5NNNC</t>
   </si>
   <si>
-    <t>10 нФ</t>
-  </si>
-  <si>
     <t>https://datasheet.octopart.com/CL05B103KB5NNNC-Samsung-datasheet-26589021.pdf</t>
   </si>
   <si>
     <t>c0010</t>
   </si>
   <si>
+    <t>CL05C270JB5NNNC</t>
+  </si>
+  <si>
+    <t>50В</t>
+  </si>
+  <si>
+    <t>https://datasheet.octopart.com/CL05C270JB5NNNC-Samsung-Electro-Mechanics-datasheet-110326803.pdf</t>
+  </si>
+  <si>
+    <t>c0011</t>
+  </si>
+  <si>
+    <t>Микросхема USB 2.0 to I2C</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>QFN-48</t>
+  </si>
+  <si>
+    <t>FT232HQ</t>
+  </si>
+  <si>
+    <t>https://www.ftdichip.com/Support/Documents/DataSheets/ICs/DS_FT232H.pdf</t>
+  </si>
+  <si>
+    <t>dd0008</t>
+  </si>
+  <si>
+    <t>ee0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEPROM 2 kbit </t>
+  </si>
+  <si>
+    <t>93LC56BT-I/OT</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>sch\eeprom_93LC56BT-IOT.SchLib</t>
+  </si>
+  <si>
+    <t>r0013</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 2 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RS73G1JTTD2001F</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>2 к</t>
+  </si>
+  <si>
+    <t>100 В</t>
+  </si>
+  <si>
+    <t>https://ru.mouser.com/datasheet/2/219/RS73-1759534.pdf</t>
+  </si>
+  <si>
+    <t>r0014</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 12 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>AC0603FR-1012KL</t>
+  </si>
+  <si>
+    <t>12 К</t>
+  </si>
+  <si>
+    <t>https://ru.mouser.com/datasheet/2/447/PYu-AC_51_RoHS_L_7-1714230.pdf</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Конденсатор чип 0402 47 пФ 50 В </t>
+      <t xml:space="preserve">Конденсатор чип 0402 27 пФ 50 В </t>
     </r>
     <r>
       <rPr>
@@ -1568,106 +1646,16 @@
     </r>
   </si>
   <si>
-    <t>CL05C270JB5NNNC</t>
-  </si>
-  <si>
-    <t>27 пФ</t>
-  </si>
-  <si>
-    <t>50В</t>
-  </si>
-  <si>
-    <t>https://datasheet.octopart.com/CL05C270JB5NNNC-Samsung-Electro-Mechanics-datasheet-110326803.pdf</t>
-  </si>
-  <si>
-    <t>c0011</t>
-  </si>
-  <si>
-    <t>Микросхема USB 2.0 to I2C</t>
-  </si>
-  <si>
-    <t>FT232H</t>
-  </si>
-  <si>
-    <t>FTDI</t>
-  </si>
-  <si>
-    <t>QFN-48</t>
-  </si>
-  <si>
-    <t>sch\ds_ft232h.SchLib</t>
-  </si>
-  <si>
-    <t>DS-FT232H</t>
-  </si>
-  <si>
-    <t>pcb\ft232hq.PcbLib</t>
-  </si>
-  <si>
-    <t>FT232HQ</t>
-  </si>
-  <si>
-    <t>https://www.ftdichip.com/Support/Documents/DataSheets/ICs/DS_FT232H.pdf</t>
-  </si>
-  <si>
-    <t>dd0008</t>
-  </si>
-  <si>
-    <t>ee0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEPROM 2 kbit </t>
-  </si>
-  <si>
-    <t>93LC56BT-I/OT</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>sch\eeprom_93LC56BT-IOT.SchLib</t>
-  </si>
-  <si>
-    <t>pcb\eeprom-sot-23-6.PcbLib</t>
-  </si>
-  <si>
-    <t>EEPROM-SOT23-6</t>
-  </si>
-  <si>
-    <t>r0013</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 2 кОм ±1 % 0,1 Вт</t>
-  </si>
-  <si>
-    <t>RS73G1JTTD2001F</t>
-  </si>
-  <si>
-    <t>KOA Speer</t>
-  </si>
-  <si>
-    <t>2 к</t>
-  </si>
-  <si>
-    <t>100 В</t>
-  </si>
-  <si>
-    <t>https://ru.mouser.com/datasheet/2/219/RS73-1759534.pdf</t>
-  </si>
-  <si>
-    <t>r0014</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 12 кОм ±1 % 0,1 Вт</t>
-  </si>
-  <si>
-    <t>AC0603FR-1012KL</t>
-  </si>
-  <si>
-    <t>12 К</t>
-  </si>
-  <si>
-    <t>https://ru.mouser.com/datasheet/2/447/PYu-AC_51_RoHS_L_7-1714230.pdf</t>
+    <t>0,01 мк</t>
+  </si>
+  <si>
+    <t>sch\ds_ft232hq.SchLib</t>
+  </si>
+  <si>
+    <t>DS-FT232HQ</t>
+  </si>
+  <si>
+    <t>pcb\qfn_48.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2792,28 +2780,28 @@
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>181</v>
@@ -2837,27 +2825,27 @@
         <v>13</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>22</v>
@@ -2888,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3186,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3248,32 +3236,32 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>413</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3274,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3789,7 +3777,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>382</v>
@@ -3804,7 +3792,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
@@ -3831,33 +3819,33 @@
         <v>35</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>393</v>
+      <c r="F12" s="2">
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>198</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>38</v>
@@ -3878,7 +3866,7 @@
         <v>35</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -4528,7 +4516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="J5:K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4983,6 +4973,137 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A6BB4-1247-4FE3-87EE-5F75C5E59BA4}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="80.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{1E457930-7424-4241-A0D2-3E66BB616F2B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -5189,143 +5310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A6BB4-1247-4FE3-87EE-5F75C5E59BA4}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="17" width="80.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{1E457930-7424-4241-A0D2-3E66BB616F2B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5625,37 +5615,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4 course\altium\library\sources\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0951C-B6A4-4F14-B3C8-3E17C32B93BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD27D6-860D-4CBC-909B-898FA35FD4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2532" yWindow="3828" windowWidth="17280" windowHeight="8976" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="421">
   <si>
     <t>ID</t>
   </si>
@@ -1649,13 +1649,10 @@
     <t>0,01 мк</t>
   </si>
   <si>
-    <t>sch\ds_ft232hq.SchLib</t>
-  </si>
-  <si>
-    <t>DS-FT232HQ</t>
-  </si>
-  <si>
     <t>pcb\qfn_48.PcbLib</t>
+  </si>
+  <si>
+    <t>sch\ft232hq.SchLib</t>
   </si>
 </sst>
 </file>
@@ -5315,7 +5312,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5633,13 +5630,13 @@
         <v>396</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>396</v>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4 course\altium\library\sources\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD27D6-860D-4CBC-909B-898FA35FD4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24598B7F-0B19-467A-9977-FDA96104E1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="3828" windowWidth="17280" windowHeight="8976" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Диоды" sheetId="6" r:id="rId4"/>
     <sheet name="Диодные сборки" sheetId="5" r:id="rId5"/>
     <sheet name="Ферритовая бусина" sheetId="11" r:id="rId6"/>
-    <sheet name="Переключатели" sheetId="13" r:id="rId7"/>
-    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId8"/>
-    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId9"/>
-    <sheet name="Разъемы" sheetId="9" r:id="rId10"/>
-    <sheet name="EEPROM" sheetId="14" r:id="rId11"/>
+    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId7"/>
+    <sheet name="Переключатели" sheetId="13" r:id="rId8"/>
+    <sheet name="ПЗУ" sheetId="14" r:id="rId9"/>
+    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId10"/>
+    <sheet name="Разъемы" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="423">
   <si>
     <t>ID</t>
   </si>
@@ -1508,6 +1508,108 @@
     <t>r0012</t>
   </si>
   <si>
+    <t>CL05B103KB5NNNC</t>
+  </si>
+  <si>
+    <t>10 нФ</t>
+  </si>
+  <si>
+    <t>c0010</t>
+  </si>
+  <si>
+    <t>CL05C270JB5NNNC</t>
+  </si>
+  <si>
+    <t>27 пФ</t>
+  </si>
+  <si>
+    <t>c0011</t>
+  </si>
+  <si>
+    <t>QFN-48</t>
+  </si>
+  <si>
+    <t>FT232HQ</t>
+  </si>
+  <si>
+    <t>dd0008</t>
+  </si>
+  <si>
+    <t>93LC56BT-I/OT</t>
+  </si>
+  <si>
+    <t>r0013</t>
+  </si>
+  <si>
+    <t>RS73G1JTTD2001F</t>
+  </si>
+  <si>
+    <t>2 к</t>
+  </si>
+  <si>
+    <t>100 В</t>
+  </si>
+  <si>
+    <t>r0014</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 12 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>AC0603FR-1012KL</t>
+  </si>
+  <si>
+    <t>https://www.ftdichip.com/Products/ICs/FT232H.htm</t>
+  </si>
+  <si>
+    <t>Преобразователь USB-I2C</t>
+  </si>
+  <si>
+    <t>FTDI Ltd.</t>
+  </si>
+  <si>
+    <t>pcb\qfn_48.PcbLib</t>
+  </si>
+  <si>
+    <t>sch\ft232hq.SchLib</t>
+  </si>
+  <si>
+    <t>ds0001</t>
+  </si>
+  <si>
+    <t>EEPROM 2 Кб 3 линии</t>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+  </si>
+  <si>
+    <t>pcb\sot23_6.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.microchip.com/wwwproducts/en/93LC56B</t>
+  </si>
+  <si>
+    <t>sch\93lc56bt_i_ot.SchLib</t>
+  </si>
+  <si>
+    <t>12 к</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-AC_51_RoHS_L_7.pdf</t>
+  </si>
+  <si>
+    <t>KOA Speer Electronics, Inc.</t>
+  </si>
+  <si>
+    <t>http://www.koaspeer.com/products/resistors/precision-thick-film/rs73/</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 2 кОм ±1 % 0,2 Вт</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL05C270JB5NNN.do</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Конденсатор чип 0402 10 нФ 50 В </t>
     </r>
@@ -1528,98 +1630,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1 %</t>
+      <t>10 %</t>
     </r>
-  </si>
-  <si>
-    <t>CL05B103KB5NNNC</t>
-  </si>
-  <si>
-    <t>https://datasheet.octopart.com/CL05B103KB5NNNC-Samsung-datasheet-26589021.pdf</t>
-  </si>
-  <si>
-    <t>c0010</t>
-  </si>
-  <si>
-    <t>CL05C270JB5NNNC</t>
-  </si>
-  <si>
-    <t>50В</t>
-  </si>
-  <si>
-    <t>https://datasheet.octopart.com/CL05C270JB5NNNC-Samsung-Electro-Mechanics-datasheet-110326803.pdf</t>
-  </si>
-  <si>
-    <t>c0011</t>
-  </si>
-  <si>
-    <t>Микросхема USB 2.0 to I2C</t>
-  </si>
-  <si>
-    <t>FTDI</t>
-  </si>
-  <si>
-    <t>QFN-48</t>
-  </si>
-  <si>
-    <t>FT232HQ</t>
-  </si>
-  <si>
-    <t>https://www.ftdichip.com/Support/Documents/DataSheets/ICs/DS_FT232H.pdf</t>
-  </si>
-  <si>
-    <t>dd0008</t>
-  </si>
-  <si>
-    <t>ee0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEPROM 2 kbit </t>
-  </si>
-  <si>
-    <t>93LC56BT-I/OT</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>sch\eeprom_93LC56BT-IOT.SchLib</t>
-  </si>
-  <si>
-    <t>r0013</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 2 кОм ±1 % 0,1 Вт</t>
-  </si>
-  <si>
-    <t>RS73G1JTTD2001F</t>
-  </si>
-  <si>
-    <t>KOA Speer</t>
-  </si>
-  <si>
-    <t>2 к</t>
-  </si>
-  <si>
-    <t>100 В</t>
-  </si>
-  <si>
-    <t>https://ru.mouser.com/datasheet/2/219/RS73-1759534.pdf</t>
-  </si>
-  <si>
-    <t>r0014</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 12 кОм ±1 % 0,1 Вт</t>
-  </si>
-  <si>
-    <t>AC0603FR-1012KL</t>
-  </si>
-  <si>
-    <t>12 К</t>
-  </si>
-  <si>
-    <t>https://ru.mouser.com/datasheet/2/447/PYu-AC_51_RoHS_L_7-1714230.pdf</t>
   </si>
   <si>
     <r>
@@ -1642,17 +1654,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1 %</t>
+      <t>5 %</t>
     </r>
   </si>
   <si>
-    <t>0,01 мк</t>
-  </si>
-  <si>
-    <t>pcb\qfn_48.PcbLib</t>
-  </si>
-  <si>
-    <t>sch\ft232hq.SchLib</t>
+    <t>не указано</t>
   </si>
 </sst>
 </file>
@@ -2098,29 +2104,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2173,24 +2177,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>383</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="14">
-        <v>1</v>
+      <c r="F2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
@@ -2207,7 +2211,6 @@
       <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>51</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2232,10 +2235,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -2244,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>189</v>
@@ -2275,7 +2278,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>179</v>
       </c>
@@ -2283,19 +2286,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>327</v>
+        <v>195</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>189</v>
@@ -2309,6 +2312,7 @@
       <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2325,24 +2329,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>328</v>
+        <v>191</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="14">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -2372,27 +2376,27 @@
         <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>245</v>
+        <v>318</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="14">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
@@ -2422,10 +2426,10 @@
         <v>13</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>185</v>
       </c>
@@ -2433,16 +2437,16 @@
         <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
@@ -2475,24 +2479,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="14">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
@@ -2525,7 +2529,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>249</v>
       </c>
@@ -2533,16 +2537,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="14">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
@@ -2575,7 +2579,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
@@ -2583,16 +2587,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>378</v>
+        <v>193</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>381</v>
+      <c r="F10" s="14">
+        <v>330</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
@@ -2625,7 +2629,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>317</v>
       </c>
@@ -2633,16 +2637,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>180</v>
+        <v>380</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
@@ -2675,24 +2679,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>22</v>
@@ -2725,24 +2729,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>382</v>
+        <v>227</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>384</v>
+        <v>278</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
+      <c r="F13" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>22</v>
@@ -2775,30 +2779,30 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>405</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>410</v>
+        <v>189</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>181</v>
@@ -2809,6 +2813,7 @@
       <c r="K14" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
         <v>51</v>
       </c>
@@ -2822,39 +2827,39 @@
         <v>13</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>418</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>189</v>
+        <v>399</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>181</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>422</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>14</v>
@@ -2873,78 +2878,79 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
-    <hyperlink ref="Q11" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
-    <hyperlink ref="Q9" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
-    <hyperlink ref="Q8" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{BD25E15B-326E-4DB3-B206-A53BBBA29F60}"/>
-    <hyperlink ref="Q6" r:id="rId7" xr:uid="{4B37EE84-E192-4597-92E3-61AF62354749}"/>
-    <hyperlink ref="Q12" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
-    <hyperlink ref="Q7" r:id="rId9" xr:uid="{83EA0B58-DCA0-4BE3-9AB6-EEE51F1534EB}"/>
-    <hyperlink ref="Q5" r:id="rId10" xr:uid="{E8589298-F5BB-4DAC-B536-04BEFDE1F44B}"/>
-    <hyperlink ref="Q10" r:id="rId11" xr:uid="{DB5A902A-DA4A-44DF-AE52-BAEDC1A7E1D1}"/>
-    <hyperlink ref="Q13" r:id="rId12" xr:uid="{340B604C-8403-46AA-8968-4FA7F2AD2A22}"/>
-    <hyperlink ref="Q14" r:id="rId13" xr:uid="{432389F1-A4AD-4D70-B6D3-C62580557F37}"/>
-    <hyperlink ref="Q15" r:id="rId14" xr:uid="{BD997370-3D0D-458D-966B-81E4FCB643DD}"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
+    <hyperlink ref="Q12" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
+    <hyperlink ref="Q10" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
+    <hyperlink ref="Q9" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
+    <hyperlink ref="Q5" r:id="rId6" xr:uid="{BD25E15B-326E-4DB3-B206-A53BBBA29F60}"/>
+    <hyperlink ref="Q7" r:id="rId7" xr:uid="{4B37EE84-E192-4597-92E3-61AF62354749}"/>
+    <hyperlink ref="Q13" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
+    <hyperlink ref="Q8" r:id="rId9" xr:uid="{83EA0B58-DCA0-4BE3-9AB6-EEE51F1534EB}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{E8589298-F5BB-4DAC-B536-04BEFDE1F44B}"/>
+    <hyperlink ref="Q11" r:id="rId11" xr:uid="{DB5A902A-DA4A-44DF-AE52-BAEDC1A7E1D1}"/>
+    <hyperlink ref="Q2" r:id="rId12" xr:uid="{340B604C-8403-46AA-8968-4FA7F2AD2A22}"/>
+    <hyperlink ref="Q15" r:id="rId13" xr:uid="{432389F1-A4AD-4D70-B6D3-C62580557F37}"/>
+    <hyperlink ref="Q14" r:id="rId14" xr:uid="{BD997370-3D0D-458D-966B-81E4FCB643DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -2952,27 +2958,407 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{DF2E561A-AEFC-40E9-82DE-7A5BBB46892D}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{C38E3611-1B0E-4DBE-8222-3FEBF62A9241}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{A800EF23-64AF-420F-9A5D-C502992665D4}"/>
+    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
+    <hyperlink ref="L5" r:id="rId5" xr:uid="{0A5E9A92-9B2D-46DF-A0B2-1E2B2015485A}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{CE9E72BA-DA37-438C-AA6F-63ABED45EC4E}"/>
+    <hyperlink ref="L7" r:id="rId7" xr:uid="{EE844647-EF4A-4335-BDED-9B92F11D7B6B}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{F886F85F-7ADF-4D05-9F1F-C8681DE09AF2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3004,7 +3390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
@@ -3036,7 +3422,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>210</v>
       </c>
@@ -3068,7 +3454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>257</v>
       </c>
@@ -3100,7 +3486,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>333</v>
       </c>
@@ -3132,7 +3518,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>347</v>
       </c>
@@ -3178,28 +3564,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB9044E-3621-47EE-9805-1ADB6C9BB8C9}">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3215,165 +3604,71 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>400</v>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>401</v>
+      <c r="C2" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>314</v>
+      <c r="F2" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>198</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>37</v>
+      </c>
       <c r="L2" s="2" t="s">
         <v>50</v>
       </c>
@@ -3381,45 +3676,45 @@
         <v>127</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>332</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
@@ -3429,16 +3724,16 @@
         <v>127</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -3446,19 +3741,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>201</v>
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>24</v>
@@ -3467,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
@@ -3477,36 +3772,36 @@
         <v>127</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>227</v>
+      <c r="B5" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>251</v>
+        <v>420</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>253</v>
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -3515,9 +3810,8 @@
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>37</v>
+      </c>
       <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
@@ -3525,16 +3819,16 @@
         <v>127</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -3542,22 +3836,22 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>38</v>
@@ -3582,7 +3876,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>178</v>
       </c>
@@ -3590,25 +3884,25 @@
         <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -3627,10 +3921,10 @@
         <v>196</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
@@ -3638,16 +3932,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>112</v>
@@ -3656,7 +3950,7 @@
         <v>113</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -3675,27 +3969,27 @@
         <v>196</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>223</v>
+        <v>277</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>112</v>
@@ -3704,28 +3998,29 @@
         <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>115</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>312</v>
       </c>
@@ -3733,66 +4028,67 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>224</v>
+        <v>207</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>115</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>418</v>
+        <v>150</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>24</v>
@@ -3800,147 +4096,147 @@
       <c r="I11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
+      <c r="J11" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2">
-        <v>27</v>
+        <v>110</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>391</v>
+        <v>112</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>37</v>
+      <c r="J12" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13"/>
-      <c r="D13" s="1"/>
-      <c r="H13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14"/>
-      <c r="D14" s="1"/>
-      <c r="H14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15"/>
       <c r="D15" s="1"/>
       <c r="H15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16" s="1"/>
       <c r="H16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17"/>
       <c r="D17" s="1"/>
       <c r="H17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18"/>
       <c r="D18" s="1"/>
       <c r="H18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19"/>
       <c r="D19" s="1"/>
       <c r="H19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20"/>
       <c r="D20" s="1"/>
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21"/>
       <c r="D21" s="1"/>
       <c r="H21"/>
       <c r="J21"/>
     </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22"/>
+      <c r="D22" s="1"/>
+      <c r="H22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23"/>
+      <c r="D23" s="1"/>
+      <c r="H23"/>
+      <c r="J23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{6424A0A0-2B33-4804-A187-0A0D12DBBE83}"/>
-    <hyperlink ref="P10" r:id="rId2" xr:uid="{F253E5C5-E99D-4C1F-855D-4713A6868696}"/>
-    <hyperlink ref="P9" r:id="rId3" xr:uid="{AFCC2B1D-E974-40DD-AC88-624E39891C4F}"/>
-    <hyperlink ref="P7" r:id="rId4" xr:uid="{744209AB-2D79-43DF-A2BA-8B8E29F6EA68}"/>
-    <hyperlink ref="P8" r:id="rId5" xr:uid="{CBBF5DF8-0BF1-423D-9AF0-108754F8C32B}"/>
-    <hyperlink ref="P6" r:id="rId6" xr:uid="{0F45D710-8F8D-4D0A-AF25-B9211ECCCE9B}"/>
-    <hyperlink ref="P2" r:id="rId7" xr:uid="{051AE1BC-4CBF-4323-B5CA-FA082C93C420}"/>
-    <hyperlink ref="P11" r:id="rId8" xr:uid="{28AA227C-E214-4197-B9E7-633778C441C2}"/>
-    <hyperlink ref="P12" r:id="rId9" xr:uid="{ECF39DEF-3822-4D81-AE18-892351B3F6AA}"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{6424A0A0-2B33-4804-A187-0A0D12DBBE83}"/>
+    <hyperlink ref="P12" r:id="rId2" xr:uid="{F253E5C5-E99D-4C1F-855D-4713A6868696}"/>
+    <hyperlink ref="P11" r:id="rId3" xr:uid="{AFCC2B1D-E974-40DD-AC88-624E39891C4F}"/>
+    <hyperlink ref="P9" r:id="rId4" xr:uid="{744209AB-2D79-43DF-A2BA-8B8E29F6EA68}"/>
+    <hyperlink ref="P10" r:id="rId5" xr:uid="{CBBF5DF8-0BF1-423D-9AF0-108754F8C32B}"/>
+    <hyperlink ref="P8" r:id="rId6" xr:uid="{0F45D710-8F8D-4D0A-AF25-B9211ECCCE9B}"/>
+    <hyperlink ref="P3" r:id="rId7" xr:uid="{051AE1BC-4CBF-4323-B5CA-FA082C93C420}"/>
+    <hyperlink ref="P5" r:id="rId8" xr:uid="{28AA227C-E214-4197-B9E7-633778C441C2}"/>
+    <hyperlink ref="P2" r:id="rId9" xr:uid="{ECF39DEF-3822-4D81-AE18-892351B3F6AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
@@ -3953,24 +4249,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -4085,7 +4381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -4141,7 +4437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -4197,7 +4493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -4253,7 +4549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -4309,7 +4605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -4389,22 +4685,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4454,7 +4750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4513,23 +4809,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="J5:K5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4567,7 +4861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4602,7 +4896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -4637,7 +4931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
@@ -4672,7 +4966,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -4707,7 +5001,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
@@ -4742,7 +5036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>350</v>
       </c>
@@ -4798,22 +5092,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4863,7 +5157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>163</v>
       </c>
@@ -4910,7 +5204,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>260</v>
       </c>
@@ -4957,7 +5251,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -4970,25 +5264,232 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="5"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{F9D1BD3B-4C0F-4D1D-86F0-78BAA9A15A93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A6BB4-1247-4FE3-87EE-5F75C5E59BA4}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
-    <col min="4" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="17" width="80.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5041,7 +5542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>356</v>
       </c>
@@ -5100,28 +5601,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
-  <dimension ref="A1:M17"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB9044E-3621-47EE-9805-1ADB6C9BB8C9}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5138,548 +5636,66 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>264</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>408</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>382</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>409</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>410</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="5"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="5"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
+        <v>411</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>412</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{F9D1BD3B-4C0F-4D1D-86F0-78BAA9A15A93}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
-  <dimension ref="A1:L16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{DF2E561A-AEFC-40E9-82DE-7A5BBB46892D}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{C38E3611-1B0E-4DBE-8222-3FEBF62A9241}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{A800EF23-64AF-420F-9A5D-C502992665D4}"/>
-    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
-    <hyperlink ref="L5" r:id="rId5" xr:uid="{0A5E9A92-9B2D-46DF-A0B2-1E2B2015485A}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{CE9E72BA-DA37-438C-AA6F-63ABED45EC4E}"/>
-    <hyperlink ref="L7" r:id="rId7" xr:uid="{EE844647-EF4A-4335-BDED-9B92F11D7B6B}"/>
-    <hyperlink ref="L9" r:id="rId8" xr:uid="{F886F85F-7ADF-4D05-9F1F-C8681DE09AF2}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{711084A3-0C57-42F5-9BEB-0F89F266C182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24598B7F-0B19-467A-9977-FDA96104E1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617CD57F-688E-44F2-B664-FC2BCAAFA60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,18 +1511,12 @@
     <t>CL05B103KB5NNNC</t>
   </si>
   <si>
-    <t>10 нФ</t>
-  </si>
-  <si>
     <t>c0010</t>
   </si>
   <si>
     <t>CL05C270JB5NNNC</t>
   </si>
   <si>
-    <t>27 пФ</t>
-  </si>
-  <si>
     <t>c0011</t>
   </si>
   <si>
@@ -1608,30 +1602,6 @@
   </si>
   <si>
     <t>http://product.samsungsem.com/mlcc/CL05C270JB5NNN.do</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Конденсатор чип 0402 10 нФ 50 В </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10 %</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1659,6 +1629,36 @@
   </si>
   <si>
     <t>не указано</t>
+  </si>
+  <si>
+    <t>27 п</t>
+  </si>
+  <si>
+    <t>0,01 мк</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0402 0,01 мк 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1775,7 +1775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1821,6 +1821,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2781,22 +2784,22 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>22</v>
@@ -2827,39 +2830,39 @@
         <v>13</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>181</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>14</v>
@@ -2878,7 +2881,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3260,37 +3263,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3646,16 +3649,16 @@
         <v>382</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>198</v>
@@ -3682,7 +3685,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3789,7 +3792,7 @@
         <v>382</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>386</v>
@@ -3798,7 +3801,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>112</v>
@@ -3886,7 +3889,7 @@
       <c r="C7" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>251</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -4070,7 +4073,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -4117,7 +4120,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -4237,9 +4240,10 @@
     <hyperlink ref="P3" r:id="rId7" xr:uid="{051AE1BC-4CBF-4323-B5CA-FA082C93C420}"/>
     <hyperlink ref="P5" r:id="rId8" xr:uid="{28AA227C-E214-4197-B9E7-633778C441C2}"/>
     <hyperlink ref="P2" r:id="rId9" xr:uid="{ECF39DEF-3822-4D81-AE18-892351B3F6AA}"/>
+    <hyperlink ref="P7" r:id="rId10" xr:uid="{329FC8C0-C623-46AB-A492-493D76A6830C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -5659,38 +5663,38 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chern_000\Documents\Altium\Library\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617CD57F-688E-44F2-B664-FC2BCAAFA60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId10"/>
     <sheet name="Разъемы" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="429">
   <si>
     <t>ID</t>
   </si>
@@ -1660,17 +1659,43 @@
       <t>10 %</t>
     </r>
   </si>
+  <si>
+    <t>Конденсатор чип 0603 0,22 мкФ 10 В ±5 %</t>
+  </si>
+  <si>
+    <t>c0012</t>
+  </si>
+  <si>
+    <t>Чернов</t>
+  </si>
+  <si>
+    <t>10 В</t>
+  </si>
+  <si>
+    <t>CC0603MPX5R6BB226</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/447/UPY-GPHC_X5R_4V-to-50V_25-1131599.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1773,7 +1798,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1786,34 +1811,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1823,7 +1848,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2106,10 +2131,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2938,22 +2963,22 @@
       <c r="B30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" xr:uid="{14C7FC16-AD95-429D-B6BB-06D43859246E}"/>
-    <hyperlink ref="Q4" r:id="rId2" xr:uid="{15DAFF7A-45BD-4BE1-9EFB-BA2053017CDB}"/>
-    <hyperlink ref="Q12" r:id="rId3" xr:uid="{CFDC0D47-8734-4D77-9820-DBA36079EE6E}"/>
-    <hyperlink ref="Q10" r:id="rId4" xr:uid="{5E2FE94E-8EF8-4A04-A3CB-97A3C312B3EE}"/>
-    <hyperlink ref="Q9" r:id="rId5" xr:uid="{6D6069C6-3E62-4B0B-B028-6655551C7172}"/>
-    <hyperlink ref="Q5" r:id="rId6" xr:uid="{BD25E15B-326E-4DB3-B206-A53BBBA29F60}"/>
-    <hyperlink ref="Q7" r:id="rId7" xr:uid="{4B37EE84-E192-4597-92E3-61AF62354749}"/>
-    <hyperlink ref="Q13" r:id="rId8" xr:uid="{2712859B-ED57-4169-A586-036BBAC290A0}"/>
-    <hyperlink ref="Q8" r:id="rId9" xr:uid="{83EA0B58-DCA0-4BE3-9AB6-EEE51F1534EB}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{E8589298-F5BB-4DAC-B536-04BEFDE1F44B}"/>
-    <hyperlink ref="Q11" r:id="rId11" xr:uid="{DB5A902A-DA4A-44DF-AE52-BAEDC1A7E1D1}"/>
-    <hyperlink ref="Q2" r:id="rId12" xr:uid="{340B604C-8403-46AA-8968-4FA7F2AD2A22}"/>
-    <hyperlink ref="Q15" r:id="rId13" xr:uid="{432389F1-A4AD-4D70-B6D3-C62580557F37}"/>
-    <hyperlink ref="Q14" r:id="rId14" xr:uid="{BD997370-3D0D-458D-966B-81E4FCB643DD}"/>
+    <hyperlink ref="Q3" r:id="rId1"/>
+    <hyperlink ref="Q4" r:id="rId2"/>
+    <hyperlink ref="Q12" r:id="rId3"/>
+    <hyperlink ref="Q10" r:id="rId4"/>
+    <hyperlink ref="Q9" r:id="rId5"/>
+    <hyperlink ref="Q5" r:id="rId6"/>
+    <hyperlink ref="Q7" r:id="rId7"/>
+    <hyperlink ref="Q13" r:id="rId8"/>
+    <hyperlink ref="Q8" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="Q11" r:id="rId11"/>
+    <hyperlink ref="Q2" r:id="rId12"/>
+    <hyperlink ref="Q15" r:id="rId13"/>
+    <hyperlink ref="Q14" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -2961,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75FF3E-1741-4D3C-9EB9-9DD9DCFED17C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -3322,23 +3347,23 @@
       <c r="L16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{DF2E561A-AEFC-40E9-82DE-7A5BBB46892D}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{C38E3611-1B0E-4DBE-8222-3FEBF62A9241}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{A800EF23-64AF-420F-9A5D-C502992665D4}"/>
-    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{C4953B91-79AF-4C9E-A2B2-32C25422E60D}"/>
-    <hyperlink ref="L5" r:id="rId5" xr:uid="{0A5E9A92-9B2D-46DF-A0B2-1E2B2015485A}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{CE9E72BA-DA37-438C-AA6F-63ABED45EC4E}"/>
-    <hyperlink ref="L7" r:id="rId7" xr:uid="{EE844647-EF4A-4335-BDED-9B92F11D7B6B}"/>
-    <hyperlink ref="L9" r:id="rId8" xr:uid="{F886F85F-7ADF-4D05-9F1F-C8681DE09AF2}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy"/>
+    <hyperlink ref="L5" r:id="rId5"/>
+    <hyperlink ref="L8" r:id="rId6"/>
+    <hyperlink ref="L7" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FEDE4-648D-44DF-8AEC-80428D88B92D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3554,13 +3579,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{ED28BC9B-C51C-4175-8652-C36CE3082E6D}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{E7E06F9E-C994-49F0-A92C-E6A3FA954BB8}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{785EDD9F-12E1-412D-8325-BCF98E7757C3}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{7E772B5B-3C46-4151-8363-ED4F451FD8AF}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{F773DC10-13E2-4A91-890A-E50BD818773E}"/>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
@@ -3568,27 +3593,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E39EBDF-2F32-4F3D-B38F-7FF96110EE86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -4165,90 +4190,102 @@
         <v>114</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15"/>
-      <c r="D15" s="1"/>
-      <c r="H15"/>
-      <c r="J15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16"/>
-      <c r="D16" s="1"/>
-      <c r="H16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17"/>
-      <c r="D17" s="1"/>
-      <c r="H17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18"/>
-      <c r="D18" s="1"/>
-      <c r="H18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19"/>
-      <c r="D19" s="1"/>
-      <c r="H19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20"/>
-      <c r="D20" s="1"/>
-      <c r="H20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21"/>
-      <c r="D21" s="1"/>
-      <c r="H21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22"/>
-      <c r="D22" s="1"/>
-      <c r="H22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23"/>
-      <c r="D23" s="1"/>
-      <c r="H23"/>
-      <c r="J23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1" xr:uid="{6424A0A0-2B33-4804-A187-0A0D12DBBE83}"/>
-    <hyperlink ref="P12" r:id="rId2" xr:uid="{F253E5C5-E99D-4C1F-855D-4713A6868696}"/>
-    <hyperlink ref="P11" r:id="rId3" xr:uid="{AFCC2B1D-E974-40DD-AC88-624E39891C4F}"/>
-    <hyperlink ref="P9" r:id="rId4" xr:uid="{744209AB-2D79-43DF-A2BA-8B8E29F6EA68}"/>
-    <hyperlink ref="P10" r:id="rId5" xr:uid="{CBBF5DF8-0BF1-423D-9AF0-108754F8C32B}"/>
-    <hyperlink ref="P8" r:id="rId6" xr:uid="{0F45D710-8F8D-4D0A-AF25-B9211ECCCE9B}"/>
-    <hyperlink ref="P3" r:id="rId7" xr:uid="{051AE1BC-4CBF-4323-B5CA-FA082C93C420}"/>
-    <hyperlink ref="P5" r:id="rId8" xr:uid="{28AA227C-E214-4197-B9E7-633778C441C2}"/>
-    <hyperlink ref="P2" r:id="rId9" xr:uid="{ECF39DEF-3822-4D81-AE18-892351B3F6AA}"/>
-    <hyperlink ref="P7" r:id="rId10" xr:uid="{329FC8C0-C623-46AB-A492-493D76A6830C}"/>
+    <hyperlink ref="P4" r:id="rId1"/>
+    <hyperlink ref="P12" r:id="rId2"/>
+    <hyperlink ref="P11" r:id="rId3"/>
+    <hyperlink ref="P9" r:id="rId4"/>
+    <hyperlink ref="P10" r:id="rId5"/>
+    <hyperlink ref="P8" r:id="rId6"/>
+    <hyperlink ref="P3" r:id="rId7"/>
+    <hyperlink ref="P5" r:id="rId8"/>
+    <hyperlink ref="P2" r:id="rId9"/>
+    <hyperlink ref="P7" r:id="rId10"/>
+    <hyperlink ref="P13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DDA5E3-EA42-4E04-BB83-0B98927B5C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4669,14 +4706,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{70BCDEAE-B456-492D-88B7-17107356D063}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{EF36A799-7EEE-47BA-B90A-A6DF24FD7E89}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{B34B2599-C0F9-454D-BB0E-477C6B8E558B}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{F3C9E8EA-596A-47F7-86E7-025C68880EC3}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{40F15725-7E9A-4FBB-B10D-B12FC8B42E9C}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{40750E55-C9D5-44FC-84C8-FFBB04EC103B}"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId5"/>
+    <hyperlink ref="S7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -4684,7 +4721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA27FA4-91C0-4174-BAC0-C2DF96E3C663}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4803,14 +4840,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{2A0991D2-C6BC-42B4-9712-1AD0D47AAB04}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC674FB-AF6B-4760-B830-59828540FA88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5076,14 +5113,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{DA098F72-D0F9-49A7-B3B8-A55C31CEABDC}"/>
-    <hyperlink ref="L5" r:id="rId2" xr:uid="{B2192E2B-EDA8-4905-AD15-E3AF0BE0AB45}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{85DCAEC2-CFAA-41D8-80CB-A27529CB7B68}"/>
-    <hyperlink ref="L6" r:id="rId4" xr:uid="{96F9E2EE-8FDC-4C92-8EA7-45F2F2188B0A}"/>
-    <hyperlink ref="L4" r:id="rId5" xr:uid="{E0613673-7DAA-4963-99C9-A8BBDC1652E3}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{72C1B108-5BF2-4E92-9CD6-609AF96B9B7D}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L5" r:id="rId2"/>
+    <hyperlink ref="L3" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4"/>
+    <hyperlink ref="L4" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -5091,7 +5128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B0A158-01F9-4E3E-85B1-9FFC38783142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5260,15 +5297,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{833A7B6D-4BDE-4EEB-8016-6CC90C797914}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{182A36E0-CE21-4682-B08D-378C7F91005B}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76B61D-8D8D-4056-949E-F03002C8B593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5468,14 +5505,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{F9D1BD3B-4C0F-4D1D-86F0-78BAA9A15A93}"/>
+    <hyperlink ref="M2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A6BB4-1247-4FE3-87EE-5F75C5E59BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5599,14 +5636,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{1E457930-7424-4241-A0D2-3E66BB616F2B}"/>
+    <hyperlink ref="Q2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB9044E-3621-47EE-9805-1ADB6C9BB8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5699,7 +5736,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{711084A3-0C57-42F5-9BEB-0F89F266C182}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chern_000\Documents\Altium\Library\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735252A-CFB0-4DBE-9F3E-F08CBEA3585E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -29,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="440">
   <si>
     <t>ID</t>
   </si>
@@ -1677,11 +1670,44 @@
   <si>
     <t>https://www.mouser.com/datasheet/2/447/UPY-GPHC_X5R_4V-to-50V_25-1131599.pdf</t>
   </si>
+  <si>
+    <t>sw0002</t>
+  </si>
+  <si>
+    <t>Тактовая кнопка поверхностного монтажа</t>
+  </si>
+  <si>
+    <t>FSM4JSMA</t>
+  </si>
+  <si>
+    <t>50 мА @ 24 В</t>
+  </si>
+  <si>
+    <t>100 мОм</t>
+  </si>
+  <si>
+    <t>от –35 °С до +85 °С</t>
+  </si>
+  <si>
+    <t>6,00 x 6,00 x 4,98</t>
+  </si>
+  <si>
+    <t>sch\switch_01.SchLib</t>
+  </si>
+  <si>
+    <t>SWITCH-01</t>
+  </si>
+  <si>
+    <t>pcb\fsm4jsma.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.te.com/usa-en/product-4-1437565-1.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2131,28 +2157,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2281,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2306,7 +2332,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>179</v>
       </c>
@@ -2357,7 +2383,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2407,7 +2433,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
@@ -2457,7 +2483,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>185</v>
       </c>
@@ -2507,7 +2533,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>246</v>
       </c>
@@ -2557,7 +2583,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>249</v>
       </c>
@@ -2607,7 +2633,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
@@ -2657,7 +2683,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>317</v>
       </c>
@@ -2707,7 +2733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>379</v>
       </c>
@@ -2757,7 +2783,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>385</v>
       </c>
@@ -2807,7 +2833,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>394</v>
       </c>
@@ -2858,7 +2884,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>398</v>
       </c>
@@ -2909,76 +2935,76 @@
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1"/>
-    <hyperlink ref="Q4" r:id="rId2"/>
-    <hyperlink ref="Q12" r:id="rId3"/>
-    <hyperlink ref="Q10" r:id="rId4"/>
-    <hyperlink ref="Q9" r:id="rId5"/>
-    <hyperlink ref="Q5" r:id="rId6"/>
-    <hyperlink ref="Q7" r:id="rId7"/>
-    <hyperlink ref="Q13" r:id="rId8"/>
-    <hyperlink ref="Q8" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="Q11" r:id="rId11"/>
-    <hyperlink ref="Q2" r:id="rId12"/>
-    <hyperlink ref="Q15" r:id="rId13"/>
-    <hyperlink ref="Q14" r:id="rId14"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -2986,24 +3012,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -3076,7 +3102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -3111,7 +3137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>226</v>
       </c>
@@ -3146,7 +3172,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>232</v>
       </c>
@@ -3181,7 +3207,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>284</v>
       </c>
@@ -3216,7 +3242,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>292</v>
       </c>
@@ -3251,7 +3277,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
@@ -3286,7 +3312,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>392</v>
       </c>
@@ -3321,27 +3347,27 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -3349,41 +3375,41 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy"/>
-    <hyperlink ref="L5" r:id="rId5"/>
-    <hyperlink ref="L8" r:id="rId6"/>
-    <hyperlink ref="L7" r:id="rId7"/>
-    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="L5" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="L7" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
@@ -3450,7 +3476,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>210</v>
       </c>
@@ -3482,7 +3508,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>257</v>
       </c>
@@ -3514,7 +3540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>333</v>
       </c>
@@ -3546,7 +3572,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>347</v>
       </c>
@@ -3581,11 +3607,11 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K4" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
@@ -3593,30 +3619,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="110.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +3692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -3713,7 +3739,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -3761,7 +3787,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -3809,7 +3835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
@@ -3856,7 +3882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -3904,7 +3930,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>178</v>
       </c>
@@ -3952,7 +3978,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
@@ -4000,7 +4026,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -4048,7 +4074,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>312</v>
       </c>
@@ -4096,7 +4122,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>387</v>
       </c>
@@ -4143,7 +4169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>389</v>
       </c>
@@ -4190,7 +4216,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>424</v>
       </c>
@@ -4237,47 +4263,47 @@
         <v>428</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1"/>
-    <hyperlink ref="P12" r:id="rId2"/>
-    <hyperlink ref="P11" r:id="rId3"/>
-    <hyperlink ref="P9" r:id="rId4"/>
-    <hyperlink ref="P10" r:id="rId5"/>
-    <hyperlink ref="P8" r:id="rId6"/>
-    <hyperlink ref="P3" r:id="rId7"/>
-    <hyperlink ref="P5" r:id="rId8"/>
-    <hyperlink ref="P2" r:id="rId9"/>
-    <hyperlink ref="P7" r:id="rId10"/>
-    <hyperlink ref="P13" r:id="rId11"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="P12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="P9" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="P10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P3" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="P5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P2" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="P7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="P13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId12"/>
@@ -4285,29 +4311,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4366,7 +4392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -4422,7 +4448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -4478,7 +4504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -4534,7 +4560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -4590,7 +4616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -4646,7 +4672,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -4708,12 +4734,12 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
-    <hyperlink ref="S6" r:id="rId5"/>
-    <hyperlink ref="S7" r:id="rId6"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -4721,27 +4747,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4791,7 +4817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4840,31 +4866,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4902,7 +4928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4937,7 +4963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -4972,7 +4998,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
@@ -5007,7 +5033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -5042,7 +5068,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
@@ -5077,7 +5103,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>350</v>
       </c>
@@ -5115,12 +5141,12 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L5" r:id="rId2"/>
-    <hyperlink ref="L3" r:id="rId3"/>
-    <hyperlink ref="L6" r:id="rId4"/>
-    <hyperlink ref="L4" r:id="rId5"/>
-    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -5128,27 +5154,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5198,7 +5224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>163</v>
       </c>
@@ -5245,7 +5271,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>260</v>
       </c>
@@ -5292,40 +5318,40 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5366,7 +5392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>263</v>
       </c>
@@ -5404,7 +5430,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -5413,7 +5439,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -5422,7 +5448,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -5431,73 +5457,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -5505,32 +5531,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="17" width="80.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="80.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5583,7 +5613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>356</v>
       </c>
@@ -5634,33 +5664,84 @@
         <v>360</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{C629D676-045C-4851-83EF-DA670A6A6AA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="70.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5698,7 +5779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>406</v>
       </c>
@@ -5736,7 +5817,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735252A-CFB0-4DBE-9F3E-F08CBEA3585E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F483EE3-D58C-4A0B-BDF6-F6F499488B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="444">
   <si>
     <t>ID</t>
   </si>
@@ -1702,6 +1702,18 @@
   </si>
   <si>
     <t>https://www.te.com/usa-en/product-4-1437565-1.html</t>
+  </si>
+  <si>
+    <t>TPD2E001DZDR</t>
+  </si>
+  <si>
+    <t>SOP-4</t>
+  </si>
+  <si>
+    <t>sch\tpd2e001dzdr.SchLib</t>
+  </si>
+  <si>
+    <t>vd0007</t>
   </si>
 </sst>
 </file>
@@ -4874,9 +4886,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5138,6 +5152,41 @@
         <v>354</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5147,9 +5196,10 @@
     <hyperlink ref="L6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
     <hyperlink ref="L4" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
     <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{C4AAA317-109D-4D9B-B5C9-67E54B2DF332}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -5541,7 +5591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -5727,7 +5777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F483EE3-D58C-4A0B-BDF6-F6F499488B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2606CA-51E7-4D89-B1F5-1CD73DBC3658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="445">
   <si>
     <t>ID</t>
   </si>
@@ -1653,9 +1653,6 @@
     </r>
   </si>
   <si>
-    <t>Конденсатор чип 0603 0,22 мкФ 10 В ±5 %</t>
-  </si>
-  <si>
     <t>c0012</t>
   </si>
   <si>
@@ -1668,9 +1665,6 @@
     <t>CC0603MPX5R6BB226</t>
   </si>
   <si>
-    <t>https://www.mouser.com/datasheet/2/447/UPY-GPHC_X5R_4V-to-50V_25-1131599.pdf</t>
-  </si>
-  <si>
     <t>sw0002</t>
   </si>
   <si>
@@ -1689,9 +1683,6 @@
     <t>от –35 °С до +85 °С</t>
   </si>
   <si>
-    <t>6,00 x 6,00 x 4,98</t>
-  </si>
-  <si>
     <t>sch\switch_01.SchLib</t>
   </si>
   <si>
@@ -1714,6 +1705,18 @@
   </si>
   <si>
     <t>vd0007</t>
+  </si>
+  <si>
+    <t>±20 %</t>
+  </si>
+  <si>
+    <t>22 мк</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 22 мкФ 10 В ±20 %</t>
+  </si>
+  <si>
+    <t>6,00x6,00x4,98</t>
   </si>
 </sst>
 </file>
@@ -2172,25 +2175,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>179</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>185</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>246</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>249</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>317</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>379</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>385</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>394</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>398</v>
       </c>
@@ -2947,56 +2950,56 @@
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
     </row>
@@ -3029,19 +3032,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>226</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>232</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>284</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>292</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>298</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>392</v>
       </c>
@@ -3359,27 +3362,27 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -3406,22 +3409,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>210</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>257</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>333</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>347</v>
       </c>
@@ -3632,29 +3635,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>178</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>312</v>
       </c>
@@ -4134,54 +4135,54 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>223</v>
+        <v>424</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>441</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>115</v>
+        <v>274</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>389</v>
       </c>
@@ -4189,22 +4190,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>113</v>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>38</v>
@@ -4228,86 +4229,86 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>253</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>426</v>
+        <v>113</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
+      <c r="J13" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="P4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="P12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="P13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="P9" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="P10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
@@ -4315,10 +4316,11 @@
     <hyperlink ref="P5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="P2" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="P7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="P13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="P11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="P6" r:id="rId12" xr:uid="{5192888D-8205-4B4C-B83F-C46360DCAAD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -4328,24 +4330,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +4406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -4516,7 +4518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -4684,7 +4686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -4764,22 +4766,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4888,23 +4890,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>238</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>350</v>
       </c>
@@ -5152,9 +5152,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>293</v>
@@ -5163,19 +5163,19 @@
         <v>131</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>126</v>
@@ -5209,22 +5209,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>163</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>260</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -5386,22 +5386,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>263</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -5489,7 +5489,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -5498,7 +5498,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -5507,73 +5507,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -5591,26 +5591,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="17" width="80.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="80.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>356</v>
       </c>
@@ -5714,54 +5712,54 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>429</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>368</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5777,21 +5775,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="70.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5829,7 +5827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>406</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александра\Documents\GitHub\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2606CA-51E7-4D89-B1F5-1CD73DBC3658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62606BEA-9125-449B-88A5-7819C7D098EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="459">
   <si>
     <t>ID</t>
   </si>
@@ -1717,6 +1717,48 @@
   </si>
   <si>
     <t>6,00x6,00x4,98</t>
+  </si>
+  <si>
+    <t>dd0009</t>
+  </si>
+  <si>
+    <t>Демчева</t>
+  </si>
+  <si>
+    <t>ADM101EARM</t>
+  </si>
+  <si>
+    <t>Analog Devices, Inc.</t>
+  </si>
+  <si>
+    <t>QFN-32</t>
+  </si>
+  <si>
+    <t>MSOP-10</t>
+  </si>
+  <si>
+    <t>sch\adm101earm.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\msop_10.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/ru/products/adm101e.html#product-documentation</t>
+  </si>
+  <si>
+    <t>dd0010</t>
+  </si>
+  <si>
+    <t>FT232RQ</t>
+  </si>
+  <si>
+    <t>sch\ft232rq.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\qfn_32.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.ftdichip.com/Products/ICs/FT232R.htm</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1890,6 +1932,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2175,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3030,7 +3085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3118,7 +3175,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3153,7 +3210,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3188,7 +3245,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3223,7 +3280,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>284</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3235,7 +3292,7 @@
       <c r="D6" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3257,109 +3314,180 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L10" s="19" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3395,11 +3523,14 @@
     <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
     <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
     <hyperlink ref="L5" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="L7" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="L9" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="L7" r:id="rId9" location="product-documentation" xr:uid="{E551D280-D17E-4C5C-879A-3CDF56256191}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{B5BF2EFD-3C64-46DF-AACD-718A648A07EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александра\Documents\GitHub\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chern_000\Documents\Altium\Library\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62606BEA-9125-449B-88A5-7819C7D098EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="464">
   <si>
     <t>ID</t>
   </si>
@@ -1760,11 +1759,26 @@
   <si>
     <t>https://www.ftdichip.com/Products/ICs/FT232R.htm</t>
   </si>
+  <si>
+    <t>Конденсатор чип 0603 0,22 мкФ 10 В ±5 %</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R6BB224</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Backup Help URL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1883,7 +1897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1946,6 +1960,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2227,7 +2244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -3061,20 +3078,20 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Q5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Q7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Q11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Q15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q3" r:id="rId1"/>
+    <hyperlink ref="Q4" r:id="rId2"/>
+    <hyperlink ref="Q12" r:id="rId3"/>
+    <hyperlink ref="Q10" r:id="rId4"/>
+    <hyperlink ref="Q9" r:id="rId5"/>
+    <hyperlink ref="Q5" r:id="rId6"/>
+    <hyperlink ref="Q7" r:id="rId7"/>
+    <hyperlink ref="Q13" r:id="rId8"/>
+    <hyperlink ref="Q8" r:id="rId9"/>
+    <hyperlink ref="Q6" r:id="rId10"/>
+    <hyperlink ref="Q11" r:id="rId11"/>
+    <hyperlink ref="Q2" r:id="rId12"/>
+    <hyperlink ref="Q15" r:id="rId13"/>
+    <hyperlink ref="Q14" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -3082,10 +3099,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3518,16 +3535,16 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="L5" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="L9" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="L7" r:id="rId9" location="product-documentation" xr:uid="{E551D280-D17E-4C5C-879A-3CDF56256191}"/>
-    <hyperlink ref="L11" r:id="rId10" xr:uid="{B5BF2EFD-3C64-46DF-AACD-718A648A07EE}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy"/>
+    <hyperlink ref="L5" r:id="rId5"/>
+    <hyperlink ref="L9" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L10" r:id="rId8"/>
+    <hyperlink ref="L7" r:id="rId9" location="product-documentation"/>
+    <hyperlink ref="L11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
@@ -3535,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3753,11 +3770,11 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
@@ -3765,10 +3782,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3784,9 +3803,10 @@
     <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
     <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3835,8 +3855,11 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -3883,7 +3906,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -3931,7 +3954,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -3979,7 +4002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
@@ -4026,7 +4049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -4074,7 +4097,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>178</v>
       </c>
@@ -4122,7 +4145,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
@@ -4170,7 +4193,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -4218,7 +4241,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>312</v>
       </c>
@@ -4266,7 +4289,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>387</v>
       </c>
@@ -4313,7 +4336,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>389</v>
       </c>
@@ -4360,7 +4383,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>423</v>
       </c>
@@ -4407,56 +4430,110 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="P16" s="22"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="P13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="P9" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P10" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P3" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="P5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P2" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="P7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="P11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="P6" r:id="rId12" xr:uid="{5192888D-8205-4B4C-B83F-C46360DCAAD8}"/>
+    <hyperlink ref="P4" r:id="rId1"/>
+    <hyperlink ref="P13" r:id="rId2"/>
+    <hyperlink ref="P12" r:id="rId3"/>
+    <hyperlink ref="P9" r:id="rId4"/>
+    <hyperlink ref="P10" r:id="rId5"/>
+    <hyperlink ref="P8" r:id="rId6"/>
+    <hyperlink ref="P3" r:id="rId7"/>
+    <hyperlink ref="P5" r:id="rId8"/>
+    <hyperlink ref="P2" r:id="rId9"/>
+    <hyperlink ref="P7" r:id="rId10"/>
+    <hyperlink ref="P11" r:id="rId11"/>
+    <hyperlink ref="P6" r:id="rId12"/>
+    <hyperlink ref="P14" r:id="rId13"/>
+    <hyperlink ref="Q14" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4879,12 +4956,12 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId5"/>
+    <hyperlink ref="S7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -4892,7 +4969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5011,14 +5088,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5321,13 +5398,13 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="L5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="L6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="L4" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{C4AAA317-109D-4D9B-B5C9-67E54B2DF332}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L5" r:id="rId2"/>
+    <hyperlink ref="L3" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4"/>
+    <hyperlink ref="L4" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
@@ -5335,7 +5412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5504,15 +5581,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5712,14 +5789,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5895,15 +5972,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{C629D676-045C-4851-83EF-DA670A6A6AA7}"/>
+    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="Q3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5996,7 +6073,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="465">
   <si>
     <t>ID</t>
   </si>
@@ -1773,6 +1773,9 @@
   </si>
   <si>
     <t>Backup Help URL</t>
+  </si>
+  <si>
+    <t>c0013</t>
   </si>
 </sst>
 </file>
@@ -3785,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,7 +3905,7 @@
       <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="22" t="s">
         <v>417</v>
       </c>
     </row>
@@ -3916,7 +3919,7 @@
       <c r="C3" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="21" t="s">
         <v>313</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3998,7 +4001,7 @@
       <c r="O4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4006,13 +4009,13 @@
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="21" t="s">
         <v>382</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="21" t="s">
         <v>386</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -4033,6 +4036,7 @@
       <c r="J5" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="K5" s="21"/>
       <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
@@ -4054,25 +4058,25 @@
         <v>177</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
+      <c r="H6" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>38</v>
@@ -4080,7 +4084,6 @@
       <c r="J6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
         <v>50</v>
       </c>
@@ -4093,8 +4096,11 @@
       <c r="O6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>202</v>
+      <c r="P6" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4102,19 +4108,19 @@
         <v>178</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>251</v>
+        <v>275</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>198</v>
@@ -4141,34 +4147,35 @@
       <c r="O7" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="19" t="s">
         <v>202</v>
       </c>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>199</v>
+        <v>276</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>38</v>
@@ -4198,28 +4205,28 @@
         <v>255</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -4237,8 +4244,8 @@
       <c r="O9" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>203</v>
+      <c r="P9" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -4246,25 +4253,25 @@
         <v>312</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>274</v>
@@ -4294,25 +4301,25 @@
         <v>387</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>442</v>
+        <v>225</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>425</v>
+        <v>112</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>274</v>
@@ -4320,6 +4327,7 @@
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
         <v>50</v>
       </c>
@@ -4332,7 +4340,7 @@
       <c r="O11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4341,46 +4349,46 @@
         <v>389</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>223</v>
+        <v>424</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>441</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>115</v>
+        <v>274</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4391,22 +4399,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>113</v>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>38</v>
@@ -4414,6 +4422,7 @@
       <c r="J13" s="8" t="s">
         <v>115</v>
       </c>
+      <c r="K13" s="21"/>
       <c r="L13" s="2" t="s">
         <v>119</v>
       </c>
@@ -4426,60 +4435,60 @@
       <c r="O13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>253</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>425</v>
+        <v>113</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="J14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="21"/>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="22"/>
-    </row>
+        <v>116</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="P16" s="22"/>
@@ -4513,22 +4522,21 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="P4" r:id="rId1"/>
-    <hyperlink ref="P13" r:id="rId2"/>
-    <hyperlink ref="P12" r:id="rId3"/>
-    <hyperlink ref="P9" r:id="rId4"/>
-    <hyperlink ref="P10" r:id="rId5"/>
-    <hyperlink ref="P8" r:id="rId6"/>
-    <hyperlink ref="P3" r:id="rId7"/>
-    <hyperlink ref="P5" r:id="rId8"/>
-    <hyperlink ref="P2" r:id="rId9"/>
-    <hyperlink ref="P7" r:id="rId10"/>
-    <hyperlink ref="P11" r:id="rId11"/>
-    <hyperlink ref="P6" r:id="rId12"/>
-    <hyperlink ref="P14" r:id="rId13"/>
-    <hyperlink ref="Q14" r:id="rId14"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="P5" r:id="rId3"/>
+    <hyperlink ref="P2" r:id="rId4"/>
+    <hyperlink ref="P14" r:id="rId5"/>
+    <hyperlink ref="P13" r:id="rId6"/>
+    <hyperlink ref="P10" r:id="rId7"/>
+    <hyperlink ref="P11" r:id="rId8"/>
+    <hyperlink ref="P9" r:id="rId9"/>
+    <hyperlink ref="P8" r:id="rId10"/>
+    <hyperlink ref="P12" r:id="rId11"/>
+    <hyperlink ref="P7" r:id="rId12"/>
+    <hyperlink ref="Q6" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -3788,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,25 +4058,25 @@
         <v>177</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>425</v>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>38</v>
@@ -4084,6 +4084,7 @@
       <c r="J6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
         <v>50</v>
       </c>
@@ -4096,37 +4097,35 @@
       <c r="O6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P6" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>462</v>
-      </c>
+      <c r="P6" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
+      <c r="H7" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>38</v>
@@ -4134,7 +4133,6 @@
       <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
         <v>50</v>
       </c>
@@ -4147,10 +4145,12 @@
       <c r="O7" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P7" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4196,9 +4196,10 @@
       <c r="O8" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="19" t="s">
         <v>202</v>
       </c>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4351,13 +4352,13 @@
       <c r="B12" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -4366,7 +4367,7 @@
       <c r="G12" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="21" t="s">
         <v>425</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -4375,6 +4376,7 @@
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="2" t="s">
         <v>50</v>
       </c>
@@ -4387,7 +4389,7 @@
       <c r="O12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="22" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4532,8 +4534,8 @@
     <hyperlink ref="P9" r:id="rId9"/>
     <hyperlink ref="P8" r:id="rId10"/>
     <hyperlink ref="P12" r:id="rId11"/>
-    <hyperlink ref="P7" r:id="rId12"/>
-    <hyperlink ref="Q6" r:id="rId13"/>
+    <hyperlink ref="P6" r:id="rId12"/>
+    <hyperlink ref="Q7" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId14"/>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="465">
   <si>
     <t>ID</t>
   </si>
@@ -3788,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,7 +3806,7 @@
     <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
     <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,6 @@
       <c r="P6" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4199,7 +4198,6 @@
       <c r="P8" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4488,9 +4486,15 @@
       <c r="P14" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="P16" s="22"/>
@@ -4536,9 +4540,12 @@
     <hyperlink ref="P12" r:id="rId11"/>
     <hyperlink ref="P6" r:id="rId12"/>
     <hyperlink ref="Q7" r:id="rId13"/>
+    <hyperlink ref="P7" r:id="rId14"/>
+    <hyperlink ref="Q15" r:id="rId15"/>
+    <hyperlink ref="P15" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="468">
   <si>
     <t>ID</t>
   </si>
@@ -1776,6 +1776,15 @@
   </si>
   <si>
     <t>c0013</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 2,2 мкФ 10 В ±10 %</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R6BB225</t>
+  </si>
+  <si>
+    <t>c0014</t>
   </si>
 </sst>
 </file>
@@ -3788,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,7 +3806,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="16" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
@@ -3872,7 +3881,7 @@
       <c r="C2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>388</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4300,33 +4309,33 @@
         <v>387</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>113</v>
+      <c r="H11" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="2" t="s">
         <v>50</v>
       </c>
@@ -4339,8 +4348,11 @@
       <c r="O11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>203</v>
+      <c r="P11" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -4399,44 +4411,44 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>223</v>
+        <v>207</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="21"/>
+        <v>274</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>114</v>
+        <v>196</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4447,22 +4459,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>113</v>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>38</v>
@@ -4488,11 +4500,50 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>462</v>
+      <c r="A15" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4525,24 +4576,27 @@
       <c r="B24" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A7:Q13">
+    <sortCondition ref="F7:F13"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="P4" r:id="rId1"/>
     <hyperlink ref="P3" r:id="rId2"/>
     <hyperlink ref="P5" r:id="rId3"/>
     <hyperlink ref="P2" r:id="rId4"/>
-    <hyperlink ref="P14" r:id="rId5"/>
-    <hyperlink ref="P13" r:id="rId6"/>
+    <hyperlink ref="P15" r:id="rId5"/>
+    <hyperlink ref="P14" r:id="rId6"/>
     <hyperlink ref="P10" r:id="rId7"/>
-    <hyperlink ref="P11" r:id="rId8"/>
+    <hyperlink ref="P13" r:id="rId8"/>
     <hyperlink ref="P9" r:id="rId9"/>
     <hyperlink ref="P8" r:id="rId10"/>
     <hyperlink ref="P12" r:id="rId11"/>
     <hyperlink ref="P6" r:id="rId12"/>
     <hyperlink ref="Q7" r:id="rId13"/>
     <hyperlink ref="P7" r:id="rId14"/>
-    <hyperlink ref="Q15" r:id="rId15"/>
-    <hyperlink ref="P15" r:id="rId16"/>
+    <hyperlink ref="Q11" r:id="rId15"/>
+    <hyperlink ref="P11" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="471">
   <si>
     <t>ID</t>
   </si>
@@ -1785,6 +1785,15 @@
   </si>
   <si>
     <t>c0014</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 4,7 мкФ 10 В ±10 %</t>
+  </si>
+  <si>
+    <t>CC0603KRX5R6BB475</t>
+  </si>
+  <si>
+    <t>c0015</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1975,6 +1984,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3798,7 +3810,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,6 +4153,7 @@
       <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="K7" s="21"/>
       <c r="L7" s="2" t="s">
         <v>50</v>
       </c>
@@ -4413,7 +4426,7 @@
       <c r="C13" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="24" t="s">
         <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -4456,47 +4469,50 @@
         <v>464</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>223</v>
+        <v>424</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>24</v>
+      <c r="H14" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>115</v>
+        <v>274</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>114</v>
+        <v>461</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4507,22 +4523,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>113</v>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>38</v>
@@ -4547,8 +4563,51 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="P16" s="22"/>
+      <c r="A16" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -4576,8 +4635,8 @@
       <c r="B24" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A7:Q13">
-    <sortCondition ref="F7:F13"/>
+  <sortState ref="A7:Q14">
+    <sortCondition ref="F7:F14"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -4585,8 +4644,8 @@
     <hyperlink ref="P3" r:id="rId2"/>
     <hyperlink ref="P5" r:id="rId3"/>
     <hyperlink ref="P2" r:id="rId4"/>
-    <hyperlink ref="P15" r:id="rId5"/>
-    <hyperlink ref="P14" r:id="rId6"/>
+    <hyperlink ref="P16" r:id="rId5"/>
+    <hyperlink ref="P15" r:id="rId6"/>
     <hyperlink ref="P10" r:id="rId7"/>
     <hyperlink ref="P13" r:id="rId8"/>
     <hyperlink ref="P9" r:id="rId9"/>
@@ -4597,9 +4656,11 @@
     <hyperlink ref="P7" r:id="rId14"/>
     <hyperlink ref="Q11" r:id="rId15"/>
     <hyperlink ref="P11" r:id="rId16"/>
+    <hyperlink ref="P14" r:id="rId17"/>
+    <hyperlink ref="Q14" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chern_000\Documents\Altium\Library\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E85E50D-CC23-4A96-AA02-77CDC47DD904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="469">
   <si>
     <t>ID</t>
   </si>
@@ -1766,15 +1767,6 @@
     <t>CC0603JRX7R6BB224</t>
   </si>
   <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>Backup Help URL</t>
-  </si>
-  <si>
     <t>c0013</t>
   </si>
   <si>
@@ -1794,18 +1786,37 @@
   </si>
   <si>
     <t>c0015</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-GPHC_X7R_6.3V-to-50V_20.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1916,9 +1927,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1929,34 +1940,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1966,26 +1977,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2268,7 +2282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -3100,22 +3114,22 @@
       <c r="B30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1"/>
-    <hyperlink ref="Q4" r:id="rId2"/>
-    <hyperlink ref="Q12" r:id="rId3"/>
-    <hyperlink ref="Q10" r:id="rId4"/>
-    <hyperlink ref="Q9" r:id="rId5"/>
-    <hyperlink ref="Q5" r:id="rId6"/>
-    <hyperlink ref="Q7" r:id="rId7"/>
-    <hyperlink ref="Q13" r:id="rId8"/>
-    <hyperlink ref="Q8" r:id="rId9"/>
-    <hyperlink ref="Q6" r:id="rId10"/>
-    <hyperlink ref="Q11" r:id="rId11"/>
-    <hyperlink ref="Q2" r:id="rId12"/>
-    <hyperlink ref="Q15" r:id="rId13"/>
-    <hyperlink ref="Q14" r:id="rId14"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -3123,12 +3137,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3557,18 +3569,18 @@
       <c r="L16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy"/>
-    <hyperlink ref="L5" r:id="rId5"/>
-    <hyperlink ref="L9" r:id="rId6"/>
-    <hyperlink ref="L8" r:id="rId7"/>
-    <hyperlink ref="L10" r:id="rId8"/>
-    <hyperlink ref="L7" r:id="rId9" location="product-documentation"/>
-    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="L5" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="L7" r:id="rId9" location="product-documentation" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
@@ -3576,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3792,13 +3804,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K4" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
@@ -3806,12 +3818,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3827,10 +3837,9 @@
     <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
     <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3879,11 +3888,8 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -3930,7 +3936,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -3978,7 +3984,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>178</v>
       </c>
@@ -4167,13 +4173,10 @@
         <v>196</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>252</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
@@ -4269,20 +4272,20 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -4291,16 +4294,16 @@
       <c r="G10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>24</v>
+      <c r="H10" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2" t="s">
         <v>50</v>
       </c>
@@ -4313,24 +4316,24 @@
       <c r="O10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="E11" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -4339,16 +4342,16 @@
       <c r="G11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>425</v>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
         <v>50</v>
       </c>
@@ -4361,14 +4364,11 @@
       <c r="O11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P11" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>389</v>
       </c>
@@ -4416,18 +4416,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>200</v>
+        <v>424</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>466</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -4438,8 +4438,8 @@
       <c r="G13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>113</v>
+      <c r="H13" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>274</v>
@@ -4447,7 +4447,7 @@
       <c r="J13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2" t="s">
         <v>50</v>
       </c>
@@ -4460,22 +4460,22 @@
       <c r="O13" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="22" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>469</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -4486,8 +4486,8 @@
       <c r="G14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>425</v>
+      <c r="H14" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>274</v>
@@ -4495,7 +4495,7 @@
       <c r="J14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
         <v>50</v>
       </c>
@@ -4508,16 +4508,13 @@
       <c r="O14" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P14" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -4562,9 +4559,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -4635,37 +4632,34 @@
       <c r="B24" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A7:Q14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:P14">
     <sortCondition ref="F7:F14"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
-    <hyperlink ref="P5" r:id="rId3"/>
-    <hyperlink ref="P2" r:id="rId4"/>
-    <hyperlink ref="P16" r:id="rId5"/>
-    <hyperlink ref="P15" r:id="rId6"/>
-    <hyperlink ref="P10" r:id="rId7"/>
-    <hyperlink ref="P13" r:id="rId8"/>
-    <hyperlink ref="P9" r:id="rId9"/>
-    <hyperlink ref="P8" r:id="rId10"/>
-    <hyperlink ref="P12" r:id="rId11"/>
-    <hyperlink ref="P6" r:id="rId12"/>
-    <hyperlink ref="Q7" r:id="rId13"/>
-    <hyperlink ref="P7" r:id="rId14"/>
-    <hyperlink ref="Q11" r:id="rId15"/>
-    <hyperlink ref="P11" r:id="rId16"/>
-    <hyperlink ref="P14" r:id="rId17"/>
-    <hyperlink ref="Q14" r:id="rId18"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="P2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="P16" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="P15" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="P14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="P8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="P12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="P6" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="P10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="P13" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P7" r:id="rId15" display="Producer" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5086,14 +5080,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
-    <hyperlink ref="S6" r:id="rId5"/>
-    <hyperlink ref="S7" r:id="rId6"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
@@ -5101,7 +5095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5220,14 +5214,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5528,15 +5522,15 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L5" r:id="rId2"/>
-    <hyperlink ref="L3" r:id="rId3"/>
-    <hyperlink ref="L6" r:id="rId4"/>
-    <hyperlink ref="L4" r:id="rId5"/>
-    <hyperlink ref="L7" r:id="rId6"/>
-    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="L4" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
@@ -5544,7 +5538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5713,15 +5707,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5921,14 +5915,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6104,15 +6098,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="Q3" r:id="rId2"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6205,7 +6199,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium\projects\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E85E50D-CC23-4A96-AA02-77CDC47DD904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D19E2-A1EF-4DD9-8079-128233700FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="481">
   <si>
     <t>ID</t>
   </si>
@@ -1789,6 +1789,42 @@
   </si>
   <si>
     <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-GPHC_X7R_6.3V-to-50V_20.pdf</t>
+  </si>
+  <si>
+    <t>dd0011</t>
+  </si>
+  <si>
+    <t>Кочурин</t>
+  </si>
+  <si>
+    <t>CP2102-GM</t>
+  </si>
+  <si>
+    <t>QFN-28</t>
+  </si>
+  <si>
+    <t>sch\cp2102_gm.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\qfn_28.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.silabs.com/interface/usb-bridges/classic/device.cp2102</t>
+  </si>
+  <si>
+    <t>dd0012</t>
+  </si>
+  <si>
+    <t>Приемопередатчик RS-485</t>
+  </si>
+  <si>
+    <t>SN65HVD1781</t>
+  </si>
+  <si>
+    <t>sch\sn65hvd1781.SchLib</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/SN65HVD1781</t>
   </si>
 </sst>
 </file>
@@ -3140,7 +3176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3544,14 +3582,74 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="A12" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="A13" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14"/>
@@ -3581,9 +3679,11 @@
     <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
     <hyperlink ref="L7" r:id="rId9" location="product-documentation" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
     <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{382D6423-D7D8-42ED-BC86-72BCB78269A3}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{1A794CA3-4A3D-466C-9E10-0C9CA2625C88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -3591,7 +3691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3821,7 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5541,7 +5643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium\projects\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D19E2-A1EF-4DD9-8079-128233700FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1235DF-0196-4B3A-9E8D-70566D2E673E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="486">
   <si>
     <t>ID</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Производитель</t>
-  </si>
-  <si>
-    <t>Yageo</t>
   </si>
   <si>
     <t>Номинал</t>
@@ -979,9 +976,6 @@
   </si>
   <si>
     <t>DS1021-2*3SF11</t>
-  </si>
-  <si>
-    <t>Connfly Electronic Co. LTD</t>
   </si>
   <si>
     <t>l0002</t>
@@ -1323,9 +1317,6 @@
     <t>x0004</t>
   </si>
   <si>
-    <t>Micro USB Type B IP68 гнездо</t>
-  </si>
-  <si>
     <t>PLS 3x2 pin 2,54 мм вилка прямой</t>
   </si>
   <si>
@@ -1363,9 +1354,6 @@
   </si>
   <si>
     <t>x0005</t>
-  </si>
-  <si>
-    <t>USB Type B гнездо</t>
   </si>
   <si>
     <t>pcb\ds1099_wn0.PcbLib</t>
@@ -1680,9 +1668,6 @@
     <t>100 мОм</t>
   </si>
   <si>
-    <t>от –35 °С до +85 °С</t>
-  </si>
-  <si>
     <t>sch\switch_01.SchLib</t>
   </si>
   <si>
@@ -1818,13 +1803,43 @@
     <t>Приемопередатчик RS-485</t>
   </si>
   <si>
-    <t>SN65HVD1781</t>
-  </si>
-  <si>
-    <t>sch\sn65hvd1781.SchLib</t>
-  </si>
-  <si>
     <t>https://www.ti.com/product/SN65HVD1781</t>
+  </si>
+  <si>
+    <t>YAGEO Corp.</t>
+  </si>
+  <si>
+    <t>от -35 °С до +85 °С</t>
+  </si>
+  <si>
+    <t>SN65HVD1781D</t>
+  </si>
+  <si>
+    <t>sch\sn65hvd1781d.SchLib</t>
+  </si>
+  <si>
+    <t>Connfly Electronic Co. LTD.</t>
+  </si>
+  <si>
+    <t>x0006</t>
+  </si>
+  <si>
+    <t>292303-5</t>
+  </si>
+  <si>
+    <t>Micro USB 2.0 Type B IP68 гнездо</t>
+  </si>
+  <si>
+    <t>USB 2.0 Type B гнездо</t>
+  </si>
+  <si>
+    <t>USB 2.0 Type A гнездо</t>
+  </si>
+  <si>
+    <t>https://www.te.com/usa-en/product-292303-5.html</t>
+  </si>
+  <si>
+    <t>pcb\292303_5.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2356,19 +2371,19 @@
         <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -2397,49 +2412,49 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2450,650 +2465,650 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F3" s="14">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F5" s="14">
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F6" s="14">
         <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F7" s="14">
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F8" s="14">
         <v>120</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F9" s="14">
         <v>220</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F10" s="14">
         <v>330</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3174,11 +3189,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3232,455 +3245,457 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>465</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>46</v>
+        <v>467</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>306</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>323</v>
+      <c r="H5" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="K8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>382</v>
+        <v>291</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>403</v>
+        <v>297</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>405</v>
+        <v>298</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L10" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>477</v>
+        <v>441</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>235</v>
+        <v>450</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
+        <v>453</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="L6" r:id="rId4" location="product-samplebuy" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="L5" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="L9" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="L7" r:id="rId9" location="product-documentation" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="L12" r:id="rId11" xr:uid="{382D6423-D7D8-42ED-BC86-72BCB78269A3}"/>
-    <hyperlink ref="L13" r:id="rId12" xr:uid="{1A794CA3-4A3D-466C-9E10-0C9CA2625C88}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="L7" r:id="rId4" location="product-samplebuy" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="L10" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="L12" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="L8" r:id="rId9" location="product-documentation" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="L13" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
+    <hyperlink ref="L3" r:id="rId11" xr:uid="{382D6423-D7D8-42ED-BC86-72BCB78269A3}"/>
+    <hyperlink ref="L11" r:id="rId12" xr:uid="{1A794CA3-4A3D-466C-9E10-0C9CA2625C88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
@@ -3689,11 +3704,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3747,175 +3760,208 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>334</v>
+        <v>481</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>210</v>
+      <c r="A3" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I4" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E5" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="I6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="K7" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
     <hyperlink ref="K2" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{C691F2C5-1387-45FD-BF81-01CB6866C99A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3958,16 +4004,16 @@
         <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -3993,719 +4039,719 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>386</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>19</v>
+        <v>455</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>253</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>19</v>
+        <v>458</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>19</v>
+        <v>422</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="P15" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -4800,25 +4846,25 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -4844,341 +4890,341 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="S3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="S4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5234,16 +5280,16 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -5269,49 +5315,49 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="L2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5380,247 +5426,247 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5643,9 +5689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5679,16 +5723,16 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -5714,96 +5758,96 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -5856,7 +5900,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -5882,40 +5926,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6063,19 +6107,19 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -6101,103 +6145,103 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6267,38 +6311,38 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1235DF-0196-4B3A-9E8D-70566D2E673E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF6D4C-BFD1-4A48-917E-7F1F5B1BC81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="Переключатели" sheetId="13" r:id="rId8"/>
     <sheet name="ПЗУ" sheetId="14" r:id="rId9"/>
     <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId10"/>
-    <sheet name="Разъемы" sheetId="9" r:id="rId11"/>
+    <sheet name="Преобразователи напряжения" sheetId="15" r:id="rId11"/>
+    <sheet name="Разъемы" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="493">
   <si>
     <t>ID</t>
   </si>
@@ -1168,12 +1169,6 @@
     <t>Преобразователь USB-I2C/UART</t>
   </si>
   <si>
-    <t>QFN-16</t>
-  </si>
-  <si>
-    <t>pcb\qfn_16.PcbLib</t>
-  </si>
-  <si>
     <t>https://www.microchip.com/wwwproducts/en/MCP2221A</t>
   </si>
   <si>
@@ -1840,6 +1835,33 @@
   </si>
   <si>
     <t>pcb\292303_5.PcbLib</t>
+  </si>
+  <si>
+    <t>dcdc0001</t>
+  </si>
+  <si>
+    <t>Повышающий преобразователь напряжения 5В/12В</t>
+  </si>
+  <si>
+    <t>TPS61378QWRTERQ1</t>
+  </si>
+  <si>
+    <t>QFN-16 (3 x 3)</t>
+  </si>
+  <si>
+    <t>sch\tps61378qwrterq1.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\qfn_16_3x3.PcbLib</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/TPS61378-Q1</t>
+  </si>
+  <si>
+    <t>QFN-16 (4 x 4)</t>
+  </si>
+  <si>
+    <t>pcb\qfn_16_4x4.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -2336,25 +2358,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2407,21 +2429,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2457,7 +2479,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2471,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F3" s="14">
         <v>1</v>
@@ -2508,7 +2530,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>178</v>
       </c>
@@ -2522,7 +2544,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -2559,7 +2581,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>181</v>
       </c>
@@ -2570,10 +2592,10 @@
         <v>190</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F5" s="14">
         <v>22</v>
@@ -2609,7 +2631,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -2617,13 +2639,13 @@
         <v>283</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F6" s="14">
         <v>33</v>
@@ -2656,10 +2678,10 @@
         <v>13</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -2673,7 +2695,7 @@
         <v>244</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F7" s="14">
         <v>100</v>
@@ -2709,7 +2731,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>245</v>
       </c>
@@ -2717,13 +2739,13 @@
         <v>226</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F8" s="14">
         <v>120</v>
@@ -2759,7 +2781,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>248</v>
       </c>
@@ -2773,7 +2795,7 @@
         <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F9" s="14">
         <v>220</v>
@@ -2809,9 +2831,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -2823,7 +2845,7 @@
         <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F10" s="14">
         <v>330</v>
@@ -2859,24 +2881,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
@@ -2909,9 +2931,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -2923,7 +2945,7 @@
         <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>185</v>
@@ -2959,9 +2981,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>226</v>
@@ -2973,7 +2995,7 @@
         <v>247</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>249</v>
@@ -3009,24 +3031,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
@@ -3057,39 +3079,39 @@
         <v>13</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>180</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>14</v>
@@ -3108,59 +3130,59 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
     </row>
@@ -3191,21 +3213,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -3254,7 +3278,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>40</v>
@@ -3263,10 +3287,10 @@
         <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>47</v>
@@ -3278,43 +3302,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>225</v>
       </c>
@@ -3322,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -3334,7 +3358,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>39</v>
@@ -3349,7 +3373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>231</v>
       </c>
@@ -3360,7 +3384,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>227</v>
@@ -3369,10 +3393,10 @@
         <v>228</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>229</v>
@@ -3384,7 +3408,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>282</v>
       </c>
@@ -3395,31 +3419,31 @@
         <v>292</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>290</v>
       </c>
@@ -3430,7 +3454,7 @@
         <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>233</v>
@@ -3439,10 +3463,10 @@
         <v>234</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>235</v>
@@ -3454,45 +3478,45 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>283</v>
@@ -3522,69 +3546,69 @@
         <v>287</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>234</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>235</v>
@@ -3593,90 +3617,90 @@
         <v>234</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -3703,27 +3727,130 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="20" customWidth="1"/>
+    <col min="4" max="5" width="22.21875" style="20" customWidth="1"/>
+    <col min="6" max="7" width="17.77734375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="20" customWidth="1"/>
+    <col min="9" max="10" width="22.21875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="53.33203125" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{74BFEE3D-B703-4D66-ADB6-37536D3554B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
@@ -3766,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>210</v>
@@ -3790,7 +3917,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>209</v>
       </c>
@@ -3798,7 +3925,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>212</v>
@@ -3822,7 +3949,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>256</v>
       </c>
@@ -3830,45 +3957,45 @@
         <v>6</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>211</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>257</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>268</v>
@@ -3886,68 +4013,68 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3971,23 +4098,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="110.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4037,24 +4164,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
@@ -4081,10 +4208,10 @@
         <v>34</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
@@ -4092,16 +4219,16 @@
         <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>197</v>
@@ -4113,7 +4240,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
@@ -4123,16 +4250,16 @@
         <v>126</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>147</v>
       </c>
@@ -4180,24 +4307,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>111</v>
@@ -4228,7 +4355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>176</v>
       </c>
@@ -4242,7 +4369,7 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>222</v>
@@ -4276,21 +4403,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>252</v>
@@ -4299,7 +4426,7 @@
         <v>197</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -4321,10 +4448,10 @@
         <v>195</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>251</v>
       </c>
@@ -4338,7 +4465,7 @@
         <v>250</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>252</v>
@@ -4372,7 +4499,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>254</v>
       </c>
@@ -4386,7 +4513,7 @@
         <v>198</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>223</v>
@@ -4420,21 +4547,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>255</v>
@@ -4443,7 +4570,7 @@
         <v>111</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -4465,12 +4592,12 @@
         <v>195</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>226</v>
@@ -4482,7 +4609,7 @@
         <v>253</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>255</v>
@@ -4516,30 +4643,30 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>422</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>272</v>
@@ -4564,21 +4691,21 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>224</v>
@@ -4587,7 +4714,7 @@
         <v>111</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>272</v>
@@ -4612,9 +4739,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -4626,7 +4753,7 @@
         <v>199</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>224</v>
@@ -4660,9 +4787,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -4707,9 +4834,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -4754,29 +4881,29 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
@@ -4812,24 +4939,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4888,7 +5015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -4944,7 +5071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -5000,7 +5127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -5056,7 +5183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -5112,7 +5239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -5168,7 +5295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -5248,22 +5375,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5286,7 +5413,7 @@
         <v>154</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
@@ -5313,7 +5440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -5374,19 +5501,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5424,7 +5551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -5459,7 +5586,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -5494,7 +5621,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -5529,7 +5656,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -5564,7 +5691,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
@@ -5599,9 +5726,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>291</v>
@@ -5610,33 +5737,33 @@
         <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>291</v>
@@ -5645,19 +5772,19 @@
         <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>125</v>
@@ -5666,7 +5793,7 @@
         <v>124</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5691,22 +5818,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5756,7 +5883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>162</v>
       </c>
@@ -5803,7 +5930,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>258</v>
       </c>
@@ -5850,7 +5977,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -5868,22 +5995,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5924,7 +6051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
@@ -5944,7 +6071,7 @@
         <v>263</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>280</v>
@@ -5953,16 +6080,16 @@
         <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -5971,7 +6098,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -5980,7 +6107,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -5989,73 +6116,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -6075,22 +6202,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="17" width="80.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="80.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6107,19 +6234,19 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -6143,105 +6270,105 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6259,19 +6386,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="70.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6309,40 +6436,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF6D4C-BFD1-4A48-917E-7F1F5B1BC81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB90557-1951-44CB-83B0-0CBD24A524D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="494">
   <si>
     <t>ID</t>
   </si>
@@ -1837,9 +1837,6 @@
     <t>pcb\292303_5.PcbLib</t>
   </si>
   <si>
-    <t>dcdc0001</t>
-  </si>
-  <si>
     <t>Повышающий преобразователь напряжения 5В/12В</t>
   </si>
   <si>
@@ -1862,6 +1859,12 @@
   </si>
   <si>
     <t>pcb\qfn_16_4x4.PcbLib</t>
+  </si>
+  <si>
+    <t>QFN-16-4X4</t>
+  </si>
+  <si>
+    <t>QFN-16-3X3</t>
   </si>
 </sst>
 </file>
@@ -2358,25 +2361,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>178</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>181</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>245</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>248</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>306</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>313</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>373</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>379</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>388</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>392</v>
       </c>
@@ -3133,56 +3136,56 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
     </row>
@@ -3213,23 +3216,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>120</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>225</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>231</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>282</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>227</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>319</v>
@@ -3434,16 +3435,16 @@
         <v>303</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>290</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>294</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>386</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>438</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>447</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>462</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>469</v>
       </c>
@@ -3690,17 +3691,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -3730,25 +3731,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="20" customWidth="1"/>
-    <col min="4" max="5" width="22.21875" style="20" customWidth="1"/>
-    <col min="6" max="7" width="17.77734375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="20" customWidth="1"/>
-    <col min="9" max="10" width="22.21875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="53.33203125" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="10.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="20" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="20" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="20" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3786,39 +3784,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>484</v>
+        <v>119</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>485</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>486</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>295</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>489</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -3835,22 +3833,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3885,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
@@ -3917,7 +3915,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>209</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>256</v>
       </c>
@@ -3981,7 +3979,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>329</v>
       </c>
@@ -4013,7 +4011,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>342</v>
       </c>
@@ -4045,7 +4043,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>477</v>
       </c>
@@ -4098,23 +4096,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -4211,7 +4209,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
@@ -4259,7 +4257,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>147</v>
       </c>
@@ -4307,7 +4305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>175</v>
       </c>
@@ -4355,7 +4353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>176</v>
       </c>
@@ -4403,7 +4401,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>177</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>251</v>
       </c>
@@ -4499,7 +4497,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>254</v>
       </c>
@@ -4547,7 +4545,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>308</v>
       </c>
@@ -4595,7 +4593,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>381</v>
       </c>
@@ -4643,7 +4641,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>383</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
@@ -4739,7 +4737,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>454</v>
       </c>
@@ -4787,7 +4785,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>457</v>
       </c>
@@ -4834,7 +4832,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>460</v>
       </c>
@@ -4881,29 +4879,29 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
@@ -4939,24 +4937,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -5071,7 +5069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -5183,7 +5181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,7 +5237,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -5295,7 +5293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -5375,22 +5373,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -5501,19 +5499,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5551,7 +5549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -5586,7 +5584,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -5621,7 +5619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -5656,7 +5654,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -5691,7 +5689,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
@@ -5726,7 +5724,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>344</v>
       </c>
@@ -5761,7 +5759,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>433</v>
       </c>
@@ -5818,22 +5816,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5883,7 +5881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>162</v>
       </c>
@@ -5930,7 +5928,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>258</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -5995,22 +5993,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6051,7 +6049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
@@ -6089,7 +6087,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -6098,7 +6096,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -6107,7 +6105,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -6116,73 +6114,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -6202,22 +6200,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="17" width="80.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="80.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>350</v>
       </c>
@@ -6321,7 +6319,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>421</v>
       </c>
@@ -6386,19 +6384,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="70.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6436,7 +6434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>400</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB90557-1951-44CB-83B0-0CBD24A524D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C80EE7-C3AE-44C8-968A-FBB010091FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="542">
   <si>
     <t>ID</t>
   </si>
@@ -1866,12 +1866,198 @@
   <si>
     <t>QFN-16-3X3</t>
   </si>
+  <si>
+    <t>Жернаков</t>
+  </si>
+  <si>
+    <t>Понижающий преобразователь напряжения 48В/5В</t>
+  </si>
+  <si>
+    <t>TPS54360B</t>
+  </si>
+  <si>
+    <t>SO-8 (4.9x3.9)</t>
+  </si>
+  <si>
+    <t>sch\tps54360b.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\soic_8_4.9x3.9.PcbLib</t>
+  </si>
+  <si>
+    <t>SOIC-8-4.9x3.9</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/TPS54360B#product-details##params</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 523 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-07523KL</t>
+  </si>
+  <si>
+    <t>523 к</t>
+  </si>
+  <si>
+    <t>от -55 °С до +155 °С</t>
+  </si>
+  <si>
+    <t>r0015</t>
+  </si>
+  <si>
+    <t>RC0603FR-0784R5L</t>
+  </si>
+  <si>
+    <t>r0016</t>
+  </si>
+  <si>
+    <t>84,5</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 84,5 Ом ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-07162KL</t>
+  </si>
+  <si>
+    <t>r0017</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 162 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>162 к</t>
+  </si>
+  <si>
+    <t>RC0603FR-0713KL</t>
+  </si>
+  <si>
+    <t>r0018</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 13 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>13 к</t>
+  </si>
+  <si>
+    <t>RC0603BR-0753K6L</t>
+  </si>
+  <si>
+    <t>r0019</t>
+  </si>
+  <si>
+    <t>53,6 к</t>
+  </si>
+  <si>
+    <t>±0,1 %</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 53,6 кОм ±0,1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710K2L</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 10,2 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>r0020</t>
+  </si>
+  <si>
+    <t>10,2 к</t>
+  </si>
+  <si>
+    <t>47 мк</t>
+  </si>
+  <si>
+    <t>c0016</t>
+  </si>
+  <si>
+    <t>CC0603MRX5R5BB476</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 47 мкФ 25 В ±20 %</t>
+  </si>
+  <si>
+    <t>39 п</t>
+  </si>
+  <si>
+    <t>CL05C390JB5NNNC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0402 39 пФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 %</t>
+    </r>
+  </si>
+  <si>
+    <t>c0017</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL05C390JB5NNN.do</t>
+  </si>
+  <si>
+    <t>6,8 н</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0402 6,8 нФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 %</t>
+    </r>
+  </si>
+  <si>
+    <t>c0018</t>
+  </si>
+  <si>
+    <t>CL05B682JB5NNNC</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL05B682JB5NNN.do</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1983,6 +2169,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2005,7 +2199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2077,6 +2271,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2359,9 +2556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2684,24 +2883,24 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>494</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>244</v>
+        <v>510</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F7" s="14">
-        <v>100</v>
+      <c r="F7" s="14" t="s">
+        <v>509</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>21</v>
@@ -2730,7 +2929,7 @@
       <c r="P7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="19" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2742,16 +2941,16 @@
         <v>226</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F8" s="14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>21</v>
@@ -2789,19 +2988,19 @@
         <v>248</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F9" s="14">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
@@ -2842,16 +3041,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F10" s="14">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -2892,16 +3091,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>372</v>
+        <v>192</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>375</v>
+      <c r="F11" s="14">
+        <v>330</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
@@ -2942,16 +3141,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>179</v>
+        <v>374</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>185</v>
+        <v>375</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
@@ -2989,19 +3188,19 @@
         <v>379</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>21</v>
@@ -3039,19 +3238,19 @@
         <v>388</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>376</v>
+        <v>226</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>394</v>
+        <v>276</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>406</v>
+      <c r="F14" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
@@ -3068,7 +3267,6 @@
       <c r="K14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
         <v>50</v>
       </c>
@@ -3081,45 +3279,44 @@
       <c r="P14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>376</v>
+        <v>494</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>390</v>
+        <v>525</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>527</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>180</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>413</v>
+        <v>26</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
         <v>50</v>
       </c>
@@ -3132,80 +3329,386 @@
       <c r="P15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="Q5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Q7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Q11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Q15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Q14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -3729,9 +4232,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3817,6 +4322,42 @@
       </c>
       <c r="L2" s="22" t="s">
         <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4092,9 +4633,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4209,38 +4752,38 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>283</v>
+      <c r="B3" s="21" t="s">
+        <v>494</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>309</v>
+        <v>534</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>533</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>310</v>
+      <c r="F3" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>197</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="K3" s="21"/>
       <c r="L3" s="2" t="s">
         <v>49</v>
       </c>
@@ -4248,13 +4791,13 @@
         <v>126</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>326</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>311</v>
+        <v>34</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4262,31 +4805,31 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>328</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
@@ -4296,36 +4839,36 @@
         <v>126</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>28</v>
+        <v>325</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>376</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>380</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>415</v>
+      <c r="F5" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
@@ -4336,7 +4879,7 @@
       <c r="J5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
         <v>49</v>
       </c>
@@ -4349,28 +4892,28 @@
       <c r="O5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+      <c r="B6" s="21" t="s">
+        <v>494</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>200</v>
+        <v>538</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>540</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>472</v>
+        <v>32</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>222</v>
+        <v>537</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>197</v>
@@ -4382,7 +4925,7 @@
         <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
@@ -4392,45 +4935,45 @@
         <v>126</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>201</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>452</v>
+      <c r="B7" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>453</v>
+        <v>380</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>252</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>419</v>
+        <v>111</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="2" t="s">
@@ -4440,13 +4983,13 @@
         <v>126</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>461</v>
+        <v>34</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4454,19 +4997,19 @@
         <v>251</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>250</v>
+        <v>273</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>197</v>
@@ -4502,25 +5045,25 @@
         <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>198</v>
+        <v>418</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>453</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>112</v>
+        <v>197</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -4528,7 +5071,7 @@
       <c r="J9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2" t="s">
         <v>49</v>
       </c>
@@ -4541,34 +5084,34 @@
       <c r="O9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P9" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>456</v>
+        <v>226</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>419</v>
+        <v>197</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>37</v>
@@ -4576,7 +5119,7 @@
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
         <v>49</v>
       </c>
@@ -4589,8 +5132,8 @@
       <c r="O10" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P10" s="23" t="s">
-        <v>461</v>
+      <c r="P10" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4598,28 +5141,28 @@
         <v>381</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>253</v>
+        <v>205</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
@@ -4637,11 +5180,11 @@
       <c r="O11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>383</v>
       </c>
@@ -4649,25 +5192,25 @@
         <v>418</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>435</v>
+        <v>255</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>419</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -4685,34 +5228,34 @@
       <c r="O12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P12" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>459</v>
+        <v>226</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>419</v>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>272</v>
@@ -4720,7 +5263,7 @@
       <c r="J13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
         <v>49</v>
       </c>
@@ -4733,7 +5276,7 @@
       <c r="O13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4742,25 +5285,25 @@
         <v>454</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>199</v>
+        <v>418</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>420</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>224</v>
+        <v>435</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>112</v>
+        <v>434</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>272</v>
@@ -4768,7 +5311,7 @@
       <c r="J14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2" t="s">
         <v>49</v>
       </c>
@@ -4781,55 +5324,56 @@
       <c r="O14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>222</v>
+        <v>418</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
+      <c r="H15" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>114</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="21"/>
       <c r="L15" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4840,91 +5384,234 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>223</v>
+        <v>206</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P18" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="P17" s="20"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:P14">
-    <sortCondition ref="F7:F14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P16">
+    <sortCondition ref="F9:F16"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="P5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="P4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="P2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P16" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="P15" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="P14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="P8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="P12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="P6" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="P10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="P13" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="P7" r:id="rId15" display="Producer" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="P19" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="P18" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P13" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="P16" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="P10" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="P14" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="P8" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="P12" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="P15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P9" r:id="rId15" display="Producer" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId16"/>
@@ -5371,7 +6058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C80EE7-C3AE-44C8-968A-FBB010091FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BC455-1BC8-4AC0-B19E-95769A9C90EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="550">
   <si>
     <t>ID</t>
   </si>
@@ -1837,9 +1837,6 @@
     <t>pcb\292303_5.PcbLib</t>
   </si>
   <si>
-    <t>Повышающий преобразователь напряжения 5В/12В</t>
-  </si>
-  <si>
     <t>TPS61378QWRTERQ1</t>
   </si>
   <si>
@@ -1868,9 +1865,6 @@
   </si>
   <si>
     <t>Жернаков</t>
-  </si>
-  <si>
-    <t>Понижающий преобразователь напряжения 48В/5В</t>
   </si>
   <si>
     <t>TPS54360B</t>
@@ -2051,6 +2045,36 @@
   </si>
   <si>
     <t>http://product.samsungsem.com/mlcc/CL05B682JB5NNN.do</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 20 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-0720KL</t>
+  </si>
+  <si>
+    <t>20 к</t>
+  </si>
+  <si>
+    <t>r0021</t>
+  </si>
+  <si>
+    <t>r0022</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 280 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-07280KL</t>
+  </si>
+  <si>
+    <t>280 к</t>
+  </si>
+  <si>
+    <t>Повышающий преобразователь напряжения 5 В/12 В</t>
+  </si>
+  <si>
+    <t>Понижающий преобразователь напряжения 48 В/5 В</t>
   </si>
 </sst>
 </file>
@@ -2559,26 +2583,26 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2705,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>178</v>
       </c>
@@ -2783,7 +2807,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>181</v>
       </c>
@@ -2833,7 +2857,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>183</v>
       </c>
@@ -2883,24 +2907,24 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>21</v>
@@ -2933,7 +2957,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>245</v>
       </c>
@@ -2983,7 +3007,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>248</v>
       </c>
@@ -3033,7 +3057,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>306</v>
       </c>
@@ -3083,7 +3107,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>313</v>
       </c>
@@ -3133,7 +3157,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>373</v>
       </c>
@@ -3183,7 +3207,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>379</v>
       </c>
@@ -3233,7 +3257,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>388</v>
       </c>
@@ -3283,24 +3307,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -3333,9 +3357,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>376</v>
@@ -3384,24 +3408,24 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -3435,27 +3459,27 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>494</v>
+        <v>291</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>522</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>188</v>
@@ -3486,27 +3510,27 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>520</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>188</v>
@@ -3537,24 +3561,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -3563,7 +3587,7 @@
         <v>188</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>505</v>
+        <v>180</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>26</v>
@@ -3588,41 +3612,41 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>408</v>
+        <v>545</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>390</v>
+        <v>547</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>180</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>413</v>
+        <v>26</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="2" t="s">
         <v>50</v>
       </c>
@@ -3635,60 +3659,161 @@
       <c r="P21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
     </row>
@@ -3707,7 +3832,7 @@
     <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="Q12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Q21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="Q16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3721,19 +3846,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +3896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -3806,7 +3931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>120</v>
       </c>
@@ -3842,7 +3967,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>225</v>
       </c>
@@ -3877,7 +4002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>231</v>
       </c>
@@ -3912,7 +4037,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>282</v>
       </c>
@@ -3929,7 +4054,7 @@
         <v>227</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>319</v>
@@ -3938,16 +4063,16 @@
         <v>303</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>290</v>
       </c>
@@ -3982,7 +4107,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>294</v>
       </c>
@@ -4018,7 +4143,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>386</v>
       </c>
@@ -4053,7 +4178,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>438</v>
       </c>
@@ -4088,7 +4213,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>447</v>
       </c>
@@ -4124,7 +4249,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>462</v>
       </c>
@@ -4159,7 +4284,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>469</v>
       </c>
@@ -4194,17 +4319,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -4234,24 +4359,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="20" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="20" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="60.7109375" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="20"/>
+    <col min="1" max="1" width="10.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="20" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="20" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="60.6640625" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4289,7 +4414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>119</v>
       </c>
@@ -4297,67 +4422,67 @@
         <v>291</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>485</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>295</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>494</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>496</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>295</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="J3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>499</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4374,22 +4499,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
@@ -4456,7 +4581,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>209</v>
       </c>
@@ -4488,7 +4613,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>256</v>
       </c>
@@ -4520,7 +4645,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>329</v>
       </c>
@@ -4552,7 +4677,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>342</v>
       </c>
@@ -4584,7 +4709,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>477</v>
       </c>
@@ -4639,23 +4764,23 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="110.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4705,7 +4830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -4752,24 +4877,24 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>197</v>
@@ -4797,10 +4922,10 @@
         <v>34</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>147</v>
       </c>
@@ -4848,7 +4973,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>175</v>
       </c>
@@ -4896,24 +5021,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>538</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>540</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>197</v>
@@ -4941,10 +5066,10 @@
         <v>34</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>177</v>
       </c>
@@ -4992,7 +5117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>251</v>
       </c>
@@ -5040,7 +5165,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>254</v>
       </c>
@@ -5088,7 +5213,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>308</v>
       </c>
@@ -5136,7 +5261,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>381</v>
       </c>
@@ -5184,7 +5309,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>383</v>
       </c>
@@ -5232,7 +5357,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
@@ -5280,7 +5405,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>454</v>
       </c>
@@ -5328,7 +5453,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>457</v>
       </c>
@@ -5376,7 +5501,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>460</v>
       </c>
@@ -5424,24 +5549,24 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>434</v>
@@ -5472,9 +5597,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -5519,9 +5644,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -5566,29 +5691,29 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="P20" s="20"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
   </sheetData>
@@ -5624,24 +5749,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="18" width="25.7109375" customWidth="1"/>
-    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5700,7 +5825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -5756,7 +5881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -5812,7 +5937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -5868,7 +5993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,7 +6049,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -5980,7 +6105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -6058,24 +6183,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6125,7 +6250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -6186,19 +6311,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="110.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6236,7 +6361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -6271,7 +6396,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -6306,7 +6431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -6341,7 +6466,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -6376,7 +6501,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
@@ -6411,7 +6536,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>344</v>
       </c>
@@ -6446,7 +6571,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>433</v>
       </c>
@@ -6503,22 +6628,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6568,7 +6693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>162</v>
       </c>
@@ -6615,7 +6740,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>258</v>
       </c>
@@ -6662,7 +6787,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -6680,22 +6805,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6736,7 +6861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
@@ -6774,7 +6899,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -6783,7 +6908,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -6792,7 +6917,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -6801,73 +6926,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -6887,22 +7012,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="14" width="25.7109375" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="17" width="80.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="80.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6955,7 +7080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>350</v>
       </c>
@@ -7006,7 +7131,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>421</v>
       </c>
@@ -7071,19 +7196,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="70.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7121,7 +7246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>400</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BC455-1BC8-4AC0-B19E-95769A9C90EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AB3CD-5769-4D04-8B49-4D247CA2F841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -1837,6 +1837,9 @@
     <t>pcb\292303_5.PcbLib</t>
   </si>
   <si>
+    <t>Повышающий преобразователь напряжения 5В/12В</t>
+  </si>
+  <si>
     <t>TPS61378QWRTERQ1</t>
   </si>
   <si>
@@ -1867,19 +1870,7 @@
     <t>Жернаков</t>
   </si>
   <si>
-    <t>TPS54360B</t>
-  </si>
-  <si>
-    <t>SO-8 (4.9x3.9)</t>
-  </si>
-  <si>
-    <t>sch\tps54360b.SchLib</t>
-  </si>
-  <si>
-    <t>pcb\soic_8_4.9x3.9.PcbLib</t>
-  </si>
-  <si>
-    <t>SOIC-8-4.9x3.9</t>
+    <t>Понижающий преобразователь напряжения 48В/5В</t>
   </si>
   <si>
     <t>https://www.ti.com/product/TPS54360B#product-details##params</t>
@@ -1970,9 +1961,6 @@
   </si>
   <si>
     <t>CC0603MRX5R5BB476</t>
-  </si>
-  <si>
-    <t>Конденсатор чип 0603 47 мкФ 25 В ±20 %</t>
   </si>
   <si>
     <t>39 п</t>
@@ -2011,11 +1999,20 @@
     <t>http://product.samsungsem.com/mlcc/CL05C390JB5NNN.do</t>
   </si>
   <si>
-    <t>6,8 н</t>
+    <t>c0018</t>
+  </si>
+  <si>
+    <t>CL05B682JB5NNNC</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL05B682JB5NNN.do</t>
+  </si>
+  <si>
+    <t>6800 пФ</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Конденсатор чип 0402 6,8 нФ 50 В </t>
+      <t xml:space="preserve">Конденсатор чип 0402 6800 пФ 50 В </t>
     </r>
     <r>
       <rPr>
@@ -2038,13 +2035,22 @@
     </r>
   </si>
   <si>
-    <t>c0018</t>
-  </si>
-  <si>
-    <t>CL05B682JB5NNNC</t>
-  </si>
-  <si>
-    <t>http://product.samsungsem.com/mlcc/CL05B682JB5NNN.do</t>
+    <t>6,3 В</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 47 мкФ 6,3 В ±20 %</t>
+  </si>
+  <si>
+    <t>TPS54360BDDA</t>
+  </si>
+  <si>
+    <t>sch\tps54360bdda.SchLib</t>
+  </si>
+  <si>
+    <t>HSOIC-8</t>
+  </si>
+  <si>
+    <t>pcb\hsoic_8.PcbLib</t>
   </si>
   <si>
     <t>Резистор чип 0603 20 кОм ±1 % 0,1 Вт</t>
@@ -2056,32 +2062,26 @@
     <t>20 к</t>
   </si>
   <si>
+    <t>Резистор чип 0603 280 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-07280KL</t>
+  </si>
+  <si>
+    <t>280 к</t>
+  </si>
+  <si>
     <t>r0021</t>
   </si>
   <si>
     <t>r0022</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 280 кОм ±1 % 0,1 Вт</t>
-  </si>
-  <si>
-    <t>RC0603FR-07280KL</t>
-  </si>
-  <si>
-    <t>280 к</t>
-  </si>
-  <si>
-    <t>Повышающий преобразователь напряжения 5 В/12 В</t>
-  </si>
-  <si>
-    <t>Понижающий преобразователь напряжения 48 В/5 В</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2193,14 +2193,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2223,7 +2215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2296,8 +2288,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2580,29 +2609,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="17" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" customWidth="1"/>
+    <col min="17" max="17" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2705,8 +2732,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2756,8 +2783,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2807,8 +2834,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2857,8 +2884,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2907,24 +2934,24 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>21</v>
@@ -2957,8 +2984,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3007,8 +3034,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>248</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3057,8 +3084,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>306</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3107,8 +3134,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>313</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3157,8 +3184,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>373</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3207,8 +3234,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>379</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3257,8 +3284,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>388</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3307,24 +3334,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>392</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -3357,9 +3384,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>504</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>501</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>376</v>
@@ -3408,24 +3435,24 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>506</v>
+    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>503</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -3459,78 +3486,78 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="2" t="s">
+      <c r="L18" s="28"/>
+      <c r="M18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="22" t="s">
+      <c r="Q18" s="31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>188</v>
@@ -3561,24 +3588,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>518</v>
+    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>515</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -3612,75 +3639,75 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="39" t="s">
         <v>547</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="34"/>
+      <c r="M21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="Q21" s="37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>543</v>
+    <row r="22" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>548</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -3689,7 +3716,7 @@
         <v>188</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>26</v>
@@ -3714,9 +3741,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>544</v>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>549</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>376</v>
@@ -3765,57 +3792,58 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3837,6 +3865,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <ignoredErrors>
+    <ignoredError sqref="F7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3846,19 +3877,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3896,7 +3927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -3931,7 +3962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>120</v>
       </c>
@@ -3967,7 +3998,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>225</v>
       </c>
@@ -4002,7 +4033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>231</v>
       </c>
@@ -4037,7 +4068,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>282</v>
       </c>
@@ -4054,7 +4085,7 @@
         <v>227</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>319</v>
@@ -4063,16 +4094,16 @@
         <v>303</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>290</v>
       </c>
@@ -4107,7 +4138,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>294</v>
       </c>
@@ -4143,7 +4174,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>386</v>
       </c>
@@ -4178,7 +4209,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>438</v>
       </c>
@@ -4213,7 +4244,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>447</v>
       </c>
@@ -4249,7 +4280,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>462</v>
       </c>
@@ -4284,7 +4315,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>469</v>
       </c>
@@ -4319,17 +4350,17 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -4359,24 +4390,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="20" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="20" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="60.6640625" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="10.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="20" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="20" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="20" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4414,7 +4443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>119</v>
       </c>
@@ -4422,72 +4451,73 @@
         <v>291</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>295</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>484</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>549</v>
+        <v>495</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>295</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>496</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{74BFEE3D-B703-4D66-ADB6-37536D3554B1}"/>
+    <hyperlink ref="L3" r:id="rId2" location="product-details##params" xr:uid="{D653A733-C5D3-4D36-BB24-55657BFA6CB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4499,22 +4529,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4549,7 +4579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
@@ -4581,7 +4611,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>209</v>
       </c>
@@ -4613,7 +4643,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>256</v>
       </c>
@@ -4645,7 +4675,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>329</v>
       </c>
@@ -4677,7 +4707,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>342</v>
       </c>
@@ -4709,7 +4739,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>477</v>
       </c>
@@ -4760,27 +4790,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="110.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +4831,7 @@
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -4830,7 +4859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -4852,7 +4881,7 @@
       <c r="G2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -4877,29 +4906,29 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -4922,10 +4951,10 @@
         <v>34</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>147</v>
       </c>
@@ -4947,7 +4976,7 @@
       <c r="G4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="14" t="s">
         <v>112</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -4973,7 +5002,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>175</v>
       </c>
@@ -4995,7 +5024,7 @@
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -5021,29 +5050,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -5066,10 +5095,10 @@
         <v>34</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>177</v>
       </c>
@@ -5091,7 +5120,7 @@
       <c r="G7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -5117,7 +5146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>251</v>
       </c>
@@ -5139,7 +5168,7 @@
       <c r="G8" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -5165,7 +5194,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>254</v>
       </c>
@@ -5187,7 +5216,7 @@
       <c r="G9" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="16" t="s">
         <v>419</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -5213,7 +5242,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>308</v>
       </c>
@@ -5235,7 +5264,7 @@
       <c r="G10" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -5261,7 +5290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>381</v>
       </c>
@@ -5283,7 +5312,7 @@
       <c r="G11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="14" t="s">
         <v>112</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -5309,7 +5338,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>383</v>
       </c>
@@ -5331,7 +5360,7 @@
       <c r="G12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="16" t="s">
         <v>419</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -5357,7 +5386,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
@@ -5379,7 +5408,7 @@
       <c r="G13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -5405,7 +5434,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>454</v>
       </c>
@@ -5427,7 +5456,7 @@
       <c r="G14" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="16" t="s">
         <v>419</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -5453,7 +5482,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>457</v>
       </c>
@@ -5475,7 +5504,7 @@
       <c r="G15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="16" t="s">
         <v>419</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -5501,7 +5530,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>460</v>
       </c>
@@ -5523,7 +5552,7 @@
       <c r="G16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="14" t="s">
         <v>112</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -5549,30 +5578,30 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>112</v>
+      <c r="H17" s="14" t="s">
+        <v>536</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>272</v>
@@ -5597,9 +5626,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -5619,7 +5648,7 @@
       <c r="G18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -5644,9 +5673,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -5666,7 +5695,7 @@
       <c r="G19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="16" t="s">
         <v>112</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -5691,29 +5720,29 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="P20" s="20"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
   </sheetData>
@@ -5737,9 +5766,10 @@
     <hyperlink ref="P12" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="P15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="P9" r:id="rId15" display="Producer" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="P17" r:id="rId16" xr:uid="{94D8FF62-7078-4059-B57A-F4E9DC62ED20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -5749,24 +5779,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" customWidth="1"/>
-    <col min="11" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="25.6640625" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5825,7 +5855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -5881,7 +5911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -5937,7 +5967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -5993,7 +6023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -6049,7 +6079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -6105,7 +6135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -6185,22 +6215,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6250,7 +6280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -6311,19 +6341,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="110.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6361,7 +6391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -6396,7 +6426,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -6431,7 +6461,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -6466,7 +6496,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -6501,7 +6531,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>237</v>
       </c>
@@ -6536,7 +6566,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>344</v>
       </c>
@@ -6571,7 +6601,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>433</v>
       </c>
@@ -6628,22 +6658,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +6723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>162</v>
       </c>
@@ -6740,7 +6770,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>258</v>
       </c>
@@ -6787,7 +6817,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
   </sheetData>
@@ -6805,22 +6835,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="90.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="90.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6861,7 +6891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
@@ -6899,7 +6929,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="5"/>
@@ -6908,7 +6938,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="5"/>
@@ -6917,7 +6947,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="5"/>
@@ -6926,73 +6956,73 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -7012,22 +7042,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="17" width="80.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="80.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7080,7 +7110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>350</v>
       </c>
@@ -7131,7 +7161,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>421</v>
       </c>
@@ -7196,19 +7226,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="70.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>400</v>
       </c>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AB3CD-5769-4D04-8B49-4D247CA2F841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8449239-055D-4B6A-AF1D-2A020FD0678A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="573">
   <si>
     <t>ID</t>
   </si>
@@ -1837,9 +1837,6 @@
     <t>pcb\292303_5.PcbLib</t>
   </si>
   <si>
-    <t>Повышающий преобразователь напряжения 5В/12В</t>
-  </si>
-  <si>
     <t>TPS61378QWRTERQ1</t>
   </si>
   <si>
@@ -1868,9 +1865,6 @@
   </si>
   <si>
     <t>Жернаков</t>
-  </si>
-  <si>
-    <t>Понижающий преобразователь напряжения 48В/5В</t>
   </si>
   <si>
     <t>https://www.ti.com/product/TPS54360B#product-details##params</t>
@@ -2075,6 +2069,123 @@
   </si>
   <si>
     <t>r0022</t>
+  </si>
+  <si>
+    <t>Повышающий преобразователь напряжения 18,5 В и 4,8 А</t>
+  </si>
+  <si>
+    <t>Понижающий преобразователь напряжения 65 В и 2 А</t>
+  </si>
+  <si>
+    <t>Понижающий преобразователь напряжения 60 В и 3,5 А</t>
+  </si>
+  <si>
+    <t>LM5160QPWPRQ1</t>
+  </si>
+  <si>
+    <t>HTSSOP-14</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/LM5160-Q1</t>
+  </si>
+  <si>
+    <t>pcb\htssop_14.PcbLib</t>
+  </si>
+  <si>
+    <t>sch\lm5160qpwprq1.SchLib</t>
+  </si>
+  <si>
+    <t>Входное напряжение</t>
+  </si>
+  <si>
+    <t>Выходное напряжение</t>
+  </si>
+  <si>
+    <t>Коммутируемый ток</t>
+  </si>
+  <si>
+    <t>Частота переключения</t>
+  </si>
+  <si>
+    <t>от 2,3 В до 14 В</t>
+  </si>
+  <si>
+    <t>от 4 В до 18,5 В</t>
+  </si>
+  <si>
+    <t>от 1 А до 4,8 А</t>
+  </si>
+  <si>
+    <t>от 4,5 В до 60 В</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от -40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>С до +150 °С</t>
+    </r>
+  </si>
+  <si>
+    <t>от 200 кГц до 2,2 МГц</t>
+  </si>
+  <si>
+    <t>от 100 кГц до 2,5 МГц</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от -40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>С до +125 °С</t>
+    </r>
+  </si>
+  <si>
+    <t>от 0 А до 3,5 А</t>
+  </si>
+  <si>
+    <t>от 4,5 В до 65 В</t>
+  </si>
+  <si>
+    <t>до 2 А</t>
+  </si>
+  <si>
+    <t>до 1 МГц</t>
+  </si>
+  <si>
+    <t>от 1 В до 58,8 В</t>
   </si>
 </sst>
 </file>
@@ -2939,19 +3050,19 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>21</v>
@@ -3339,19 +3450,19 @@
         <v>392</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -3386,7 +3497,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>376</v>
@@ -3437,22 +3548,22 @@
     </row>
     <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -3488,22 +3599,22 @@
     </row>
     <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>291</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>472</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>21</v>
@@ -3539,25 +3650,25 @@
     </row>
     <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>188</v>
@@ -3590,22 +3701,22 @@
     </row>
     <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -3641,22 +3752,22 @@
     </row>
     <row r="21" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>291</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>472</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -3692,22 +3803,22 @@
     </row>
     <row r="22" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -3716,7 +3827,7 @@
         <v>188</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>26</v>
@@ -3743,7 +3854,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>376</v>
@@ -4085,7 +4196,7 @@
         <v>227</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>319</v>
@@ -4094,10 +4205,10 @@
         <v>303</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>293</v>
@@ -4388,28 +4499,29 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="20" customWidth="1"/>
     <col min="4" max="5" width="25.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="20" customWidth="1"/>
-    <col min="9" max="11" width="25.7109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="60.7109375" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="20"/>
+    <col min="6" max="10" width="25.7109375" style="27" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" style="20" customWidth="1"/>
+    <col min="14" max="16" width="25.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="60.7109375" style="20" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4421,103 +4533,200 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="35" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>485</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="N2" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>494</v>
+      <c r="B3" s="35" t="s">
+        <v>493</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="P3" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>496</v>
+      <c r="Q3" s="22" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{74BFEE3D-B703-4D66-ADB6-37536D3554B1}"/>
-    <hyperlink ref="L3" r:id="rId2" location="product-details##params" xr:uid="{D653A733-C5D3-4D36-BB24-55657BFA6CB5}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{74BFEE3D-B703-4D66-ADB6-37536D3554B1}"/>
+    <hyperlink ref="Q3" r:id="rId2" location="product-details##params" xr:uid="{D653A733-C5D3-4D36-BB24-55657BFA6CB5}"/>
+    <hyperlink ref="Q4" r:id="rId3" xr:uid="{65F7343B-D0A5-4623-8CC9-22C50EC42399}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4911,19 +5120,19 @@
         <v>108</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>197</v>
@@ -4951,7 +5160,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5055,19 +5264,19 @@
         <v>176</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>197</v>
@@ -5095,7 +5304,7 @@
         <v>34</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -5580,28 +5789,28 @@
     </row>
     <row r="17" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>434</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>272</v>
@@ -5628,7 +5837,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -5675,7 +5884,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebo\OneDrive\Рабочий стол\Учеба в Поликеке\Схемотехника\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8449239-055D-4B6A-AF1D-2A020FD0678A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E467CFC-FB28-4640-81FD-570E8E4BE261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="677" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="585">
   <si>
     <t>ID</t>
   </si>
@@ -2186,6 +2186,42 @@
   </si>
   <si>
     <t>от 1 В до 58,8 В</t>
+  </si>
+  <si>
+    <t>Водорезов</t>
+  </si>
+  <si>
+    <t>Понижающий преобразователь напряжения 60 В и 5 А</t>
+  </si>
+  <si>
+    <t>LM76005RNPR</t>
+  </si>
+  <si>
+    <t>от 3,5 В до 60 В</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> от 1в до 0.95Vin</t>
+  </si>
+  <si>
+    <t>до 5А</t>
+  </si>
+  <si>
+    <t>от 200 кГц до 500 КГц</t>
+  </si>
+  <si>
+    <t>WQFN-30</t>
+  </si>
+  <si>
+    <t>sch\lm76005rnpr.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\wqfn_30.PcbLib</t>
+  </si>
+  <si>
+    <t>WQFN30</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/product/LM76005</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4499,9 +4535,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4512,7 +4550,8 @@
     <col min="6" max="10" width="25.7109375" style="27" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" style="20" customWidth="1"/>
     <col min="13" max="13" width="30.7109375" style="20" customWidth="1"/>
-    <col min="14" max="16" width="25.7109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="34" customWidth="1"/>
+    <col min="15" max="16" width="25.7109375" style="20" customWidth="1"/>
     <col min="17" max="17" width="60.7109375" style="20" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="20"/>
   </cols>
@@ -4557,7 +4596,7 @@
       <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="35" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -4607,7 +4646,7 @@
       <c r="M2" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="34" t="s">
         <v>484</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -4658,7 +4697,7 @@
       <c r="M3" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="34" t="s">
         <v>536</v>
       </c>
       <c r="O3" s="21" t="s">
@@ -4719,6 +4758,56 @@
       </c>
       <c r="Q4" s="37" t="s">
         <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebo\OneDrive\Рабочий стол\Учеба в Поликеке\Схемотехника\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E467CFC-FB28-4640-81FD-570E8E4BE261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DDDA0B-3A12-403F-B789-4BC5FBAD3811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="677" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="677" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,33 @@
     <sheet name="Диоды" sheetId="6" r:id="rId4"/>
     <sheet name="Диодные сборки" sheetId="5" r:id="rId5"/>
     <sheet name="Ферритовая бусина" sheetId="11" r:id="rId6"/>
-    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId7"/>
-    <sheet name="Переключатели" sheetId="13" r:id="rId8"/>
-    <sheet name="ПЗУ" sheetId="14" r:id="rId9"/>
-    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId10"/>
-    <sheet name="Преобразователи напряжения" sheetId="15" r:id="rId11"/>
-    <sheet name="Разъемы" sheetId="9" r:id="rId12"/>
+    <sheet name="Индуктивности" sheetId="16" r:id="rId7"/>
+    <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId8"/>
+    <sheet name="Переключатели" sheetId="13" r:id="rId9"/>
+    <sheet name="ПЗУ" sheetId="14" r:id="rId10"/>
+    <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId11"/>
+    <sheet name="Преобразователи напряжения" sheetId="15" r:id="rId12"/>
+    <sheet name="Разъемы" sheetId="9" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="634">
   <si>
     <t>ID</t>
   </si>
@@ -2223,12 +2232,283 @@
   <si>
     <t>https://www.ti.com/product/LM76005</t>
   </si>
+  <si>
+    <t>ll0001</t>
+  </si>
+  <si>
+    <t>Индуктивность 33мкГн</t>
+  </si>
+  <si>
+    <t>XAL1510-333ME</t>
+  </si>
+  <si>
+    <t>Coilcraft Inc.</t>
+  </si>
+  <si>
+    <t>DCR typ, mOhms^3</t>
+  </si>
+  <si>
+    <t>DCR max,  mOhms^3</t>
+  </si>
+  <si>
+    <t>SRF typ, MHz</t>
+  </si>
+  <si>
+    <t>Isat, A</t>
+  </si>
+  <si>
+    <t>от -40 °С до +125 °С</t>
+  </si>
+  <si>
+    <t>INDP162152X110N</t>
+  </si>
+  <si>
+    <t>IND-COMMON</t>
+  </si>
+  <si>
+    <t>https://www.coilcraft.com/en-us/products/power/shielded-inductors/molded-inductor/xal/xal1510</t>
+  </si>
+  <si>
+    <t>16*15*11 cube</t>
+  </si>
+  <si>
+    <t>sch\inductor_common.SchLib</t>
+  </si>
+  <si>
+    <t>pcb\indp162152x110n.PcbLib</t>
+  </si>
+  <si>
+    <t>r0023</t>
+  </si>
+  <si>
+    <t>r0024</t>
+  </si>
+  <si>
+    <t>100 к</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 100 кОм ±1 % 0,2 Вт</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 97.6 кОм ±1 % 0,2 Вт</t>
+  </si>
+  <si>
+    <t>97,6 к</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0797K6L</t>
+  </si>
+  <si>
+    <t>c0019</t>
+  </si>
+  <si>
+    <t>CL31B475KAHVPNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>pcb\c1206.PcbLib</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 1206 4,7 мкФ 100 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL31B475KAHVPN.do</t>
+  </si>
+  <si>
+    <t>c0020</t>
+  </si>
+  <si>
+    <t>CL31B474KCHWPNE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 1206 0,47 мкФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>0,47 мк</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL31B474KCHWPN.do</t>
+  </si>
+  <si>
+    <t>c0021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0603 0,47 мкФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>CL10B474KO8VPNC</t>
+  </si>
+  <si>
+    <t>16 В</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL10B474KO8VPN.do</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип  150 мкФ 10 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  полярный</t>
+    </r>
+  </si>
+  <si>
+    <t>150 мк</t>
+  </si>
+  <si>
+    <t>EEE-FK1A151AL</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>CAPAE7866X61M</t>
+  </si>
+  <si>
+    <t>pcb\capa66x66x58.PcbLib</t>
+  </si>
+  <si>
+    <t>CAPAE</t>
+  </si>
+  <si>
+    <t>custom size</t>
+  </si>
+  <si>
+    <t>https://ru.mouser.com/datasheet/2/315/panasonic_05052020_Capacitor_Lytic_SMD_Halogen_Fre-1843216.pdf</t>
+  </si>
+  <si>
+    <t>c0022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2340,6 +2620,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2362,7 +2660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2473,6 +2771,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2758,7 +3068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3884,7 +4196,7 @@
       <c r="P22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Q22" s="37" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3939,13 +4251,113 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26"/>
+      <c r="A26" s="35"/>
       <c r="B26"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27"/>
+      <c r="A27" s="35"/>
       <c r="B27"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -4009,9 +4421,12 @@
     <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="Q23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="Q16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q22" r:id="rId15" xr:uid="{1C3598F9-99D8-45C7-B429-5B56F09B190A}"/>
+    <hyperlink ref="Q24" r:id="rId16" xr:uid="{7AC6A087-9408-4438-B2D4-A199BF324DC7}"/>
+    <hyperlink ref="Q25" r:id="rId17" xr:uid="{AFCAE55D-45E7-43AC-B949-B8F8CF264AA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
   <ignoredErrors>
     <ignoredError sqref="F7" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4019,6 +4434,106 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -4533,11 +5048,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4821,7 +5336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -5088,7 +5603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6018,18 +6535,199 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="P20" s="20"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+    <row r="20" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="O20" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="O21" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>621</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>633</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>630</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
@@ -6065,9 +6763,10 @@
     <hyperlink ref="P15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="P9" r:id="rId15" display="Producer" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="P17" r:id="rId16" xr:uid="{94D8FF62-7078-4059-B57A-F4E9DC62ED20}"/>
+    <hyperlink ref="E23" r:id="rId17" display="https://ru.mouser.com/manufacturer/panasonicec/" xr:uid="{6A7547CC-C81F-4B26-B67F-B6BA1A3683E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -6954,7 +7653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7128,6 +7829,144 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFA818-8DA7-4B8D-9261-E7B1203F15A4}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="31" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="98.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" s="41">
+        <v>18.7</v>
+      </c>
+      <c r="G2" s="34">
+        <v>20</v>
+      </c>
+      <c r="H2" s="41">
+        <v>5.8</v>
+      </c>
+      <c r="I2" s="34">
+        <v>17.7</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -7334,7 +8173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -7516,104 +8355,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="70.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebo\OneDrive\Рабочий стол\Учеба в Поликеке\Схемотехника\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Altium_BEng\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DDDA0B-3A12-403F-B789-4BC5FBAD3811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31684450-201F-41FA-943E-D143430020DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="677" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
     <sheet name="Конденсаторы" sheetId="12" r:id="rId2"/>
-    <sheet name="Светодиоды" sheetId="4" r:id="rId3"/>
-    <sheet name="Диоды" sheetId="6" r:id="rId4"/>
-    <sheet name="Диодные сборки" sheetId="5" r:id="rId5"/>
-    <sheet name="Ферритовая бусина" sheetId="11" r:id="rId6"/>
-    <sheet name="Индуктивности" sheetId="16" r:id="rId7"/>
+    <sheet name="Индуктивности" sheetId="16" r:id="rId3"/>
+    <sheet name="Светодиоды" sheetId="4" r:id="rId4"/>
+    <sheet name="Диоды" sheetId="6" r:id="rId5"/>
+    <sheet name="Диодные сборки" sheetId="5" r:id="rId6"/>
+    <sheet name="Ферритовая бусина" sheetId="11" r:id="rId7"/>
     <sheet name="Кварцевые резонаторы" sheetId="10" r:id="rId8"/>
     <sheet name="Переключатели" sheetId="13" r:id="rId9"/>
     <sheet name="ПЗУ" sheetId="14" r:id="rId10"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="641">
   <si>
     <t>ID</t>
   </si>
@@ -1459,9 +1459,6 @@
     <t>DIP-SWITCH-02-706X930X545</t>
   </si>
   <si>
-    <t>3,2x1,3x0,7</t>
-  </si>
-  <si>
     <t>pcb\cstce_3_320x130x70.PcbLib</t>
   </si>
   <si>
@@ -2209,12 +2206,6 @@
     <t>от 3,5 В до 60 В</t>
   </si>
   <si>
-    <t xml:space="preserve"> от 1в до 0.95Vin</t>
-  </si>
-  <si>
-    <t>до 5А</t>
-  </si>
-  <si>
     <t>от 200 кГц до 500 КГц</t>
   </si>
   <si>
@@ -2227,57 +2218,21 @@
     <t>pcb\wqfn_30.PcbLib</t>
   </si>
   <si>
-    <t>WQFN30</t>
-  </si>
-  <si>
     <t>https://www.ti.com/product/LM76005</t>
   </si>
   <si>
-    <t>ll0001</t>
-  </si>
-  <si>
-    <t>Индуктивность 33мкГн</t>
-  </si>
-  <si>
-    <t>XAL1510-333ME</t>
-  </si>
-  <si>
     <t>Coilcraft Inc.</t>
   </si>
   <si>
-    <t>DCR typ, mOhms^3</t>
-  </si>
-  <si>
-    <t>DCR max,  mOhms^3</t>
-  </si>
-  <si>
-    <t>SRF typ, MHz</t>
-  </si>
-  <si>
-    <t>Isat, A</t>
-  </si>
-  <si>
     <t>от -40 °С до +125 °С</t>
   </si>
   <si>
-    <t>INDP162152X110N</t>
-  </si>
-  <si>
-    <t>IND-COMMON</t>
-  </si>
-  <si>
     <t>https://www.coilcraft.com/en-us/products/power/shielded-inductors/molded-inductor/xal/xal1510</t>
   </si>
   <si>
-    <t>16*15*11 cube</t>
-  </si>
-  <si>
     <t>sch\inductor_common.SchLib</t>
   </si>
   <si>
-    <t>pcb\indp162152x110n.PcbLib</t>
-  </si>
-  <si>
     <t>r0023</t>
   </si>
   <si>
@@ -2287,12 +2242,6 @@
     <t>100 к</t>
   </si>
   <si>
-    <t>Резистор чип 0603 100 кОм ±1 % 0,2 Вт</t>
-  </si>
-  <si>
-    <t>Резистор чип 0603 97.6 кОм ±1 % 0,2 Вт</t>
-  </si>
-  <si>
     <t>97,6 к</t>
   </si>
   <si>
@@ -2314,8 +2263,41 @@
     <t>pcb\c1206.PcbLib</t>
   </si>
   <si>
+    <t>http://product.samsungsem.com/mlcc/CL31B475KAHVPN.do</t>
+  </si>
+  <si>
+    <t>c0020</t>
+  </si>
+  <si>
+    <t>CL31B474KCHWPNE</t>
+  </si>
+  <si>
+    <t>0,47 мк</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL31B474KCHWPN.do</t>
+  </si>
+  <si>
+    <t>c0021</t>
+  </si>
+  <si>
+    <t>CL10B474KO8VPNC</t>
+  </si>
+  <si>
+    <t>16 В</t>
+  </si>
+  <si>
+    <t>http://product.samsungsem.com/mlcc/CL10B474KO8VPN.do</t>
+  </si>
+  <si>
+    <t>150 мк</t>
+  </si>
+  <si>
+    <t>c0022</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Конденсатор чип 1206 4,7 мкФ 100 В </t>
+      <t xml:space="preserve">Конденсатор чип 0603 0,47 мкФ 16 В </t>
     </r>
     <r>
       <rPr>
@@ -2348,17 +2330,8 @@
     </r>
   </si>
   <si>
-    <t>http://product.samsungsem.com/mlcc/CL31B475KAHVPN.do</t>
-  </si>
-  <si>
-    <t>c0020</t>
-  </si>
-  <si>
-    <t>CL31B474KCHWPNE</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Конденсатор чип 1206 0,47 мкФ 50 В </t>
+      <t xml:space="preserve">Конденсатор чип 1206 0,47 мкФ 100 В </t>
     </r>
     <r>
       <rPr>
@@ -2391,17 +2364,8 @@
     </r>
   </si>
   <si>
-    <t>0,47 мк</t>
-  </si>
-  <si>
-    <t>http://product.samsungsem.com/mlcc/CL31B474KCHWPN.do</t>
-  </si>
-  <si>
-    <t>c0021</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Конденсатор чип 0603 0,47 мкФ 50 В </t>
+      <t xml:space="preserve">Конденсатор чип 1206 4,7 мкФ 25 В </t>
     </r>
     <r>
       <rPr>
@@ -2434,17 +2398,38 @@
     </r>
   </si>
   <si>
-    <t>CL10B474KO8VPNC</t>
-  </si>
-  <si>
-    <t>16 В</t>
-  </si>
-  <si>
-    <t>http://product.samsungsem.com/mlcc/CL10B474KO8VPN.do</t>
+    <t>Panasonic Corporation</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/ww/products/capacitors/aluminum-capacitors/aluminum-cap-smd/models/EEEFK1A151AL</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Конденсатор чип  150 мкФ 10 В </t>
+      <t xml:space="preserve">от -55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>С до +105 °С</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор электролитический 150 мкФ 10 В </t>
     </r>
     <r>
       <rPr>
@@ -2462,8 +2447,19 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>10 %</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0 %</t>
     </r>
     <r>
       <rPr>
@@ -2473,42 +2469,99 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  полярный</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t>150 мк</t>
-  </si>
-  <si>
-    <t>EEE-FK1A151AL</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>CAPAE7866X61M</t>
-  </si>
-  <si>
-    <t>pcb\capa66x66x58.PcbLib</t>
-  </si>
-  <si>
-    <t>CAPAE</t>
-  </si>
-  <si>
-    <t>custom size</t>
-  </si>
-  <si>
-    <t>https://ru.mouser.com/datasheet/2/315/panasonic_05052020_Capacitor_Lytic_SMD_Halogen_Fre-1843216.pdf</t>
-  </si>
-  <si>
-    <t>c0022</t>
+    <t>EEEFK1A151AL</t>
+  </si>
+  <si>
+    <t>CAPAE (6,6 x 6,6 x 5,8)</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 100 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 97,6 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>XAL1510-333MEB</t>
+  </si>
+  <si>
+    <t>Номинальное активное сопротивление</t>
+  </si>
+  <si>
+    <t>Максимальное активное сопротивление</t>
+  </si>
+  <si>
+    <t>18,7 мОм</t>
+  </si>
+  <si>
+    <t>20 мОм</t>
+  </si>
+  <si>
+    <t>Частота резонанса</t>
+  </si>
+  <si>
+    <t>5,8 МГц</t>
+  </si>
+  <si>
+    <t>Ток насыщения</t>
+  </si>
+  <si>
+    <t>16,7 А</t>
+  </si>
+  <si>
+    <t>Номинальный ток (при нагреве на 20 °С)</t>
+  </si>
+  <si>
+    <t>8,6 А</t>
+  </si>
+  <si>
+    <t>Рабочее напряжение</t>
+  </si>
+  <si>
+    <t>от 0 В до 60 В</t>
+  </si>
+  <si>
+    <t>16,2 x 15,2 x 11</t>
+  </si>
+  <si>
+    <t>INDUCTOR-COMMON</t>
+  </si>
+  <si>
+    <t>XAL-2-162X152X110</t>
+  </si>
+  <si>
+    <t>pcb\xal_2_162x152x110.PcbLib</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> от 1 В до 57 В</t>
+  </si>
+  <si>
+    <t>от 0 А до 5А</t>
+  </si>
+  <si>
+    <t>3,2 x 1,3 x 0,7</t>
+  </si>
+  <si>
+    <t>33 мкГн</t>
+  </si>
+  <si>
+    <t>Индуктивность 33мкГн ±20 %</t>
+  </si>
+  <si>
+    <t>CAPAE-660X660X580</t>
+  </si>
+  <si>
+    <t>pcb\capae_660x660x580.PcbLib</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2622,18 +2675,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2660,7 +2701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2730,9 +2771,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2773,16 +2811,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3066,11 +3101,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3146,16 +3179,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -3192,7 +3225,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3205,7 +3238,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F3" s="14">
         <v>1</v>
@@ -3243,7 +3276,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3256,7 +3289,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -3294,7 +3327,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3307,7 +3340,7 @@
         <v>323</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F5" s="14">
         <v>22</v>
@@ -3344,7 +3377,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3357,7 +3390,7 @@
         <v>324</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F6" s="14">
         <v>33</v>
@@ -3394,23 +3427,23 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>21</v>
@@ -3444,7 +3477,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3457,7 +3490,7 @@
         <v>244</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F8" s="14">
         <v>100</v>
@@ -3494,7 +3527,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>248</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3507,7 +3540,7 @@
         <v>305</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F9" s="14">
         <v>120</v>
@@ -3544,7 +3577,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>306</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3557,7 +3590,7 @@
         <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F10" s="14">
         <v>220</v>
@@ -3594,7 +3627,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>313</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3607,7 +3640,7 @@
         <v>182</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F11" s="14">
         <v>330</v>
@@ -3644,23 +3677,23 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>373</v>
+      <c r="A12" s="34" t="s">
+        <v>372</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>374</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>375</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
@@ -3694,8 +3727,8 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>379</v>
+      <c r="A13" s="34" t="s">
+        <v>378</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -3707,7 +3740,7 @@
         <v>179</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>185</v>
@@ -3744,8 +3777,8 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>388</v>
+      <c r="A14" s="34" t="s">
+        <v>387</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>226</v>
@@ -3757,7 +3790,7 @@
         <v>247</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>249</v>
@@ -3794,23 +3827,23 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>392</v>
+      <c r="A15" s="34" t="s">
+        <v>391</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -3844,23 +3877,23 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>499</v>
+      <c r="A16" s="34" t="s">
+        <v>498</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -3891,27 +3924,27 @@
         <v>13</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>501</v>
+      <c r="A17" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>510</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>511</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -3946,77 +3979,77 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="E18" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29" t="s">
+      <c r="L18" s="27"/>
+      <c r="M18" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="29" t="s">
+      <c r="O18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="29" t="s">
+      <c r="P18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="31" t="s">
+      <c r="Q18" s="30" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>509</v>
+      <c r="A19" s="34" t="s">
+        <v>508</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>188</v>
@@ -4047,126 +4080,126 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>506</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>545</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>497</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -4175,7 +4208,7 @@
         <v>188</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>498</v>
+        <v>180</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>26</v>
@@ -4196,176 +4229,171 @@
       <c r="P22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>547</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    <row r="23" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>600</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>603</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>601</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>604</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>605</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27"/>
-    </row>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28"/>
+      <c r="A28" s="34"/>
       <c r="B28"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29"/>
+      <c r="A29" s="34"/>
       <c r="B29"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -4403,6 +4431,14 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -4419,11 +4455,11 @@
     <hyperlink ref="Q6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="Q12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Q23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="Q16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Q22" r:id="rId15" xr:uid="{1C3598F9-99D8-45C7-B429-5B56F09B190A}"/>
-    <hyperlink ref="Q24" r:id="rId16" xr:uid="{7AC6A087-9408-4438-B2D4-A199BF324DC7}"/>
-    <hyperlink ref="Q25" r:id="rId17" xr:uid="{AFCAE55D-45E7-43AC-B949-B8F8CF264AA8}"/>
+    <hyperlink ref="Q24" r:id="rId15" xr:uid="{1C3598F9-99D8-45C7-B429-5B56F09B190A}"/>
+    <hyperlink ref="Q21" r:id="rId16" xr:uid="{7AC6A087-9408-4438-B2D4-A199BF324DC7}"/>
+    <hyperlink ref="Q20" r:id="rId17" xr:uid="{AFCAE55D-45E7-43AC-B949-B8F8CF264AA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -4491,38 +4527,38 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4629,35 +4665,35 @@
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>467</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4747,7 +4783,7 @@
         <v>227</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>319</v>
@@ -4756,10 +4792,10 @@
         <v>303</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>293</v>
@@ -4805,40 +4841,40 @@
         <v>294</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>322</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>445</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>283</v>
@@ -4873,7 +4909,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>291</v>
@@ -4908,16 +4944,16 @@
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>295</v>
@@ -4927,10 +4963,10 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>235</v>
@@ -4939,77 +4975,77 @@
         <v>234</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>450</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5052,20 +5088,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A356E9-5F7E-4348-A5C8-0D6AB9A485C6}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="20" customWidth="1"/>
     <col min="4" max="5" width="25.7109375" style="20" customWidth="1"/>
-    <col min="6" max="10" width="25.7109375" style="27" customWidth="1"/>
+    <col min="6" max="10" width="25.7109375" style="26" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" style="20" customWidth="1"/>
     <col min="13" max="13" width="30.7109375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="34" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="33" customWidth="1"/>
     <col min="15" max="16" width="25.7109375" style="20" customWidth="1"/>
     <col min="17" max="17" width="60.7109375" style="20" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="20"/>
@@ -5075,7 +5109,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5087,19 +5121,19 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>557</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>559</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -5111,7 +5145,7 @@
       <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -5128,201 +5162,201 @@
       <c r="A2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>562</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>565</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>567</v>
+      <c r="I2" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>566</v>
       </c>
       <c r="K2" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="N2" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>487</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>493</v>
+      <c r="B3" s="34" t="s">
+        <v>492</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>563</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>568</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>566</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>564</v>
-      </c>
       <c r="K3" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="N3" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>538</v>
-      </c>
       <c r="Q3" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="K4" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="M4" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>570</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>567</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>551</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="F5" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="N5" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="O5" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="P5" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>567</v>
-      </c>
-      <c r="K5" s="34" t="s">
+      <c r="Q5" s="19" t="s">
         <v>580</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>581</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -5331,8 +5365,10 @@
     <hyperlink ref="Q2" r:id="rId1" xr:uid="{74BFEE3D-B703-4D66-ADB6-37536D3554B1}"/>
     <hyperlink ref="Q3" r:id="rId2" location="product-details##params" xr:uid="{D653A733-C5D3-4D36-BB24-55657BFA6CB5}"/>
     <hyperlink ref="Q4" r:id="rId3" xr:uid="{65F7343B-D0A5-4623-8CC9-22C50EC42399}"/>
+    <hyperlink ref="Q5" r:id="rId4" xr:uid="{53C516E1-3F02-4AB1-8EBE-9E3EA5FF94E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5400,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>210</v>
@@ -5464,10 +5500,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>211</v>
@@ -5479,13 +5515,13 @@
         <v>340</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5502,7 +5538,7 @@
         <v>257</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>268</v>
@@ -5534,7 +5570,7 @@
         <v>336</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>334</v>
@@ -5554,19 +5590,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>338</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>339</v>
@@ -5601,11 +5637,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5620,7 +5654,9 @@
     <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
     <col min="10" max="11" width="20.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="25.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="110.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5679,19 +5715,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>197</v>
@@ -5718,27 +5754,27 @@
         <v>34</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="34" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="26" t="s">
         <v>525</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>524</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>197</v>
@@ -5766,11 +5802,11 @@
         <v>34</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="34" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5818,7 +5854,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="34" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5866,23 +5902,23 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="34" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>530</v>
+        <v>532</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>529</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>197</v>
@@ -5910,27 +5946,27 @@
         <v>34</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="34" t="s">
         <v>177</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>111</v>
@@ -5961,174 +5997,174 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>197</v>
+      <c r="B8" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="34" t="s">
         <v>195</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="B9" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="2" t="s">
+      <c r="J9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="N9" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>197</v>
+      <c r="B10" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>608</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
+      <c r="J10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>195</v>
+      <c r="N10" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>593</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>201</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>381</v>
+      <c r="A11" s="34" t="s">
+        <v>380</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -6153,30 +6189,30 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>383</v>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>418</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>419</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>37</v>
@@ -6198,36 +6234,36 @@
         <v>195</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>417</v>
+      <c r="A13" s="34" t="s">
+        <v>416</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>253</v>
+        <v>274</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
@@ -6245,42 +6281,42 @@
       <c r="O13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>202</v>
+      <c r="P13" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>454</v>
+      <c r="A14" s="34" t="s">
+        <v>453</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>420</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>435</v>
+        <v>223</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>419</v>
+        <v>111</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
         <v>49</v>
       </c>
@@ -6293,37 +6329,37 @@
       <c r="O14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P14" s="22" t="s">
-        <v>202</v>
+      <c r="P14" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>457</v>
+      <c r="A15" s="34" t="s">
+        <v>456</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>14</v>
@@ -6341,34 +6377,34 @@
       <c r="O15" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P15" s="22" t="s">
-        <v>202</v>
+      <c r="P15" s="23" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>460</v>
+      <c r="A16" s="34" t="s">
+        <v>459</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>272</v>
@@ -6389,34 +6425,34 @@
       <c r="O16" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>522</v>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>521</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>523</v>
+        <v>417</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>521</v>
+        <v>434</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>534</v>
+        <v>433</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>272</v>
@@ -6424,7 +6460,7 @@
       <c r="J17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="2" t="s">
         <v>49</v>
       </c>
@@ -6437,313 +6473,314 @@
       <c r="O17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>527</v>
+    <row r="18" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>526</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>222</v>
+        <v>417</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>23</v>
+      <c r="H18" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>114</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="21"/>
       <c r="L18" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>529</v>
+      <c r="A19" s="34" t="s">
+        <v>528</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>223</v>
+        <v>206</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="14" t="s">
         <v>112</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>114</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>609</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>611</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>610</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>614</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>111</v>
-      </c>
       <c r="H21" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="I21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" s="35" t="s">
+      <c r="L21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>605</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>609</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I23" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="O21" s="35" t="s">
+      <c r="J23" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="P23" s="19" t="s">
         <v>610</v>
       </c>
-      <c r="P21" s="19" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>620</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="N22" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>633</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>624</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>626</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>630</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>631</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" s="35" t="s">
-        <v>629</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>628</v>
-      </c>
-      <c r="P23" s="19" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
+    </row>
+    <row r="24" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P16">
-    <sortCondition ref="F9:F16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:P19">
+    <sortCondition ref="F12:F19"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -6751,26 +6788,193 @@
     <hyperlink ref="P4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="P7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="P2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P19" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="P18" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P13" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="P16" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="P10" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="P14" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="P8" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="P12" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="P15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="P9" r:id="rId15" display="Producer" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="P17" r:id="rId16" xr:uid="{94D8FF62-7078-4059-B57A-F4E9DC62ED20}"/>
+    <hyperlink ref="P22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="P21" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P16" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="P19" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P14" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="P13" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="P17" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="P11" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="P15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="P18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P12" r:id="rId15" display="Producer" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="P20" r:id="rId16" xr:uid="{94D8FF62-7078-4059-B57A-F4E9DC62ED20}"/>
     <hyperlink ref="E23" r:id="rId17" display="https://ru.mouser.com/manufacturer/panasonicec/" xr:uid="{6A7547CC-C81F-4B26-B67F-B6BA1A3683E6}"/>
+    <hyperlink ref="P8" r:id="rId18" xr:uid="{544122AC-100F-4DC7-8DAA-C4E084FFDB07}"/>
+    <hyperlink ref="P9" r:id="rId19" xr:uid="{6E988C4F-70F2-4BA1-BFB7-F38DB9CB5723}"/>
+    <hyperlink ref="P10" r:id="rId20" xr:uid="{0F26BECB-1358-4B7B-92FD-E67796C17AA6}"/>
+    <hyperlink ref="P23" r:id="rId21" xr:uid="{A90E2BE3-F991-4750-8EFD-C7EF0D141A23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFA818-8DA7-4B8D-9261-E7B1203F15A4}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" style="26" customWidth="1"/>
+    <col min="8" max="9" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" style="26" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="26" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" customWidth="1"/>
+    <col min="21" max="21" width="100.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>625</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{A41BCB81-72B7-431F-8DB5-68D04D87B8E6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -7206,7 +7410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -7332,7 +7536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -7600,7 +7804,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>291</v>
@@ -7609,19 +7813,19 @@
         <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>295</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>125</v>
@@ -7649,13 +7853,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7825,144 +8027,6 @@
     <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FFA818-8DA7-4B8D-9261-E7B1203F15A4}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" customWidth="1"/>
-    <col min="17" max="17" width="98.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>589</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>590</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>592</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>586</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>588</v>
-      </c>
-      <c r="F2" s="41">
-        <v>18.7</v>
-      </c>
-      <c r="G2" s="34">
-        <v>20</v>
-      </c>
-      <c r="H2" s="41">
-        <v>5.8</v>
-      </c>
-      <c r="I2" s="34">
-        <v>17.7</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>593</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>597</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>598</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>599</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>596</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8048,7 +8112,7 @@
         <v>263</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>369</v>
+        <v>636</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>280</v>
@@ -8057,10 +8121,10 @@
         <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>278</v>
@@ -8300,52 +8364,52 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>362</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/library/Database_Students.xlsx
+++ b/library/Database_Students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Altium_BEng\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\Программирование микроконтроллеров для управления роботами 7 семестр 2020, 3331506.70401\Library\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31684450-201F-41FA-943E-D143430020DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8666B-23C9-4574-B731-4C18F8BD7ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,9 @@
     <sheet name="Переключатели" sheetId="13" r:id="rId9"/>
     <sheet name="ПЗУ" sheetId="14" r:id="rId10"/>
     <sheet name="Преобразователи интейфесов" sheetId="3" r:id="rId11"/>
-    <sheet name="Преобразователи напряжения" sheetId="15" r:id="rId12"/>
-    <sheet name="Разъемы" sheetId="9" r:id="rId13"/>
+    <sheet name="Защитные микросхемы" sheetId="18" r:id="rId12"/>
+    <sheet name="Преобразователи напряжения" sheetId="15" r:id="rId13"/>
+    <sheet name="Разъемы" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="752">
   <si>
     <t>ID</t>
   </si>
@@ -824,9 +825,6 @@
   </si>
   <si>
     <t>sch\sp0503bahtg.SchLib</t>
-  </si>
-  <si>
-    <t>sch\sd12c_01ftg.SchLib</t>
   </si>
   <si>
     <t>Конденсатор чип 0603 1 мкФ 25 В ±10 %</t>
@@ -2006,33 +2004,6 @@
   </si>
   <si>
     <t>http://product.samsungsem.com/mlcc/CL05B682JB5NNN.do</t>
-  </si>
-  <si>
-    <t>6800 пФ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Конденсатор чип 0402 6800 пФ 50 В </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 %</t>
-    </r>
   </si>
   <si>
     <t>6,3 В</t>
@@ -2512,9 +2483,6 @@
     <t>16,7 А</t>
   </si>
   <si>
-    <t>Номинальный ток (при нагреве на 20 °С)</t>
-  </si>
-  <si>
     <t>8,6 А</t>
   </si>
   <si>
@@ -2530,12 +2498,6 @@
     <t>INDUCTOR-COMMON</t>
   </si>
   <si>
-    <t>XAL-2-162X152X110</t>
-  </si>
-  <si>
-    <t>pcb\xal_2_162x152x110.PcbLib</t>
-  </si>
-  <si>
     <t xml:space="preserve"> от 1 В до 57 В</t>
   </si>
   <si>
@@ -2548,25 +2510,574 @@
     <t>33 мкГн</t>
   </si>
   <si>
-    <t>Индуктивность 33мкГн ±20 %</t>
-  </si>
-  <si>
     <t>CAPAE-660X660X580</t>
   </si>
   <si>
     <t>pcb\capae_660x660x580.PcbLib</t>
+  </si>
+  <si>
+    <t>r0025</t>
+  </si>
+  <si>
+    <t>r0026</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 2 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 3 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-072KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-073KL</t>
+  </si>
+  <si>
+    <t>3 к</t>
+  </si>
+  <si>
+    <t>RC0603FR-07165KL</t>
+  </si>
+  <si>
+    <t>165 к</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 165 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>r0027</t>
+  </si>
+  <si>
+    <t>SRP7028A-220M</t>
+  </si>
+  <si>
+    <t>Индуктивность 33 мкГн ±20 %</t>
+  </si>
+  <si>
+    <t>Индуктивность 22 мкГн ±20 %</t>
+  </si>
+  <si>
+    <t>Bourns, Inc.</t>
+  </si>
+  <si>
+    <t>22 мкГн</t>
+  </si>
+  <si>
+    <t>165 мОм</t>
+  </si>
+  <si>
+    <t>190 мОм</t>
+  </si>
+  <si>
+    <t>2 А</t>
+  </si>
+  <si>
+    <t>10 МГц</t>
+  </si>
+  <si>
+    <t>3,5 А</t>
+  </si>
+  <si>
+    <t>Номинальный ток (при нагреве на 20 °С/40 °С)</t>
+  </si>
+  <si>
+    <t>от -55 °С до +150 °С</t>
+  </si>
+  <si>
+    <t>6,7 x 6,6 x 2,8</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/products/magnetic-products/power-inductors-aec-q200-compliant/product/SRP7028A</t>
+  </si>
+  <si>
+    <t>SRP-2-670X660X280</t>
+  </si>
+  <si>
+    <t>XAL-2-1620X1520X1100</t>
+  </si>
+  <si>
+    <t>pcb\xal_2_1620x1520x1100.PcbLib</t>
+  </si>
+  <si>
+    <t>pcb\srp_2_670x660x280.PcbLib</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 1206 22 мкФ 16 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20 %</t>
+    </r>
+  </si>
+  <si>
+    <t>c0023</t>
+  </si>
+  <si>
+    <t>CC1206MKX7R7BB226</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R0BB103</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-NP0X7R_MV_100-to-630V_22.pdf</t>
+  </si>
+  <si>
+    <t>c0024</t>
+  </si>
+  <si>
+    <t>CC1206KKX7R0BB225</t>
+  </si>
+  <si>
+    <t>c0025</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 1206 2,2 мкФ 100 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+  </si>
+  <si>
+    <t>CC0603JPX7R7BB333</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0603 0,033 мкФ 16 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %</t>
+    </r>
+  </si>
+  <si>
+    <t>c0026</t>
+  </si>
+  <si>
+    <t>0,033 мк</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 127 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 19,1 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-0719K1L</t>
+  </si>
+  <si>
+    <t>RC0603FR-07127KL</t>
+  </si>
+  <si>
+    <t>127 к</t>
+  </si>
+  <si>
+    <t>19,1 к</t>
+  </si>
+  <si>
+    <t>r0028</t>
+  </si>
+  <si>
+    <t>r0029</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 0,01 мкФ 100 В ±5 %</t>
+  </si>
+  <si>
+    <t>MAL214699904E3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор электролитический 47 мкФ 100 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0 %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.vishay.com/capacitors/list/product-28403/</t>
+  </si>
+  <si>
+    <t>c0027</t>
+  </si>
+  <si>
+    <t>CAPAE (10,5 x 10,5 x 12,5)</t>
+  </si>
+  <si>
+    <t>pcb\capae_1050x1050x1250.PcbLib</t>
+  </si>
+  <si>
+    <t>CAPAE-1050X1050X1250</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R0BB272</t>
+  </si>
+  <si>
+    <t>c0028</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 2700 пФ 100 В ±10 %</t>
+  </si>
+  <si>
+    <t>RC0603FR-0757K6L</t>
+  </si>
+  <si>
+    <t>r0030</t>
+  </si>
+  <si>
+    <t>57,6 к</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 57,6 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-076K04L</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 6,04 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>r0031</t>
+  </si>
+  <si>
+    <t>6,04 к</t>
+  </si>
+  <si>
+    <t>26,7 к</t>
+  </si>
+  <si>
+    <t>RC0603FR-0726K7L</t>
+  </si>
+  <si>
+    <t>r0032</t>
+  </si>
+  <si>
+    <t>r0033</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 26,7 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>RC0603FR-0744K2L</t>
+  </si>
+  <si>
+    <t>44,2 к</t>
+  </si>
+  <si>
+    <t>Резистор чип 0603 44,2 кОм ±1 % 0,1 Вт</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO7BN820</t>
+  </si>
+  <si>
+    <t>82 п</t>
+  </si>
+  <si>
+    <t>2700 п</t>
+  </si>
+  <si>
+    <t>6800 п</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-GP_NP0_16V-to-50V_18.pdf</t>
+  </si>
+  <si>
+    <t>c0029</t>
+  </si>
+  <si>
+    <t>Конденсатор чип 0603 82 пФ 16 В ±5 %</t>
+  </si>
+  <si>
+    <t>CC1206KKX7R0BB105</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 1206 1 мкФ 100 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 %</t>
+    </r>
+  </si>
+  <si>
+    <t>c0030</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/products/tvs-diodes/surface-mount/1_5smc.aspx</t>
+  </si>
+  <si>
+    <t>vd0008</t>
+  </si>
+  <si>
+    <t>Двунаправленная диодная сборка для подавления помех, 53 В</t>
+  </si>
+  <si>
+    <t>1.5SMC62CA</t>
+  </si>
+  <si>
+    <t>DO-214AB</t>
+  </si>
+  <si>
+    <t>pcb\do_214ab.PcbLib</t>
+  </si>
+  <si>
+    <t>sch\zener_bi_directional.SchLib</t>
+  </si>
+  <si>
+    <t>ZENER-BI-DIRECTIONAL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0402 6800 пФ 50 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 %</t>
+    </r>
+  </si>
+  <si>
+    <t>c0031</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Конденсатор чип 0603 0,1 мкФ 100 В </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %</t>
+    </r>
+  </si>
+  <si>
+    <t>CC0603KRX7R0BB104</t>
+  </si>
+  <si>
+    <t>Защитная микросхема eFuse 60 В и 2 А</t>
+  </si>
+  <si>
+    <t>TPS26600PWPR</t>
+  </si>
+  <si>
+    <t>от 4,2 В до 60 В</t>
+  </si>
+  <si>
+    <t>от 0,1 А до 2,23 А</t>
+  </si>
+  <si>
+    <t>Максимальное напряжение</t>
+  </si>
+  <si>
+    <t>62 В</t>
+  </si>
+  <si>
+    <t>Ток</t>
+  </si>
+  <si>
+    <t>Напряжение</t